--- a/Port Adelaide_stats.xlsx
+++ b/Port Adelaide_stats.xlsx
@@ -12796,7 +12796,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Goal Assists</t>
+          <t>Goal Assists1</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -17150,7 +17150,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Clearances</t>
+          <t>Clearances1</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -17772,7 +17772,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Clangers</t>
+          <t>Clangers1</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -18394,7 +18394,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Rebound 50s</t>
+          <t>Rebound 50s1</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -29590,7 +29590,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Clangers</t>
+          <t>Clangers2</t>
         </is>
       </c>
       <c r="B48" t="n">
@@ -31456,7 +31456,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Clearances</t>
+          <t>Clearances2</t>
         </is>
       </c>
       <c r="B51" t="n">
@@ -32078,7 +32078,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Rebound 50s</t>
+          <t>Rebound 50s2</t>
         </is>
       </c>
       <c r="B52" t="n">
@@ -33944,7 +33944,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Goals Assists</t>
+          <t>Goals Assists2</t>
         </is>
       </c>
       <c r="B55" t="n">
@@ -35188,7 +35188,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Kicks (every)</t>
+          <t>Kicks (O)</t>
         </is>
       </c>
       <c r="B57" t="n">
@@ -35810,7 +35810,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Handballs (row)</t>
+          <t>Handballs (O)</t>
         </is>
       </c>
       <c r="B58" t="n">
@@ -36432,7 +36432,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Disposals (from)</t>
+          <t>Disposals (O)</t>
         </is>
       </c>
       <c r="B59" t="n">
@@ -37054,7 +37054,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Kick to HB Ratio (kicks)</t>
+          <t>Kick to HB Ratio (O)</t>
         </is>
       </c>
       <c r="B60" t="n">
@@ -37676,7 +37676,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Marks (below)</t>
+          <t>Marks (O)</t>
         </is>
       </c>
       <c r="B61" t="n">
@@ -38298,7 +38298,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Tackles(is against)</t>
+          <t>Tackles(O)</t>
         </is>
       </c>
       <c r="B62" t="n">
@@ -38920,7 +38920,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Hitouts</t>
+          <t>Hitouts(O)</t>
         </is>
       </c>
       <c r="B63" t="n">
@@ -39542,7 +39542,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Frees For</t>
+          <t>Frees For(O)</t>
         </is>
       </c>
       <c r="B64" t="n">
@@ -40164,7 +40164,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Frees Against</t>
+          <t>Frees Against(O)</t>
         </is>
       </c>
       <c r="B65" t="n">
@@ -40786,7 +40786,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Goals Kicked</t>
+          <t>Goals Kicked(O)</t>
         </is>
       </c>
       <c r="B66" t="n">
@@ -41408,7 +41408,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Goal Assists</t>
+          <t>Goal Assists1(O)</t>
         </is>
       </c>
       <c r="B67" t="n">
@@ -42030,7 +42030,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Behinds Kicked</t>
+          <t>Behinds Kicked(O)</t>
         </is>
       </c>
       <c r="B68" t="n">
@@ -42652,7 +42652,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Rushed Behinds</t>
+          <t>Rushed Behinds(O)</t>
         </is>
       </c>
       <c r="B69" t="n">
@@ -43274,7 +43274,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Scoring Shots</t>
+          <t>Scoring Shots(O)</t>
         </is>
       </c>
       <c r="B70" t="n">
@@ -43896,7 +43896,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Conversion %</t>
+          <t>Conversion %(O)</t>
         </is>
       </c>
       <c r="B71" t="n">
@@ -44518,7 +44518,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Disposals Per Goal</t>
+          <t>Disposals Per Goal(O)</t>
         </is>
       </c>
       <c r="B72" t="n">
@@ -45140,7 +45140,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Disposals Per Scoring Shot</t>
+          <t>Disposals Per Scoring Shot(O)</t>
         </is>
       </c>
       <c r="B73" t="n">
@@ -45762,7 +45762,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Clearances</t>
+          <t>Clearances1(O)</t>
         </is>
       </c>
       <c r="B74" t="n">
@@ -46384,7 +46384,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Clangers</t>
+          <t>Clangers1(O)</t>
         </is>
       </c>
       <c r="B75" t="n">
@@ -47006,7 +47006,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Rebound 50s</t>
+          <t>Rebound 50s1(O)</t>
         </is>
       </c>
       <c r="B76" t="n">
@@ -47628,7 +47628,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Inside 50s</t>
+          <t>Inside 50s(O)</t>
         </is>
       </c>
       <c r="B77" t="n">
@@ -48250,7 +48250,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>In50s Per Scoring Shot</t>
+          <t>In50s Per Scoring Shot(O)</t>
         </is>
       </c>
       <c r="B78" t="n">
@@ -48872,7 +48872,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>In50s Per Goal</t>
+          <t>In50s Per Goal(O)</t>
         </is>
       </c>
       <c r="B79" t="n">
@@ -49494,7 +49494,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>% In50s Score</t>
+          <t>% In50s Score(O)</t>
         </is>
       </c>
       <c r="B80" t="n">
@@ -50116,7 +50116,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>% In50s Goal</t>
+          <t>% In50s Goal(O)</t>
         </is>
       </c>
       <c r="B81" t="n">
@@ -50738,7 +50738,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Height</t>
+          <t>Height(O)</t>
         </is>
       </c>
       <c r="B82" t="n">
@@ -51360,7 +51360,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Weight</t>
+          <t>Weight(O)</t>
         </is>
       </c>
       <c r="B83" t="n">
@@ -51982,7 +51982,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Age</t>
+          <t>Age(O)</t>
         </is>
       </c>
       <c r="B84" t="n">
@@ -52604,7 +52604,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Av Games</t>
+          <t>Av Games(O)</t>
         </is>
       </c>
       <c r="B85" t="n">
@@ -53226,7 +53226,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>&lt;50 Games</t>
+          <t>&lt;50 Games(O)</t>
         </is>
       </c>
       <c r="B86" t="n">
@@ -53848,7 +53848,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>50-99 Games</t>
+          <t>50-99 Games(O)</t>
         </is>
       </c>
       <c r="B87" t="n">
@@ -54470,7 +54470,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>100-149 Games</t>
+          <t>100-149 Games(O)</t>
         </is>
       </c>
       <c r="B88" t="n">
@@ -55092,7 +55092,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>&gt;150 Games</t>
+          <t>&gt;150 Games(O)</t>
         </is>
       </c>
       <c r="B89" t="n">
@@ -55714,7 +55714,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Contested Poss</t>
+          <t>Contested Poss(O)</t>
         </is>
       </c>
       <c r="B90" t="n">
@@ -56336,7 +56336,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Uncontested Poss</t>
+          <t>Uncontested Poss(O)</t>
         </is>
       </c>
       <c r="B91" t="n">
@@ -56958,7 +56958,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Effective Disposals</t>
+          <t>Effective Disposals(O)</t>
         </is>
       </c>
       <c r="B92" t="n">
@@ -57580,7 +57580,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Disposal Efficiency</t>
+          <t>Disposal Efficiency(O)</t>
         </is>
       </c>
       <c r="B93" t="n">
@@ -58202,7 +58202,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Clangers</t>
+          <t>Clangers2(O)</t>
         </is>
       </c>
       <c r="B94" t="n">
@@ -58824,7 +58824,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Contested Marks</t>
+          <t>Contested Marks(O)</t>
         </is>
       </c>
       <c r="B95" t="n">
@@ -59446,7 +59446,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Marks Inside 50</t>
+          <t>Marks Inside 50(O)</t>
         </is>
       </c>
       <c r="B96" t="n">
@@ -60068,7 +60068,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Clearances</t>
+          <t>Clearances2(O)</t>
         </is>
       </c>
       <c r="B97" t="n">
@@ -60690,7 +60690,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Rebound 50s</t>
+          <t>Rebound 50s2(O)</t>
         </is>
       </c>
       <c r="B98" t="n">
@@ -61312,7 +61312,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>1%ers</t>
+          <t>1%ers(O)</t>
         </is>
       </c>
       <c r="B99" t="n">
@@ -61934,7 +61934,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Bounces</t>
+          <t>Bounces(O)</t>
         </is>
       </c>
       <c r="B100" t="n">
@@ -62556,7 +62556,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Goals Assists</t>
+          <t>Goals Assists2(O)</t>
         </is>
       </c>
       <c r="B101" t="n">
@@ -63178,7 +63178,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Goal Assist %</t>
+          <t>Goal Assist %(O)</t>
         </is>
       </c>
       <c r="B102" t="n">

--- a/Port Adelaide_stats.xlsx
+++ b/Port Adelaide_stats.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
@@ -44,15 +44,15 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:GX102"/>
+  <dimension ref="A1:GZ102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -974,6 +974,12 @@
       <c r="GX1" t="n">
         <v>9933</v>
       </c>
+      <c r="GY1" t="n">
+        <v>10130</v>
+      </c>
+      <c r="GZ1" t="n">
+        <v>10143</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1596,6 +1602,12 @@
       <c r="GX2" t="n">
         <v>2020</v>
       </c>
+      <c r="GY2" t="n">
+        <v>2020</v>
+      </c>
+      <c r="GZ2" t="n">
+        <v>2020</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2218,6 +2230,12 @@
       <c r="GX3" t="n">
         <v>1</v>
       </c>
+      <c r="GY3" t="n">
+        <v>2</v>
+      </c>
+      <c r="GZ3" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -2840,6 +2858,12 @@
       <c r="GX4" t="n">
         <v>1</v>
       </c>
+      <c r="GY4" t="n">
+        <v>0</v>
+      </c>
+      <c r="GZ4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -3462,6 +3486,12 @@
       <c r="GX5" t="n">
         <v>1</v>
       </c>
+      <c r="GY5" t="n">
+        <v>0</v>
+      </c>
+      <c r="GZ5" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -4084,6 +4114,12 @@
       <c r="GX6" t="n">
         <v>76</v>
       </c>
+      <c r="GY6" t="n">
+        <v>110</v>
+      </c>
+      <c r="GZ6" t="n">
+        <v>70</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -4706,6 +4742,12 @@
       <c r="GX7" t="n">
         <v>29</v>
       </c>
+      <c r="GY7" t="n">
+        <v>35</v>
+      </c>
+      <c r="GZ7" t="n">
+        <v>41</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -5328,6 +5370,12 @@
       <c r="GX8" t="n">
         <v>47</v>
       </c>
+      <c r="GY8" t="n">
+        <v>75</v>
+      </c>
+      <c r="GZ8" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -5950,6 +5998,12 @@
       <c r="GX9" t="n">
         <v>1</v>
       </c>
+      <c r="GY9" t="n">
+        <v>1</v>
+      </c>
+      <c r="GZ9" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -6572,6 +6626,12 @@
       <c r="GX10" t="n">
         <v>8</v>
       </c>
+      <c r="GY10" t="n">
+        <v>1</v>
+      </c>
+      <c r="GZ10" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -7194,6 +7254,12 @@
       <c r="GX11" t="n">
         <v>218</v>
       </c>
+      <c r="GY11" t="n">
+        <v>226</v>
+      </c>
+      <c r="GZ11" t="n">
+        <v>179</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -7816,6 +7882,12 @@
       <c r="GX12" t="n">
         <v>139</v>
       </c>
+      <c r="GY12" t="n">
+        <v>137</v>
+      </c>
+      <c r="GZ12" t="n">
+        <v>95</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -8438,6 +8510,12 @@
       <c r="GX13" t="n">
         <v>357</v>
       </c>
+      <c r="GY13" t="n">
+        <v>363</v>
+      </c>
+      <c r="GZ13" t="n">
+        <v>274</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -9060,6 +9138,12 @@
       <c r="GX14" t="n">
         <v>1.57</v>
       </c>
+      <c r="GY14" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="GZ14" t="n">
+        <v>1.88</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -9682,6 +9766,12 @@
       <c r="GX15" t="n">
         <v>90</v>
       </c>
+      <c r="GY15" t="n">
+        <v>105</v>
+      </c>
+      <c r="GZ15" t="n">
+        <v>59</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -10304,6 +10394,12 @@
       <c r="GX16" t="n">
         <v>58</v>
       </c>
+      <c r="GY16" t="n">
+        <v>61</v>
+      </c>
+      <c r="GZ16" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -10926,6 +11022,12 @@
       <c r="GX17" t="n">
         <v>32</v>
       </c>
+      <c r="GY17" t="n">
+        <v>40</v>
+      </c>
+      <c r="GZ17" t="n">
+        <v>44</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -11548,6 +11650,12 @@
       <c r="GX18" t="n">
         <v>17</v>
       </c>
+      <c r="GY18" t="n">
+        <v>17</v>
+      </c>
+      <c r="GZ18" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -12170,6 +12278,12 @@
       <c r="GX19" t="n">
         <v>14</v>
       </c>
+      <c r="GY19" t="n">
+        <v>14</v>
+      </c>
+      <c r="GZ19" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -12792,6 +12906,12 @@
       <c r="GX20" t="n">
         <v>10</v>
       </c>
+      <c r="GY20" t="n">
+        <v>17</v>
+      </c>
+      <c r="GZ20" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -13414,6 +13534,12 @@
       <c r="GX21" t="n">
         <v>8</v>
       </c>
+      <c r="GY21" t="n">
+        <v>9</v>
+      </c>
+      <c r="GZ21" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -14036,6 +14162,12 @@
       <c r="GX22" t="n">
         <v>13</v>
       </c>
+      <c r="GY22" t="n">
+        <v>4</v>
+      </c>
+      <c r="GZ22" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -14658,6 +14790,12 @@
       <c r="GX23" t="n">
         <v>3</v>
       </c>
+      <c r="GY23" t="n">
+        <v>4</v>
+      </c>
+      <c r="GZ23" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -15280,6 +15418,12 @@
       <c r="GX24" t="n">
         <v>26</v>
       </c>
+      <c r="GY24" t="n">
+        <v>25</v>
+      </c>
+      <c r="GZ24" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -15902,6 +16046,12 @@
       <c r="GX25" t="n">
         <v>38.5</v>
       </c>
+      <c r="GY25" t="n">
+        <v>68</v>
+      </c>
+      <c r="GZ25" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -16524,6 +16674,12 @@
       <c r="GX26" t="n">
         <v>35.7</v>
       </c>
+      <c r="GY26" t="n">
+        <v>21.35</v>
+      </c>
+      <c r="GZ26" t="n">
+        <v>27.4</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -17146,6 +17302,12 @@
       <c r="GX27" t="n">
         <v>13.73</v>
       </c>
+      <c r="GY27" t="n">
+        <v>14.52</v>
+      </c>
+      <c r="GZ27" t="n">
+        <v>13.7</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -17768,6 +17930,12 @@
       <c r="GX28" t="n">
         <v>35</v>
       </c>
+      <c r="GY28" t="n">
+        <v>39</v>
+      </c>
+      <c r="GZ28" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -18390,6 +18558,12 @@
       <c r="GX29" t="n">
         <v>44</v>
       </c>
+      <c r="GY29" t="n">
+        <v>49</v>
+      </c>
+      <c r="GZ29" t="n">
+        <v>55</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -19012,6 +19186,12 @@
       <c r="GX30" t="n">
         <v>26</v>
       </c>
+      <c r="GY30" t="n">
+        <v>25</v>
+      </c>
+      <c r="GZ30" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -19634,6 +19814,12 @@
       <c r="GX31" t="n">
         <v>62</v>
       </c>
+      <c r="GY31" t="n">
+        <v>57</v>
+      </c>
+      <c r="GZ31" t="n">
+        <v>55</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -20256,6 +20442,12 @@
       <c r="GX32" t="n">
         <v>2.38</v>
       </c>
+      <c r="GY32" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="GZ32" t="n">
+        <v>2.75</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -20878,6 +21070,12 @@
       <c r="GX33" t="n">
         <v>6.2</v>
       </c>
+      <c r="GY33" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="GZ33" t="n">
+        <v>5.5</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -21500,6 +21698,12 @@
       <c r="GX34" t="n">
         <v>37.1</v>
       </c>
+      <c r="GY34" t="n">
+        <v>36.8</v>
+      </c>
+      <c r="GZ34" t="n">
+        <v>30.9</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -22122,6 +22326,12 @@
       <c r="GX35" t="n">
         <v>16.1</v>
       </c>
+      <c r="GY35" t="n">
+        <v>29.8</v>
+      </c>
+      <c r="GZ35" t="n">
+        <v>18.2</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -22744,6 +22954,12 @@
       <c r="GX36" t="n">
         <v>188.4</v>
       </c>
+      <c r="GY36" t="n">
+        <v>188.5</v>
+      </c>
+      <c r="GZ36" t="n">
+        <v>188.4</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -23366,6 +23582,12 @@
       <c r="GX37" t="n">
         <v>83.5</v>
       </c>
+      <c r="GY37" t="n">
+        <v>84.59999999999999</v>
+      </c>
+      <c r="GZ37" t="n">
+        <v>84.59999999999999</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -23988,6 +24210,12 @@
       <c r="GX38" t="n">
         <v>25.8</v>
       </c>
+      <c r="GY38" t="n">
+        <v>26.49</v>
+      </c>
+      <c r="GZ38" t="n">
+        <v>26.58</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -24610,6 +24838,12 @@
       <c r="GX39" t="n">
         <v>108.3</v>
       </c>
+      <c r="GY39" t="n">
+        <v>116.6</v>
+      </c>
+      <c r="GZ39" t="n">
+        <v>121.1</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -25232,6 +25466,12 @@
       <c r="GX40" t="n">
         <v>6</v>
       </c>
+      <c r="GY40" t="n">
+        <v>5</v>
+      </c>
+      <c r="GZ40" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -25854,6 +26094,12 @@
       <c r="GX41" t="n">
         <v>7</v>
       </c>
+      <c r="GY41" t="n">
+        <v>7</v>
+      </c>
+      <c r="GZ41" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -26476,6 +26722,12 @@
       <c r="GX42" t="n">
         <v>2</v>
       </c>
+      <c r="GY42" t="n">
+        <v>3</v>
+      </c>
+      <c r="GZ42" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -27098,6 +27350,12 @@
       <c r="GX43" t="n">
         <v>7</v>
       </c>
+      <c r="GY43" t="n">
+        <v>7</v>
+      </c>
+      <c r="GZ43" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -27720,6 +27978,12 @@
       <c r="GX44" t="n">
         <v>131</v>
       </c>
+      <c r="GY44" t="n">
+        <v>138</v>
+      </c>
+      <c r="GZ44" t="n">
+        <v>130</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -28342,6 +28606,12 @@
       <c r="GX45" t="n">
         <v>221</v>
       </c>
+      <c r="GY45" t="n">
+        <v>225</v>
+      </c>
+      <c r="GZ45" t="n">
+        <v>146</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -28964,6 +29234,12 @@
       <c r="GX46" t="n">
         <v>263</v>
       </c>
+      <c r="GY46" t="n">
+        <v>268</v>
+      </c>
+      <c r="GZ46" t="n">
+        <v>183</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -29586,6 +29862,12 @@
       <c r="GX47" t="n">
         <v>73.7</v>
       </c>
+      <c r="GY47" t="n">
+        <v>73.8</v>
+      </c>
+      <c r="GZ47" t="n">
+        <v>66.8</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -30208,6 +30490,12 @@
       <c r="GX48" t="n">
         <v>44</v>
       </c>
+      <c r="GY48" t="n">
+        <v>49</v>
+      </c>
+      <c r="GZ48" t="n">
+        <v>55</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -30830,6 +31118,12 @@
       <c r="GX49" t="n">
         <v>7</v>
       </c>
+      <c r="GY49" t="n">
+        <v>14</v>
+      </c>
+      <c r="GZ49" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -31452,6 +31746,12 @@
       <c r="GX50" t="n">
         <v>12</v>
       </c>
+      <c r="GY50" t="n">
+        <v>13</v>
+      </c>
+      <c r="GZ50" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -32074,6 +32374,12 @@
       <c r="GX51" t="n">
         <v>35</v>
       </c>
+      <c r="GY51" t="n">
+        <v>39</v>
+      </c>
+      <c r="GZ51" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -32696,6 +33002,12 @@
       <c r="GX52" t="n">
         <v>26</v>
       </c>
+      <c r="GY52" t="n">
+        <v>25</v>
+      </c>
+      <c r="GZ52" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -33318,6 +33630,12 @@
       <c r="GX53" t="n">
         <v>41</v>
       </c>
+      <c r="GY53" t="n">
+        <v>45</v>
+      </c>
+      <c r="GZ53" t="n">
+        <v>63</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -33940,6 +34258,12 @@
       <c r="GX54" t="n">
         <v>2</v>
       </c>
+      <c r="GY54" t="n">
+        <v>0</v>
+      </c>
+      <c r="GZ54" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -34562,6 +34886,12 @@
       <c r="GX55" t="n">
         <v>8</v>
       </c>
+      <c r="GY55" t="n">
+        <v>9</v>
+      </c>
+      <c r="GZ55" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -35184,6 +35514,12 @@
       <c r="GX56" t="n">
         <v>80</v>
       </c>
+      <c r="GY56" t="n">
+        <v>52.9</v>
+      </c>
+      <c r="GZ56" t="n">
+        <v>70</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -35806,6 +36142,12 @@
       <c r="GX57" t="n">
         <v>173</v>
       </c>
+      <c r="GY57" t="n">
+        <v>138</v>
+      </c>
+      <c r="GZ57" t="n">
+        <v>163</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -36428,6 +36770,12 @@
       <c r="GX58" t="n">
         <v>123</v>
       </c>
+      <c r="GY58" t="n">
+        <v>121</v>
+      </c>
+      <c r="GZ58" t="n">
+        <v>97</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -37050,6 +37398,12 @@
       <c r="GX59" t="n">
         <v>296</v>
       </c>
+      <c r="GY59" t="n">
+        <v>259</v>
+      </c>
+      <c r="GZ59" t="n">
+        <v>260</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -37672,6 +38026,12 @@
       <c r="GX60" t="n">
         <v>1.41</v>
       </c>
+      <c r="GY60" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="GZ60" t="n">
+        <v>1.68</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -38294,6 +38654,12 @@
       <c r="GX61" t="n">
         <v>59</v>
       </c>
+      <c r="GY61" t="n">
+        <v>39</v>
+      </c>
+      <c r="GZ61" t="n">
+        <v>59</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -38916,6 +39282,12 @@
       <c r="GX62" t="n">
         <v>40</v>
       </c>
+      <c r="GY62" t="n">
+        <v>45</v>
+      </c>
+      <c r="GZ62" t="n">
+        <v>49</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -39538,6 +39910,12 @@
       <c r="GX63" t="n">
         <v>34</v>
       </c>
+      <c r="GY63" t="n">
+        <v>30</v>
+      </c>
+      <c r="GZ63" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -40160,6 +40538,12 @@
       <c r="GX64" t="n">
         <v>14</v>
       </c>
+      <c r="GY64" t="n">
+        <v>14</v>
+      </c>
+      <c r="GZ64" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -40782,6 +41166,12 @@
       <c r="GX65" t="n">
         <v>17</v>
       </c>
+      <c r="GY65" t="n">
+        <v>17</v>
+      </c>
+      <c r="GZ65" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -41404,6 +41794,12 @@
       <c r="GX66" t="n">
         <v>4</v>
       </c>
+      <c r="GY66" t="n">
+        <v>5</v>
+      </c>
+      <c r="GZ66" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -42026,6 +42422,12 @@
       <c r="GX67" t="n">
         <v>3</v>
       </c>
+      <c r="GY67" t="n">
+        <v>5</v>
+      </c>
+      <c r="GZ67" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -42648,6 +43050,12 @@
       <c r="GX68" t="n">
         <v>2</v>
       </c>
+      <c r="GY68" t="n">
+        <v>4</v>
+      </c>
+      <c r="GZ68" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -43270,6 +43678,12 @@
       <c r="GX69" t="n">
         <v>3</v>
       </c>
+      <c r="GY69" t="n">
+        <v>1</v>
+      </c>
+      <c r="GZ69" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -43892,6 +44306,12 @@
       <c r="GX70" t="n">
         <v>9</v>
       </c>
+      <c r="GY70" t="n">
+        <v>10</v>
+      </c>
+      <c r="GZ70" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -44514,6 +44934,12 @@
       <c r="GX71" t="n">
         <v>44.4</v>
       </c>
+      <c r="GY71" t="n">
+        <v>50</v>
+      </c>
+      <c r="GZ71" t="n">
+        <v>54.5</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -45136,6 +45562,12 @@
       <c r="GX72" t="n">
         <v>74</v>
       </c>
+      <c r="GY72" t="n">
+        <v>51.8</v>
+      </c>
+      <c r="GZ72" t="n">
+        <v>43.33</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -45758,6 +46190,12 @@
       <c r="GX73" t="n">
         <v>32.89</v>
       </c>
+      <c r="GY73" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="GZ73" t="n">
+        <v>23.64</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -46380,6 +46818,12 @@
       <c r="GX74" t="n">
         <v>24</v>
       </c>
+      <c r="GY74" t="n">
+        <v>31</v>
+      </c>
+      <c r="GZ74" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -47002,6 +47446,12 @@
       <c r="GX75" t="n">
         <v>45</v>
       </c>
+      <c r="GY75" t="n">
+        <v>55</v>
+      </c>
+      <c r="GZ75" t="n">
+        <v>51</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -47624,6 +48074,12 @@
       <c r="GX76" t="n">
         <v>51</v>
       </c>
+      <c r="GY76" t="n">
+        <v>39</v>
+      </c>
+      <c r="GZ76" t="n">
+        <v>44</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -48246,6 +48702,12 @@
       <c r="GX77" t="n">
         <v>31</v>
       </c>
+      <c r="GY77" t="n">
+        <v>30</v>
+      </c>
+      <c r="GZ77" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -48868,6 +49330,12 @@
       <c r="GX78" t="n">
         <v>3.44</v>
       </c>
+      <c r="GY78" t="n">
+        <v>3</v>
+      </c>
+      <c r="GZ78" t="n">
+        <v>3.09</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -49490,6 +49958,12 @@
       <c r="GX79" t="n">
         <v>7.75</v>
       </c>
+      <c r="GY79" t="n">
+        <v>6</v>
+      </c>
+      <c r="GZ79" t="n">
+        <v>5.67</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -50112,6 +50586,12 @@
       <c r="GX80" t="n">
         <v>19.4</v>
       </c>
+      <c r="GY80" t="n">
+        <v>30</v>
+      </c>
+      <c r="GZ80" t="n">
+        <v>29.4</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -50734,6 +51214,12 @@
       <c r="GX81" t="n">
         <v>12.9</v>
       </c>
+      <c r="GY81" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="GZ81" t="n">
+        <v>17.6</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -51356,6 +51842,12 @@
       <c r="GX82" t="n">
         <v>187.6</v>
       </c>
+      <c r="GY82" t="n">
+        <v>187.2</v>
+      </c>
+      <c r="GZ82" t="n">
+        <v>187.3</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -51978,6 +52470,12 @@
       <c r="GX83" t="n">
         <v>86.3</v>
       </c>
+      <c r="GY83" t="n">
+        <v>86.3</v>
+      </c>
+      <c r="GZ83" t="n">
+        <v>87.3</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -52600,6 +53098,12 @@
       <c r="GX84" t="n">
         <v>23.16</v>
       </c>
+      <c r="GY84" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="GZ84" t="n">
+        <v>25.24</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -53222,6 +53726,12 @@
       <c r="GX85" t="n">
         <v>56.3</v>
       </c>
+      <c r="GY85" t="n">
+        <v>85.90000000000001</v>
+      </c>
+      <c r="GZ85" t="n">
+        <v>82.8</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -53844,6 +54354,12 @@
       <c r="GX86" t="n">
         <v>13</v>
       </c>
+      <c r="GY86" t="n">
+        <v>9</v>
+      </c>
+      <c r="GZ86" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -54466,6 +54982,12 @@
       <c r="GX87" t="n">
         <v>4</v>
       </c>
+      <c r="GY87" t="n">
+        <v>4</v>
+      </c>
+      <c r="GZ87" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -55088,6 +55610,12 @@
       <c r="GX88" t="n">
         <v>4</v>
       </c>
+      <c r="GY88" t="n">
+        <v>4</v>
+      </c>
+      <c r="GZ88" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -55710,6 +56238,12 @@
       <c r="GX89" t="n">
         <v>1</v>
       </c>
+      <c r="GY89" t="n">
+        <v>5</v>
+      </c>
+      <c r="GZ89" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -56332,6 +56866,12 @@
       <c r="GX90" t="n">
         <v>118</v>
       </c>
+      <c r="GY90" t="n">
+        <v>119</v>
+      </c>
+      <c r="GZ90" t="n">
+        <v>107</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -56954,6 +57494,12 @@
       <c r="GX91" t="n">
         <v>167</v>
       </c>
+      <c r="GY91" t="n">
+        <v>133</v>
+      </c>
+      <c r="GZ91" t="n">
+        <v>144</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -57576,6 +58122,12 @@
       <c r="GX92" t="n">
         <v>206</v>
       </c>
+      <c r="GY92" t="n">
+        <v>162</v>
+      </c>
+      <c r="GZ92" t="n">
+        <v>178</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -58198,6 +58750,12 @@
       <c r="GX93" t="n">
         <v>69.59999999999999</v>
       </c>
+      <c r="GY93" t="n">
+        <v>62.5</v>
+      </c>
+      <c r="GZ93" t="n">
+        <v>68.5</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -58820,6 +59378,12 @@
       <c r="GX94" t="n">
         <v>45</v>
       </c>
+      <c r="GY94" t="n">
+        <v>55</v>
+      </c>
+      <c r="GZ94" t="n">
+        <v>51</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -59442,6 +60006,12 @@
       <c r="GX95" t="n">
         <v>9</v>
       </c>
+      <c r="GY95" t="n">
+        <v>5</v>
+      </c>
+      <c r="GZ95" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -60064,6 +60634,12 @@
       <c r="GX96" t="n">
         <v>4</v>
       </c>
+      <c r="GY96" t="n">
+        <v>4</v>
+      </c>
+      <c r="GZ96" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -60686,6 +61262,12 @@
       <c r="GX97" t="n">
         <v>24</v>
       </c>
+      <c r="GY97" t="n">
+        <v>31</v>
+      </c>
+      <c r="GZ97" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -61308,6 +61890,12 @@
       <c r="GX98" t="n">
         <v>51</v>
       </c>
+      <c r="GY98" t="n">
+        <v>39</v>
+      </c>
+      <c r="GZ98" t="n">
+        <v>44</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -61930,6 +62518,12 @@
       <c r="GX99" t="n">
         <v>35</v>
       </c>
+      <c r="GY99" t="n">
+        <v>41</v>
+      </c>
+      <c r="GZ99" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -62552,6 +63146,12 @@
       <c r="GX100" t="n">
         <v>2</v>
       </c>
+      <c r="GY100" t="n">
+        <v>0</v>
+      </c>
+      <c r="GZ100" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -63174,6 +63774,12 @@
       <c r="GX101" t="n">
         <v>3</v>
       </c>
+      <c r="GY101" t="n">
+        <v>5</v>
+      </c>
+      <c r="GZ101" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -63796,8 +64402,14 @@
       <c r="GX102" t="n">
         <v>75</v>
       </c>
+      <c r="GY102" t="n">
+        <v>100</v>
+      </c>
+      <c r="GZ102" t="n">
+        <v>66.7</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/Port Adelaide_stats.xlsx
+++ b/Port Adelaide_stats.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
@@ -44,15 +44,15 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:GZ102"/>
+  <dimension ref="A1:HA102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -980,6 +980,9 @@
       <c r="GZ1" t="n">
         <v>10143</v>
       </c>
+      <c r="HA1" t="n">
+        <v>10146</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1608,6 +1611,9 @@
       <c r="GZ2" t="n">
         <v>2020</v>
       </c>
+      <c r="HA2" t="n">
+        <v>2020</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2236,6 +2242,9 @@
       <c r="GZ3" t="n">
         <v>3</v>
       </c>
+      <c r="HA3" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -2864,6 +2873,9 @@
       <c r="GZ4" t="n">
         <v>1</v>
       </c>
+      <c r="HA4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -3492,6 +3504,9 @@
       <c r="GZ5" t="n">
         <v>1</v>
       </c>
+      <c r="HA5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -4120,6 +4135,9 @@
       <c r="GZ6" t="n">
         <v>70</v>
       </c>
+      <c r="HA6" t="n">
+        <v>89</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -4748,6 +4766,9 @@
       <c r="GZ7" t="n">
         <v>41</v>
       </c>
+      <c r="HA7" t="n">
+        <v>41</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -5376,6 +5397,9 @@
       <c r="GZ8" t="n">
         <v>29</v>
       </c>
+      <c r="HA8" t="n">
+        <v>48</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -6004,6 +6028,9 @@
       <c r="GZ9" t="n">
         <v>1</v>
       </c>
+      <c r="HA9" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -6632,6 +6659,9 @@
       <c r="GZ10" t="n">
         <v>6</v>
       </c>
+      <c r="HA10" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -7260,6 +7290,9 @@
       <c r="GZ11" t="n">
         <v>179</v>
       </c>
+      <c r="HA11" t="n">
+        <v>199</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -7888,6 +7921,9 @@
       <c r="GZ12" t="n">
         <v>95</v>
       </c>
+      <c r="HA12" t="n">
+        <v>107</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -8516,6 +8552,9 @@
       <c r="GZ13" t="n">
         <v>274</v>
       </c>
+      <c r="HA13" t="n">
+        <v>306</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -9144,6 +9183,9 @@
       <c r="GZ14" t="n">
         <v>1.88</v>
       </c>
+      <c r="HA14" t="n">
+        <v>1.86</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -9772,6 +9814,9 @@
       <c r="GZ15" t="n">
         <v>59</v>
       </c>
+      <c r="HA15" t="n">
+        <v>90</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -10400,6 +10445,9 @@
       <c r="GZ16" t="n">
         <v>50</v>
       </c>
+      <c r="HA16" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -11028,6 +11076,9 @@
       <c r="GZ17" t="n">
         <v>44</v>
       </c>
+      <c r="HA17" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -11656,6 +11707,9 @@
       <c r="GZ18" t="n">
         <v>15</v>
       </c>
+      <c r="HA18" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -12284,6 +12338,9 @@
       <c r="GZ19" t="n">
         <v>17</v>
       </c>
+      <c r="HA19" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -12912,6 +12969,9 @@
       <c r="GZ20" t="n">
         <v>10</v>
       </c>
+      <c r="HA20" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -13540,6 +13600,9 @@
       <c r="GZ21" t="n">
         <v>7</v>
       </c>
+      <c r="HA21" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -14168,6 +14231,9 @@
       <c r="GZ22" t="n">
         <v>7</v>
       </c>
+      <c r="HA22" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -14796,6 +14862,9 @@
       <c r="GZ23" t="n">
         <v>3</v>
       </c>
+      <c r="HA23" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -15424,6 +15493,9 @@
       <c r="GZ24" t="n">
         <v>20</v>
       </c>
+      <c r="HA24" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -16052,6 +16124,9 @@
       <c r="GZ25" t="n">
         <v>50</v>
       </c>
+      <c r="HA25" t="n">
+        <v>54.2</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -16680,6 +16755,9 @@
       <c r="GZ26" t="n">
         <v>27.4</v>
       </c>
+      <c r="HA26" t="n">
+        <v>23.54</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -17308,6 +17386,9 @@
       <c r="GZ27" t="n">
         <v>13.7</v>
       </c>
+      <c r="HA27" t="n">
+        <v>12.75</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -17936,6 +18017,9 @@
       <c r="GZ28" t="n">
         <v>37</v>
       </c>
+      <c r="HA28" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -18564,6 +18648,9 @@
       <c r="GZ29" t="n">
         <v>55</v>
       </c>
+      <c r="HA29" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -19192,6 +19279,9 @@
       <c r="GZ30" t="n">
         <v>28</v>
       </c>
+      <c r="HA30" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -19820,6 +19910,9 @@
       <c r="GZ31" t="n">
         <v>55</v>
       </c>
+      <c r="HA31" t="n">
+        <v>48</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -20448,6 +20541,9 @@
       <c r="GZ32" t="n">
         <v>2.75</v>
       </c>
+      <c r="HA32" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -21076,6 +21172,9 @@
       <c r="GZ33" t="n">
         <v>5.5</v>
       </c>
+      <c r="HA33" t="n">
+        <v>3.69</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -21704,6 +21803,9 @@
       <c r="GZ34" t="n">
         <v>30.9</v>
       </c>
+      <c r="HA34" t="n">
+        <v>47.9</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -22332,6 +22434,9 @@
       <c r="GZ35" t="n">
         <v>18.2</v>
       </c>
+      <c r="HA35" t="n">
+        <v>27.1</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -22960,6 +23065,9 @@
       <c r="GZ36" t="n">
         <v>188.4</v>
       </c>
+      <c r="HA36" t="n">
+        <v>188.2</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -23588,6 +23696,9 @@
       <c r="GZ37" t="n">
         <v>84.59999999999999</v>
       </c>
+      <c r="HA37" t="n">
+        <v>84.59999999999999</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -24216,6 +24327,9 @@
       <c r="GZ38" t="n">
         <v>26.58</v>
       </c>
+      <c r="HA38" t="n">
+        <v>26.66</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -24844,6 +24958,9 @@
       <c r="GZ39" t="n">
         <v>121.1</v>
       </c>
+      <c r="HA39" t="n">
+        <v>121.6</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -25472,6 +25589,9 @@
       <c r="GZ40" t="n">
         <v>5</v>
       </c>
+      <c r="HA40" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -26100,6 +26220,9 @@
       <c r="GZ41" t="n">
         <v>6</v>
       </c>
+      <c r="HA41" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -26728,6 +26851,9 @@
       <c r="GZ42" t="n">
         <v>4</v>
       </c>
+      <c r="HA42" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -27356,6 +27482,9 @@
       <c r="GZ43" t="n">
         <v>7</v>
       </c>
+      <c r="HA43" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -27984,6 +28113,9 @@
       <c r="GZ44" t="n">
         <v>130</v>
       </c>
+      <c r="HA44" t="n">
+        <v>117</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -28612,6 +28744,9 @@
       <c r="GZ45" t="n">
         <v>146</v>
       </c>
+      <c r="HA45" t="n">
+        <v>182</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -29240,6 +29375,9 @@
       <c r="GZ46" t="n">
         <v>183</v>
       </c>
+      <c r="HA46" t="n">
+        <v>230</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -29868,6 +30006,9 @@
       <c r="GZ47" t="n">
         <v>66.8</v>
       </c>
+      <c r="HA47" t="n">
+        <v>75.2</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -30496,6 +30637,9 @@
       <c r="GZ48" t="n">
         <v>55</v>
       </c>
+      <c r="HA48" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -31124,6 +31268,9 @@
       <c r="GZ49" t="n">
         <v>7</v>
       </c>
+      <c r="HA49" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -31752,6 +31899,9 @@
       <c r="GZ50" t="n">
         <v>13</v>
       </c>
+      <c r="HA50" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -32380,6 +32530,9 @@
       <c r="GZ51" t="n">
         <v>37</v>
       </c>
+      <c r="HA51" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -33008,6 +33161,9 @@
       <c r="GZ52" t="n">
         <v>28</v>
       </c>
+      <c r="HA52" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -33636,6 +33792,9 @@
       <c r="GZ53" t="n">
         <v>63</v>
       </c>
+      <c r="HA53" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -34264,6 +34423,9 @@
       <c r="GZ54" t="n">
         <v>0</v>
       </c>
+      <c r="HA54" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -34892,6 +35054,9 @@
       <c r="GZ55" t="n">
         <v>7</v>
       </c>
+      <c r="HA55" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -35520,6 +35685,9 @@
       <c r="GZ56" t="n">
         <v>70</v>
       </c>
+      <c r="HA56" t="n">
+        <v>53.8</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -36148,6 +36316,9 @@
       <c r="GZ57" t="n">
         <v>163</v>
       </c>
+      <c r="HA57" t="n">
+        <v>175</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -36776,6 +36947,9 @@
       <c r="GZ58" t="n">
         <v>97</v>
       </c>
+      <c r="HA58" t="n">
+        <v>103</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -37404,6 +37578,9 @@
       <c r="GZ59" t="n">
         <v>260</v>
       </c>
+      <c r="HA59" t="n">
+        <v>278</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -38032,6 +38209,9 @@
       <c r="GZ60" t="n">
         <v>1.68</v>
       </c>
+      <c r="HA60" t="n">
+        <v>1.7</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -38660,6 +38840,9 @@
       <c r="GZ61" t="n">
         <v>59</v>
       </c>
+      <c r="HA61" t="n">
+        <v>71</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -39288,6 +39471,9 @@
       <c r="GZ62" t="n">
         <v>49</v>
       </c>
+      <c r="HA62" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -39916,6 +40102,9 @@
       <c r="GZ63" t="n">
         <v>20</v>
       </c>
+      <c r="HA63" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -40544,6 +40733,9 @@
       <c r="GZ64" t="n">
         <v>17</v>
       </c>
+      <c r="HA64" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -41172,6 +41364,9 @@
       <c r="GZ65" t="n">
         <v>15</v>
       </c>
+      <c r="HA65" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -41800,6 +41995,9 @@
       <c r="GZ66" t="n">
         <v>6</v>
       </c>
+      <c r="HA66" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -42428,6 +42626,9 @@
       <c r="GZ67" t="n">
         <v>4</v>
       </c>
+      <c r="HA67" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -43056,6 +43257,9 @@
       <c r="GZ68" t="n">
         <v>4</v>
       </c>
+      <c r="HA68" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -43684,6 +43888,9 @@
       <c r="GZ69" t="n">
         <v>1</v>
       </c>
+      <c r="HA69" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -44312,6 +44519,9 @@
       <c r="GZ70" t="n">
         <v>11</v>
       </c>
+      <c r="HA70" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -44940,6 +45150,9 @@
       <c r="GZ71" t="n">
         <v>54.5</v>
       </c>
+      <c r="HA71" t="n">
+        <v>54.5</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -45568,6 +45781,9 @@
       <c r="GZ72" t="n">
         <v>43.33</v>
       </c>
+      <c r="HA72" t="n">
+        <v>46.33</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -46196,6 +46412,9 @@
       <c r="GZ73" t="n">
         <v>23.64</v>
       </c>
+      <c r="HA73" t="n">
+        <v>25.27</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -46824,6 +47043,9 @@
       <c r="GZ74" t="n">
         <v>27</v>
       </c>
+      <c r="HA74" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -47452,6 +47674,9 @@
       <c r="GZ75" t="n">
         <v>51</v>
       </c>
+      <c r="HA75" t="n">
+        <v>47</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -48080,6 +48305,9 @@
       <c r="GZ76" t="n">
         <v>44</v>
       </c>
+      <c r="HA76" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -48708,6 +48936,9 @@
       <c r="GZ77" t="n">
         <v>34</v>
       </c>
+      <c r="HA77" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -49336,6 +49567,9 @@
       <c r="GZ78" t="n">
         <v>3.09</v>
       </c>
+      <c r="HA78" t="n">
+        <v>3.27</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -49964,6 +50198,9 @@
       <c r="GZ79" t="n">
         <v>5.67</v>
       </c>
+      <c r="HA79" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -50592,6 +50829,9 @@
       <c r="GZ80" t="n">
         <v>29.4</v>
       </c>
+      <c r="HA80" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -51220,6 +51460,9 @@
       <c r="GZ81" t="n">
         <v>17.6</v>
       </c>
+      <c r="HA81" t="n">
+        <v>16.7</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -51848,6 +52091,9 @@
       <c r="GZ82" t="n">
         <v>187.3</v>
       </c>
+      <c r="HA82" t="n">
+        <v>188.5</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -52476,6 +52722,9 @@
       <c r="GZ83" t="n">
         <v>87.3</v>
       </c>
+      <c r="HA83" t="n">
+        <v>88.7</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -53104,6 +53353,9 @@
       <c r="GZ84" t="n">
         <v>25.24</v>
       </c>
+      <c r="HA84" t="n">
+        <v>27.41</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -53732,6 +53984,9 @@
       <c r="GZ85" t="n">
         <v>82.8</v>
       </c>
+      <c r="HA85" t="n">
+        <v>134.8</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -54360,6 +54615,9 @@
       <c r="GZ86" t="n">
         <v>8</v>
       </c>
+      <c r="HA86" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -54988,6 +55246,9 @@
       <c r="GZ87" t="n">
         <v>7</v>
       </c>
+      <c r="HA87" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -55616,6 +55877,9 @@
       <c r="GZ88" t="n">
         <v>4</v>
       </c>
+      <c r="HA88" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -56244,6 +56508,9 @@
       <c r="GZ89" t="n">
         <v>3</v>
       </c>
+      <c r="HA89" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -56872,6 +57139,9 @@
       <c r="GZ90" t="n">
         <v>107</v>
       </c>
+      <c r="HA90" t="n">
+        <v>117</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -57500,6 +57770,9 @@
       <c r="GZ91" t="n">
         <v>144</v>
       </c>
+      <c r="HA91" t="n">
+        <v>157</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -58128,6 +58401,9 @@
       <c r="GZ92" t="n">
         <v>178</v>
       </c>
+      <c r="HA92" t="n">
+        <v>186</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -58756,6 +59032,9 @@
       <c r="GZ93" t="n">
         <v>68.5</v>
       </c>
+      <c r="HA93" t="n">
+        <v>66.90000000000001</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -59384,6 +59663,9 @@
       <c r="GZ94" t="n">
         <v>51</v>
       </c>
+      <c r="HA94" t="n">
+        <v>47</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -60012,6 +60294,9 @@
       <c r="GZ95" t="n">
         <v>7</v>
       </c>
+      <c r="HA95" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -60640,6 +60925,9 @@
       <c r="GZ96" t="n">
         <v>7</v>
       </c>
+      <c r="HA96" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -61268,6 +61556,9 @@
       <c r="GZ97" t="n">
         <v>27</v>
       </c>
+      <c r="HA97" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -61896,6 +62187,9 @@
       <c r="GZ98" t="n">
         <v>44</v>
       </c>
+      <c r="HA98" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -62524,6 +62818,9 @@
       <c r="GZ99" t="n">
         <v>39</v>
       </c>
+      <c r="HA99" t="n">
+        <v>51</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -63152,6 +63449,9 @@
       <c r="GZ100" t="n">
         <v>0</v>
       </c>
+      <c r="HA100" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -63780,6 +64080,9 @@
       <c r="GZ101" t="n">
         <v>4</v>
       </c>
+      <c r="HA101" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -64408,8 +64711,11 @@
       <c r="GZ102" t="n">
         <v>66.7</v>
       </c>
+      <c r="HA102" t="n">
+        <v>50</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/Port Adelaide_stats.xlsx
+++ b/Port Adelaide_stats.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:HA102"/>
+  <dimension ref="A1:HB102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -983,6 +983,9 @@
       <c r="HA1" t="n">
         <v>10146</v>
       </c>
+      <c r="HB1" t="n">
+        <v>10187</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1614,6 +1617,9 @@
       <c r="HA2" t="n">
         <v>2020</v>
       </c>
+      <c r="HB2" t="n">
+        <v>2020</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2245,6 +2251,9 @@
       <c r="HA3" t="n">
         <v>4</v>
       </c>
+      <c r="HB3" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -2876,6 +2885,9 @@
       <c r="HA4" t="n">
         <v>0</v>
       </c>
+      <c r="HB4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -3507,6 +3519,9 @@
       <c r="HA5" t="n">
         <v>0</v>
       </c>
+      <c r="HB5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -4138,6 +4153,9 @@
       <c r="HA6" t="n">
         <v>89</v>
       </c>
+      <c r="HB6" t="n">
+        <v>48</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -4769,6 +4787,9 @@
       <c r="HA7" t="n">
         <v>41</v>
       </c>
+      <c r="HB7" t="n">
+        <v>85</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -5400,6 +5421,9 @@
       <c r="HA8" t="n">
         <v>48</v>
       </c>
+      <c r="HB8" t="n">
+        <v>-37</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -6031,6 +6055,9 @@
       <c r="HA9" t="n">
         <v>1</v>
       </c>
+      <c r="HB9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -6662,6 +6689,9 @@
       <c r="HA10" t="n">
         <v>17</v>
       </c>
+      <c r="HB10" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -7293,6 +7323,9 @@
       <c r="HA11" t="n">
         <v>199</v>
       </c>
+      <c r="HB11" t="n">
+        <v>150</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -7924,6 +7957,9 @@
       <c r="HA12" t="n">
         <v>107</v>
       </c>
+      <c r="HB12" t="n">
+        <v>113</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -8555,6 +8591,9 @@
       <c r="HA13" t="n">
         <v>306</v>
       </c>
+      <c r="HB13" t="n">
+        <v>263</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -9186,6 +9225,9 @@
       <c r="HA14" t="n">
         <v>1.86</v>
       </c>
+      <c r="HB14" t="n">
+        <v>1.33</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -9817,6 +9859,9 @@
       <c r="HA15" t="n">
         <v>90</v>
       </c>
+      <c r="HB15" t="n">
+        <v>49</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -10448,6 +10493,9 @@
       <c r="HA16" t="n">
         <v>50</v>
       </c>
+      <c r="HB16" t="n">
+        <v>62</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -11079,6 +11127,9 @@
       <c r="HA17" t="n">
         <v>17</v>
       </c>
+      <c r="HB17" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -11710,6 +11761,9 @@
       <c r="HA18" t="n">
         <v>15</v>
       </c>
+      <c r="HB18" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -12341,6 +12395,9 @@
       <c r="HA19" t="n">
         <v>10</v>
       </c>
+      <c r="HB19" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -12972,6 +13029,9 @@
       <c r="HA20" t="n">
         <v>13</v>
       </c>
+      <c r="HB20" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -13603,6 +13663,9 @@
       <c r="HA21" t="n">
         <v>7</v>
       </c>
+      <c r="HB21" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -14234,6 +14297,9 @@
       <c r="HA22" t="n">
         <v>10</v>
       </c>
+      <c r="HB22" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -14865,6 +14931,9 @@
       <c r="HA23" t="n">
         <v>1</v>
       </c>
+      <c r="HB23" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -15496,6 +15565,9 @@
       <c r="HA24" t="n">
         <v>24</v>
       </c>
+      <c r="HB24" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -16127,6 +16199,9 @@
       <c r="HA25" t="n">
         <v>54.2</v>
       </c>
+      <c r="HB25" t="n">
+        <v>33.3</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -16758,6 +16833,9 @@
       <c r="HA26" t="n">
         <v>23.54</v>
       </c>
+      <c r="HB26" t="n">
+        <v>43.83</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -17389,6 +17467,9 @@
       <c r="HA27" t="n">
         <v>12.75</v>
       </c>
+      <c r="HB27" t="n">
+        <v>14.61</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -18020,6 +18101,9 @@
       <c r="HA28" t="n">
         <v>23</v>
       </c>
+      <c r="HB28" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -18651,6 +18735,9 @@
       <c r="HA29" t="n">
         <v>37</v>
       </c>
+      <c r="HB29" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -19282,6 +19369,9 @@
       <c r="HA30" t="n">
         <v>30</v>
       </c>
+      <c r="HB30" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -19913,6 +20003,9 @@
       <c r="HA31" t="n">
         <v>48</v>
       </c>
+      <c r="HB31" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -20544,6 +20637,9 @@
       <c r="HA32" t="n">
         <v>2</v>
       </c>
+      <c r="HB32" t="n">
+        <v>1.94</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -21175,6 +21271,9 @@
       <c r="HA33" t="n">
         <v>3.69</v>
       </c>
+      <c r="HB33" t="n">
+        <v>5.83</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -21806,6 +21905,9 @@
       <c r="HA34" t="n">
         <v>47.9</v>
       </c>
+      <c r="HB34" t="n">
+        <v>42.9</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -22437,6 +22539,9 @@
       <c r="HA35" t="n">
         <v>27.1</v>
       </c>
+      <c r="HB35" t="n">
+        <v>17.1</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -23068,6 +23173,9 @@
       <c r="HA36" t="n">
         <v>188.2</v>
       </c>
+      <c r="HB36" t="n">
+        <v>188.2</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -23699,6 +23807,9 @@
       <c r="HA37" t="n">
         <v>84.59999999999999</v>
       </c>
+      <c r="HB37" t="n">
+        <v>84.59999999999999</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -24330,6 +24441,9 @@
       <c r="HA38" t="n">
         <v>26.66</v>
       </c>
+      <c r="HB38" t="n">
+        <v>26.66</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -24961,6 +25075,9 @@
       <c r="HA39" t="n">
         <v>121.6</v>
       </c>
+      <c r="HB39" t="n">
+        <v>122.6</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -25592,6 +25709,9 @@
       <c r="HA40" t="n">
         <v>5</v>
       </c>
+      <c r="HB40" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -26223,6 +26343,9 @@
       <c r="HA41" t="n">
         <v>6</v>
       </c>
+      <c r="HB41" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -26854,6 +26977,9 @@
       <c r="HA42" t="n">
         <v>4</v>
       </c>
+      <c r="HB42" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -27485,6 +27611,9 @@
       <c r="HA43" t="n">
         <v>7</v>
       </c>
+      <c r="HB43" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -28116,6 +28245,9 @@
       <c r="HA44" t="n">
         <v>117</v>
       </c>
+      <c r="HB44" t="n">
+        <v>105</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -28747,6 +28879,9 @@
       <c r="HA45" t="n">
         <v>182</v>
       </c>
+      <c r="HB45" t="n">
+        <v>150</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -29378,6 +29513,9 @@
       <c r="HA46" t="n">
         <v>230</v>
       </c>
+      <c r="HB46" t="n">
+        <v>188</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -30009,6 +30147,9 @@
       <c r="HA47" t="n">
         <v>75.2</v>
       </c>
+      <c r="HB47" t="n">
+        <v>71.5</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -30640,6 +30781,9 @@
       <c r="HA48" t="n">
         <v>37</v>
       </c>
+      <c r="HB48" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -31271,6 +31415,9 @@
       <c r="HA49" t="n">
         <v>15</v>
       </c>
+      <c r="HB49" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -31902,6 +32049,9 @@
       <c r="HA50" t="n">
         <v>12</v>
       </c>
+      <c r="HB50" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -32533,6 +32683,9 @@
       <c r="HA51" t="n">
         <v>23</v>
       </c>
+      <c r="HB51" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -33164,6 +33317,9 @@
       <c r="HA52" t="n">
         <v>30</v>
       </c>
+      <c r="HB52" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -33795,6 +33951,9 @@
       <c r="HA53" t="n">
         <v>35</v>
       </c>
+      <c r="HB53" t="n">
+        <v>60</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -34426,6 +34585,9 @@
       <c r="HA54" t="n">
         <v>3</v>
       </c>
+      <c r="HB54" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -35057,6 +35219,9 @@
       <c r="HA55" t="n">
         <v>7</v>
       </c>
+      <c r="HB55" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -35688,6 +35853,9 @@
       <c r="HA56" t="n">
         <v>53.8</v>
       </c>
+      <c r="HB56" t="n">
+        <v>66.7</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -36319,6 +36487,9 @@
       <c r="HA57" t="n">
         <v>175</v>
       </c>
+      <c r="HB57" t="n">
+        <v>171</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -36950,6 +37121,9 @@
       <c r="HA58" t="n">
         <v>103</v>
       </c>
+      <c r="HB58" t="n">
+        <v>103</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -37581,6 +37755,9 @@
       <c r="HA59" t="n">
         <v>278</v>
       </c>
+      <c r="HB59" t="n">
+        <v>274</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -38212,6 +38389,9 @@
       <c r="HA60" t="n">
         <v>1.7</v>
       </c>
+      <c r="HB60" t="n">
+        <v>1.66</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -38843,6 +39023,9 @@
       <c r="HA61" t="n">
         <v>71</v>
       </c>
+      <c r="HB61" t="n">
+        <v>71</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -39474,6 +39657,9 @@
       <c r="HA62" t="n">
         <v>36</v>
       </c>
+      <c r="HB62" t="n">
+        <v>58</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -40105,6 +40291,9 @@
       <c r="HA63" t="n">
         <v>36</v>
       </c>
+      <c r="HB63" t="n">
+        <v>43</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -40736,6 +40925,9 @@
       <c r="HA64" t="n">
         <v>10</v>
       </c>
+      <c r="HB64" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -41367,6 +41559,9 @@
       <c r="HA65" t="n">
         <v>15</v>
       </c>
+      <c r="HB65" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -41998,6 +42193,9 @@
       <c r="HA66" t="n">
         <v>6</v>
       </c>
+      <c r="HB66" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -42629,6 +42827,9 @@
       <c r="HA67" t="n">
         <v>3</v>
       </c>
+      <c r="HB67" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -43260,6 +43461,9 @@
       <c r="HA68" t="n">
         <v>3</v>
       </c>
+      <c r="HB68" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -43891,6 +44095,9 @@
       <c r="HA69" t="n">
         <v>2</v>
       </c>
+      <c r="HB69" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -44522,6 +44729,9 @@
       <c r="HA70" t="n">
         <v>11</v>
       </c>
+      <c r="HB70" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -45153,6 +45363,9 @@
       <c r="HA71" t="n">
         <v>54.5</v>
       </c>
+      <c r="HB71" t="n">
+        <v>48</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -45784,6 +45997,9 @@
       <c r="HA72" t="n">
         <v>46.33</v>
       </c>
+      <c r="HB72" t="n">
+        <v>22.83</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -46415,6 +46631,9 @@
       <c r="HA73" t="n">
         <v>25.27</v>
       </c>
+      <c r="HB73" t="n">
+        <v>10.96</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -47046,6 +47265,9 @@
       <c r="HA74" t="n">
         <v>36</v>
       </c>
+      <c r="HB74" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -47677,6 +47899,9 @@
       <c r="HA75" t="n">
         <v>47</v>
       </c>
+      <c r="HB75" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -48308,6 +48533,9 @@
       <c r="HA76" t="n">
         <v>35</v>
       </c>
+      <c r="HB76" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -48939,6 +49167,9 @@
       <c r="HA77" t="n">
         <v>36</v>
       </c>
+      <c r="HB77" t="n">
+        <v>48</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -49570,6 +49801,9 @@
       <c r="HA78" t="n">
         <v>3.27</v>
       </c>
+      <c r="HB78" t="n">
+        <v>1.92</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -50201,6 +50435,9 @@
       <c r="HA79" t="n">
         <v>6</v>
       </c>
+      <c r="HB79" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -50832,6 +51069,9 @@
       <c r="HA80" t="n">
         <v>25</v>
       </c>
+      <c r="HB80" t="n">
+        <v>45.8</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -51463,6 +51703,9 @@
       <c r="HA81" t="n">
         <v>16.7</v>
       </c>
+      <c r="HB81" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -52094,6 +52337,9 @@
       <c r="HA82" t="n">
         <v>188.5</v>
       </c>
+      <c r="HB82" t="n">
+        <v>189.1</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -52725,6 +52971,9 @@
       <c r="HA83" t="n">
         <v>88.7</v>
       </c>
+      <c r="HB83" t="n">
+        <v>88.90000000000001</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -53356,6 +53605,9 @@
       <c r="HA84" t="n">
         <v>27.41</v>
       </c>
+      <c r="HB84" t="n">
+        <v>25.58</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -53987,6 +54239,9 @@
       <c r="HA85" t="n">
         <v>134.8</v>
       </c>
+      <c r="HB85" t="n">
+        <v>99.59999999999999</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -54618,6 +54873,9 @@
       <c r="HA86" t="n">
         <v>5</v>
       </c>
+      <c r="HB86" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -55249,6 +55507,9 @@
       <c r="HA87" t="n">
         <v>3</v>
       </c>
+      <c r="HB87" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -55880,6 +56141,9 @@
       <c r="HA88" t="n">
         <v>2</v>
       </c>
+      <c r="HB88" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -56511,6 +56775,9 @@
       <c r="HA89" t="n">
         <v>12</v>
       </c>
+      <c r="HB89" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -57142,6 +57409,9 @@
       <c r="HA90" t="n">
         <v>117</v>
       </c>
+      <c r="HB90" t="n">
+        <v>118</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -57773,6 +58043,9 @@
       <c r="HA91" t="n">
         <v>157</v>
       </c>
+      <c r="HB91" t="n">
+        <v>149</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -58404,6 +58677,9 @@
       <c r="HA92" t="n">
         <v>186</v>
       </c>
+      <c r="HB92" t="n">
+        <v>198</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -59035,6 +59311,9 @@
       <c r="HA93" t="n">
         <v>66.90000000000001</v>
       </c>
+      <c r="HB93" t="n">
+        <v>72.3</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -59666,6 +59945,9 @@
       <c r="HA94" t="n">
         <v>47</v>
       </c>
+      <c r="HB94" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -60297,6 +60579,9 @@
       <c r="HA95" t="n">
         <v>11</v>
       </c>
+      <c r="HB95" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -60928,6 +61213,9 @@
       <c r="HA96" t="n">
         <v>6</v>
       </c>
+      <c r="HB96" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -61559,6 +61847,9 @@
       <c r="HA97" t="n">
         <v>36</v>
       </c>
+      <c r="HB97" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -62190,6 +62481,9 @@
       <c r="HA98" t="n">
         <v>35</v>
       </c>
+      <c r="HB98" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -62821,6 +63115,9 @@
       <c r="HA99" t="n">
         <v>51</v>
       </c>
+      <c r="HB99" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -63452,6 +63749,9 @@
       <c r="HA100" t="n">
         <v>4</v>
       </c>
+      <c r="HB100" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -64083,6 +64383,9 @@
       <c r="HA101" t="n">
         <v>3</v>
       </c>
+      <c r="HB101" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -64714,6 +65017,9 @@
       <c r="HA102" t="n">
         <v>50</v>
       </c>
+      <c r="HB102" t="n">
+        <v>50</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/Port Adelaide_stats.xlsx
+++ b/Port Adelaide_stats.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:HB102"/>
+  <dimension ref="A1:HE102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -986,6 +986,15 @@
       <c r="HB1" t="n">
         <v>10187</v>
       </c>
+      <c r="HC1" t="n">
+        <v>10215</v>
+      </c>
+      <c r="HD1" t="n">
+        <v>10223</v>
+      </c>
+      <c r="HE1" t="n">
+        <v>10231</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1620,6 +1629,15 @@
       <c r="HB2" t="n">
         <v>2020</v>
       </c>
+      <c r="HC2" t="n">
+        <v>2020</v>
+      </c>
+      <c r="HD2" t="n">
+        <v>2020</v>
+      </c>
+      <c r="HE2" t="n">
+        <v>2020</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2254,6 +2272,15 @@
       <c r="HB3" t="n">
         <v>5</v>
       </c>
+      <c r="HC3" t="n">
+        <v>6</v>
+      </c>
+      <c r="HD3" t="n">
+        <v>7</v>
+      </c>
+      <c r="HE3" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -2888,6 +2915,15 @@
       <c r="HB4" t="n">
         <v>1</v>
       </c>
+      <c r="HC4" t="n">
+        <v>0</v>
+      </c>
+      <c r="HD4" t="n">
+        <v>1</v>
+      </c>
+      <c r="HE4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -3522,6 +3558,15 @@
       <c r="HB5" t="n">
         <v>0</v>
       </c>
+      <c r="HC5" t="n">
+        <v>0</v>
+      </c>
+      <c r="HD5" t="n">
+        <v>1</v>
+      </c>
+      <c r="HE5" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -4156,6 +4201,15 @@
       <c r="HB6" t="n">
         <v>48</v>
       </c>
+      <c r="HC6" t="n">
+        <v>63</v>
+      </c>
+      <c r="HD6" t="n">
+        <v>64</v>
+      </c>
+      <c r="HE6" t="n">
+        <v>44</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -4790,6 +4844,15 @@
       <c r="HB7" t="n">
         <v>85</v>
       </c>
+      <c r="HC7" t="n">
+        <v>46</v>
+      </c>
+      <c r="HD7" t="n">
+        <v>61</v>
+      </c>
+      <c r="HE7" t="n">
+        <v>73</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -5424,6 +5487,15 @@
       <c r="HB8" t="n">
         <v>-37</v>
       </c>
+      <c r="HC8" t="n">
+        <v>17</v>
+      </c>
+      <c r="HD8" t="n">
+        <v>3</v>
+      </c>
+      <c r="HE8" t="n">
+        <v>-29</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -6058,6 +6130,15 @@
       <c r="HB9" t="n">
         <v>0</v>
       </c>
+      <c r="HC9" t="n">
+        <v>1</v>
+      </c>
+      <c r="HD9" t="n">
+        <v>1</v>
+      </c>
+      <c r="HE9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -6692,6 +6773,15 @@
       <c r="HB10" t="n">
         <v>2</v>
       </c>
+      <c r="HC10" t="n">
+        <v>9</v>
+      </c>
+      <c r="HD10" t="n">
+        <v>3</v>
+      </c>
+      <c r="HE10" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -7326,6 +7416,15 @@
       <c r="HB11" t="n">
         <v>150</v>
       </c>
+      <c r="HC11" t="n">
+        <v>189</v>
+      </c>
+      <c r="HD11" t="n">
+        <v>186</v>
+      </c>
+      <c r="HE11" t="n">
+        <v>158</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -7960,6 +8059,15 @@
       <c r="HB12" t="n">
         <v>113</v>
       </c>
+      <c r="HC12" t="n">
+        <v>116</v>
+      </c>
+      <c r="HD12" t="n">
+        <v>120</v>
+      </c>
+      <c r="HE12" t="n">
+        <v>109</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -8594,6 +8702,15 @@
       <c r="HB13" t="n">
         <v>263</v>
       </c>
+      <c r="HC13" t="n">
+        <v>305</v>
+      </c>
+      <c r="HD13" t="n">
+        <v>306</v>
+      </c>
+      <c r="HE13" t="n">
+        <v>267</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -9228,6 +9345,15 @@
       <c r="HB14" t="n">
         <v>1.33</v>
       </c>
+      <c r="HC14" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="HD14" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="HE14" t="n">
+        <v>1.45</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -9862,6 +9988,15 @@
       <c r="HB15" t="n">
         <v>49</v>
       </c>
+      <c r="HC15" t="n">
+        <v>65</v>
+      </c>
+      <c r="HD15" t="n">
+        <v>89</v>
+      </c>
+      <c r="HE15" t="n">
+        <v>58</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -10496,6 +10631,15 @@
       <c r="HB16" t="n">
         <v>62</v>
       </c>
+      <c r="HC16" t="n">
+        <v>45</v>
+      </c>
+      <c r="HD16" t="n">
+        <v>48</v>
+      </c>
+      <c r="HE16" t="n">
+        <v>44</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -11130,6 +11274,15 @@
       <c r="HB17" t="n">
         <v>29</v>
       </c>
+      <c r="HC17" t="n">
+        <v>33</v>
+      </c>
+      <c r="HD17" t="n">
+        <v>17</v>
+      </c>
+      <c r="HE17" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -11764,6 +11917,15 @@
       <c r="HB18" t="n">
         <v>12</v>
       </c>
+      <c r="HC18" t="n">
+        <v>16</v>
+      </c>
+      <c r="HD18" t="n">
+        <v>20</v>
+      </c>
+      <c r="HE18" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -12398,6 +12560,15 @@
       <c r="HB19" t="n">
         <v>15</v>
       </c>
+      <c r="HC19" t="n">
+        <v>11</v>
+      </c>
+      <c r="HD19" t="n">
+        <v>17</v>
+      </c>
+      <c r="HE19" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -13032,6 +13203,15 @@
       <c r="HB20" t="n">
         <v>6</v>
       </c>
+      <c r="HC20" t="n">
+        <v>9</v>
+      </c>
+      <c r="HD20" t="n">
+        <v>9</v>
+      </c>
+      <c r="HE20" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -13666,6 +13846,15 @@
       <c r="HB21" t="n">
         <v>4</v>
       </c>
+      <c r="HC21" t="n">
+        <v>6</v>
+      </c>
+      <c r="HD21" t="n">
+        <v>7</v>
+      </c>
+      <c r="HE21" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -14300,6 +14489,15 @@
       <c r="HB22" t="n">
         <v>9</v>
       </c>
+      <c r="HC22" t="n">
+        <v>9</v>
+      </c>
+      <c r="HD22" t="n">
+        <v>10</v>
+      </c>
+      <c r="HE22" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -14934,6 +15132,15 @@
       <c r="HB23" t="n">
         <v>3</v>
       </c>
+      <c r="HC23" t="n">
+        <v>0</v>
+      </c>
+      <c r="HD23" t="n">
+        <v>0</v>
+      </c>
+      <c r="HE23" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -15568,6 +15775,15 @@
       <c r="HB24" t="n">
         <v>18</v>
       </c>
+      <c r="HC24" t="n">
+        <v>18</v>
+      </c>
+      <c r="HD24" t="n">
+        <v>19</v>
+      </c>
+      <c r="HE24" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -16202,6 +16418,15 @@
       <c r="HB25" t="n">
         <v>33.3</v>
       </c>
+      <c r="HC25" t="n">
+        <v>50</v>
+      </c>
+      <c r="HD25" t="n">
+        <v>47.4</v>
+      </c>
+      <c r="HE25" t="n">
+        <v>42.9</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -16836,6 +17061,15 @@
       <c r="HB26" t="n">
         <v>43.83</v>
       </c>
+      <c r="HC26" t="n">
+        <v>33.89</v>
+      </c>
+      <c r="HD26" t="n">
+        <v>34</v>
+      </c>
+      <c r="HE26" t="n">
+        <v>44.5</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -17470,6 +17704,15 @@
       <c r="HB27" t="n">
         <v>14.61</v>
       </c>
+      <c r="HC27" t="n">
+        <v>16.94</v>
+      </c>
+      <c r="HD27" t="n">
+        <v>16.11</v>
+      </c>
+      <c r="HE27" t="n">
+        <v>19.07</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -18104,6 +18347,15 @@
       <c r="HB28" t="n">
         <v>36</v>
       </c>
+      <c r="HC28" t="n">
+        <v>41</v>
+      </c>
+      <c r="HD28" t="n">
+        <v>22</v>
+      </c>
+      <c r="HE28" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -18738,6 +18990,15 @@
       <c r="HB29" t="n">
         <v>34</v>
       </c>
+      <c r="HC29" t="n">
+        <v>48</v>
+      </c>
+      <c r="HD29" t="n">
+        <v>40</v>
+      </c>
+      <c r="HE29" t="n">
+        <v>59</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -19372,6 +19633,15 @@
       <c r="HB30" t="n">
         <v>34</v>
       </c>
+      <c r="HC30" t="n">
+        <v>26</v>
+      </c>
+      <c r="HD30" t="n">
+        <v>26</v>
+      </c>
+      <c r="HE30" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -20006,6 +20276,15 @@
       <c r="HB31" t="n">
         <v>35</v>
       </c>
+      <c r="HC31" t="n">
+        <v>51</v>
+      </c>
+      <c r="HD31" t="n">
+        <v>46</v>
+      </c>
+      <c r="HE31" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -20640,6 +20919,15 @@
       <c r="HB32" t="n">
         <v>1.94</v>
       </c>
+      <c r="HC32" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="HD32" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="HE32" t="n">
+        <v>2.57</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -21274,6 +21562,15 @@
       <c r="HB33" t="n">
         <v>5.83</v>
       </c>
+      <c r="HC33" t="n">
+        <v>5.67</v>
+      </c>
+      <c r="HD33" t="n">
+        <v>5.11</v>
+      </c>
+      <c r="HE33" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -21908,6 +22205,15 @@
       <c r="HB34" t="n">
         <v>42.9</v>
       </c>
+      <c r="HC34" t="n">
+        <v>35.3</v>
+      </c>
+      <c r="HD34" t="n">
+        <v>41.3</v>
+      </c>
+      <c r="HE34" t="n">
+        <v>36.1</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -22542,6 +22848,15 @@
       <c r="HB35" t="n">
         <v>17.1</v>
       </c>
+      <c r="HC35" t="n">
+        <v>17.6</v>
+      </c>
+      <c r="HD35" t="n">
+        <v>19.6</v>
+      </c>
+      <c r="HE35" t="n">
+        <v>16.7</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -23176,6 +23491,15 @@
       <c r="HB36" t="n">
         <v>188.2</v>
       </c>
+      <c r="HC36" t="n">
+        <v>188.3</v>
+      </c>
+      <c r="HD36" t="n">
+        <v>188.1</v>
+      </c>
+      <c r="HE36" t="n">
+        <v>188.4</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -23810,6 +24134,15 @@
       <c r="HB37" t="n">
         <v>84.59999999999999</v>
       </c>
+      <c r="HC37" t="n">
+        <v>85</v>
+      </c>
+      <c r="HD37" t="n">
+        <v>83.90000000000001</v>
+      </c>
+      <c r="HE37" t="n">
+        <v>84.09999999999999</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -24444,6 +24777,15 @@
       <c r="HB38" t="n">
         <v>26.66</v>
       </c>
+      <c r="HC38" t="n">
+        <v>26.58</v>
+      </c>
+      <c r="HD38" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="HE38" t="n">
+        <v>25.41</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -25078,6 +25420,15 @@
       <c r="HB39" t="n">
         <v>122.6</v>
       </c>
+      <c r="HC39" t="n">
+        <v>120.5</v>
+      </c>
+      <c r="HD39" t="n">
+        <v>106.5</v>
+      </c>
+      <c r="HE39" t="n">
+        <v>104.7</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -25712,6 +26063,15 @@
       <c r="HB40" t="n">
         <v>5</v>
       </c>
+      <c r="HC40" t="n">
+        <v>4</v>
+      </c>
+      <c r="HD40" t="n">
+        <v>6</v>
+      </c>
+      <c r="HE40" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -26346,6 +26706,15 @@
       <c r="HB41" t="n">
         <v>6</v>
       </c>
+      <c r="HC41" t="n">
+        <v>7</v>
+      </c>
+      <c r="HD41" t="n">
+        <v>6</v>
+      </c>
+      <c r="HE41" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -26980,6 +27349,15 @@
       <c r="HB42" t="n">
         <v>4</v>
       </c>
+      <c r="HC42" t="n">
+        <v>5</v>
+      </c>
+      <c r="HD42" t="n">
+        <v>5</v>
+      </c>
+      <c r="HE42" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -27614,6 +27992,15 @@
       <c r="HB43" t="n">
         <v>7</v>
       </c>
+      <c r="HC43" t="n">
+        <v>6</v>
+      </c>
+      <c r="HD43" t="n">
+        <v>5</v>
+      </c>
+      <c r="HE43" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -28248,6 +28635,15 @@
       <c r="HB44" t="n">
         <v>105</v>
       </c>
+      <c r="HC44" t="n">
+        <v>131</v>
+      </c>
+      <c r="HD44" t="n">
+        <v>115</v>
+      </c>
+      <c r="HE44" t="n">
+        <v>118</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -28882,6 +29278,15 @@
       <c r="HB45" t="n">
         <v>150</v>
       </c>
+      <c r="HC45" t="n">
+        <v>167</v>
+      </c>
+      <c r="HD45" t="n">
+        <v>190</v>
+      </c>
+      <c r="HE45" t="n">
+        <v>146</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -29516,6 +29921,15 @@
       <c r="HB46" t="n">
         <v>188</v>
       </c>
+      <c r="HC46" t="n">
+        <v>215</v>
+      </c>
+      <c r="HD46" t="n">
+        <v>232</v>
+      </c>
+      <c r="HE46" t="n">
+        <v>179</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -30150,6 +30564,15 @@
       <c r="HB47" t="n">
         <v>71.5</v>
       </c>
+      <c r="HC47" t="n">
+        <v>70.5</v>
+      </c>
+      <c r="HD47" t="n">
+        <v>75.8</v>
+      </c>
+      <c r="HE47" t="n">
+        <v>67</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -30784,6 +31207,15 @@
       <c r="HB48" t="n">
         <v>34</v>
       </c>
+      <c r="HC48" t="n">
+        <v>48</v>
+      </c>
+      <c r="HD48" t="n">
+        <v>40</v>
+      </c>
+      <c r="HE48" t="n">
+        <v>59</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -31418,6 +31850,15 @@
       <c r="HB49" t="n">
         <v>4</v>
       </c>
+      <c r="HC49" t="n">
+        <v>7</v>
+      </c>
+      <c r="HD49" t="n">
+        <v>14</v>
+      </c>
+      <c r="HE49" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -32052,6 +32493,15 @@
       <c r="HB50" t="n">
         <v>4</v>
       </c>
+      <c r="HC50" t="n">
+        <v>6</v>
+      </c>
+      <c r="HD50" t="n">
+        <v>13</v>
+      </c>
+      <c r="HE50" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -32686,6 +33136,15 @@
       <c r="HB51" t="n">
         <v>36</v>
       </c>
+      <c r="HC51" t="n">
+        <v>41</v>
+      </c>
+      <c r="HD51" t="n">
+        <v>22</v>
+      </c>
+      <c r="HE51" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -33320,6 +33779,15 @@
       <c r="HB52" t="n">
         <v>34</v>
       </c>
+      <c r="HC52" t="n">
+        <v>26</v>
+      </c>
+      <c r="HD52" t="n">
+        <v>26</v>
+      </c>
+      <c r="HE52" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -33954,6 +34422,15 @@
       <c r="HB53" t="n">
         <v>60</v>
       </c>
+      <c r="HC53" t="n">
+        <v>49</v>
+      </c>
+      <c r="HD53" t="n">
+        <v>44</v>
+      </c>
+      <c r="HE53" t="n">
+        <v>58</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -34588,6 +35065,15 @@
       <c r="HB54" t="n">
         <v>3</v>
       </c>
+      <c r="HC54" t="n">
+        <v>7</v>
+      </c>
+      <c r="HD54" t="n">
+        <v>8</v>
+      </c>
+      <c r="HE54" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -35222,6 +35708,15 @@
       <c r="HB55" t="n">
         <v>4</v>
       </c>
+      <c r="HC55" t="n">
+        <v>6</v>
+      </c>
+      <c r="HD55" t="n">
+        <v>7</v>
+      </c>
+      <c r="HE55" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -35856,6 +36351,15 @@
       <c r="HB56" t="n">
         <v>66.7</v>
       </c>
+      <c r="HC56" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="HD56" t="n">
+        <v>77.8</v>
+      </c>
+      <c r="HE56" t="n">
+        <v>100</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -36490,6 +36994,15 @@
       <c r="HB57" t="n">
         <v>171</v>
       </c>
+      <c r="HC57" t="n">
+        <v>172</v>
+      </c>
+      <c r="HD57" t="n">
+        <v>166</v>
+      </c>
+      <c r="HE57" t="n">
+        <v>186</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -37124,6 +37637,15 @@
       <c r="HB58" t="n">
         <v>103</v>
       </c>
+      <c r="HC58" t="n">
+        <v>155</v>
+      </c>
+      <c r="HD58" t="n">
+        <v>100</v>
+      </c>
+      <c r="HE58" t="n">
+        <v>108</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -37758,6 +38280,15 @@
       <c r="HB59" t="n">
         <v>274</v>
       </c>
+      <c r="HC59" t="n">
+        <v>327</v>
+      </c>
+      <c r="HD59" t="n">
+        <v>266</v>
+      </c>
+      <c r="HE59" t="n">
+        <v>294</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -38392,6 +38923,15 @@
       <c r="HB60" t="n">
         <v>1.66</v>
       </c>
+      <c r="HC60" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="HD60" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="HE60" t="n">
+        <v>1.72</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -39026,6 +39566,15 @@
       <c r="HB61" t="n">
         <v>71</v>
       </c>
+      <c r="HC61" t="n">
+        <v>73</v>
+      </c>
+      <c r="HD61" t="n">
+        <v>65</v>
+      </c>
+      <c r="HE61" t="n">
+        <v>63</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -39660,6 +40209,15 @@
       <c r="HB62" t="n">
         <v>58</v>
       </c>
+      <c r="HC62" t="n">
+        <v>45</v>
+      </c>
+      <c r="HD62" t="n">
+        <v>47</v>
+      </c>
+      <c r="HE62" t="n">
+        <v>44</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -40294,6 +40852,15 @@
       <c r="HB63" t="n">
         <v>43</v>
       </c>
+      <c r="HC63" t="n">
+        <v>20</v>
+      </c>
+      <c r="HD63" t="n">
+        <v>24</v>
+      </c>
+      <c r="HE63" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -40928,6 +41495,15 @@
       <c r="HB64" t="n">
         <v>15</v>
       </c>
+      <c r="HC64" t="n">
+        <v>11</v>
+      </c>
+      <c r="HD64" t="n">
+        <v>17</v>
+      </c>
+      <c r="HE64" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -41562,6 +42138,15 @@
       <c r="HB65" t="n">
         <v>12</v>
       </c>
+      <c r="HC65" t="n">
+        <v>16</v>
+      </c>
+      <c r="HD65" t="n">
+        <v>20</v>
+      </c>
+      <c r="HE65" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -42196,6 +42781,15 @@
       <c r="HB66" t="n">
         <v>12</v>
       </c>
+      <c r="HC66" t="n">
+        <v>6</v>
+      </c>
+      <c r="HD66" t="n">
+        <v>9</v>
+      </c>
+      <c r="HE66" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -42830,6 +43424,15 @@
       <c r="HB67" t="n">
         <v>6</v>
       </c>
+      <c r="HC67" t="n">
+        <v>6</v>
+      </c>
+      <c r="HD67" t="n">
+        <v>7</v>
+      </c>
+      <c r="HE67" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -43464,6 +44067,15 @@
       <c r="HB68" t="n">
         <v>10</v>
       </c>
+      <c r="HC68" t="n">
+        <v>7</v>
+      </c>
+      <c r="HD68" t="n">
+        <v>5</v>
+      </c>
+      <c r="HE68" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -44098,6 +44710,15 @@
       <c r="HB69" t="n">
         <v>3</v>
       </c>
+      <c r="HC69" t="n">
+        <v>3</v>
+      </c>
+      <c r="HD69" t="n">
+        <v>2</v>
+      </c>
+      <c r="HE69" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -44732,6 +45353,15 @@
       <c r="HB70" t="n">
         <v>25</v>
       </c>
+      <c r="HC70" t="n">
+        <v>16</v>
+      </c>
+      <c r="HD70" t="n">
+        <v>16</v>
+      </c>
+      <c r="HE70" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -45366,6 +45996,15 @@
       <c r="HB71" t="n">
         <v>48</v>
       </c>
+      <c r="HC71" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="HD71" t="n">
+        <v>56.2</v>
+      </c>
+      <c r="HE71" t="n">
+        <v>92.3</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -46000,6 +46639,15 @@
       <c r="HB72" t="n">
         <v>22.83</v>
       </c>
+      <c r="HC72" t="n">
+        <v>54.5</v>
+      </c>
+      <c r="HD72" t="n">
+        <v>29.56</v>
+      </c>
+      <c r="HE72" t="n">
+        <v>24.5</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -46634,6 +47282,15 @@
       <c r="HB73" t="n">
         <v>10.96</v>
       </c>
+      <c r="HC73" t="n">
+        <v>20.44</v>
+      </c>
+      <c r="HD73" t="n">
+        <v>16.62</v>
+      </c>
+      <c r="HE73" t="n">
+        <v>22.62</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -47268,6 +47925,15 @@
       <c r="HB74" t="n">
         <v>32</v>
       </c>
+      <c r="HC74" t="n">
+        <v>25</v>
+      </c>
+      <c r="HD74" t="n">
+        <v>25</v>
+      </c>
+      <c r="HE74" t="n">
+        <v>42</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -47902,6 +48568,15 @@
       <c r="HB75" t="n">
         <v>33</v>
       </c>
+      <c r="HC75" t="n">
+        <v>53</v>
+      </c>
+      <c r="HD75" t="n">
+        <v>44</v>
+      </c>
+      <c r="HE75" t="n">
+        <v>57</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -48536,6 +49211,15 @@
       <c r="HB76" t="n">
         <v>29</v>
       </c>
+      <c r="HC76" t="n">
+        <v>42</v>
+      </c>
+      <c r="HD76" t="n">
+        <v>36</v>
+      </c>
+      <c r="HE76" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -49170,6 +49854,15 @@
       <c r="HB77" t="n">
         <v>48</v>
       </c>
+      <c r="HC77" t="n">
+        <v>33</v>
+      </c>
+      <c r="HD77" t="n">
+        <v>37</v>
+      </c>
+      <c r="HE77" t="n">
+        <v>41</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -49804,6 +50497,15 @@
       <c r="HB78" t="n">
         <v>1.92</v>
       </c>
+      <c r="HC78" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="HD78" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="HE78" t="n">
+        <v>3.15</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -50438,6 +51140,15 @@
       <c r="HB79" t="n">
         <v>4</v>
       </c>
+      <c r="HC79" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="HD79" t="n">
+        <v>4.11</v>
+      </c>
+      <c r="HE79" t="n">
+        <v>3.42</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -51072,6 +51783,15 @@
       <c r="HB80" t="n">
         <v>45.8</v>
       </c>
+      <c r="HC80" t="n">
+        <v>39.4</v>
+      </c>
+      <c r="HD80" t="n">
+        <v>37.8</v>
+      </c>
+      <c r="HE80" t="n">
+        <v>31.7</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -51706,6 +52426,15 @@
       <c r="HB81" t="n">
         <v>25</v>
       </c>
+      <c r="HC81" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="HD81" t="n">
+        <v>24.3</v>
+      </c>
+      <c r="HE81" t="n">
+        <v>29.3</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -52340,6 +53069,15 @@
       <c r="HB82" t="n">
         <v>189.1</v>
       </c>
+      <c r="HC82" t="n">
+        <v>189</v>
+      </c>
+      <c r="HD82" t="n">
+        <v>188.9</v>
+      </c>
+      <c r="HE82" t="n">
+        <v>188.1</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -52974,6 +53712,15 @@
       <c r="HB83" t="n">
         <v>88.90000000000001</v>
       </c>
+      <c r="HC83" t="n">
+        <v>88</v>
+      </c>
+      <c r="HD83" t="n">
+        <v>87.2</v>
+      </c>
+      <c r="HE83" t="n">
+        <v>85.40000000000001</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -53608,6 +54355,15 @@
       <c r="HB84" t="n">
         <v>25.58</v>
       </c>
+      <c r="HC84" t="n">
+        <v>26.24</v>
+      </c>
+      <c r="HD84" t="n">
+        <v>26.24</v>
+      </c>
+      <c r="HE84" t="n">
+        <v>25.24</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -54242,6 +54998,15 @@
       <c r="HB85" t="n">
         <v>99.59999999999999</v>
       </c>
+      <c r="HC85" t="n">
+        <v>110</v>
+      </c>
+      <c r="HD85" t="n">
+        <v>109</v>
+      </c>
+      <c r="HE85" t="n">
+        <v>83.2</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -54876,6 +55641,15 @@
       <c r="HB86" t="n">
         <v>6</v>
       </c>
+      <c r="HC86" t="n">
+        <v>7</v>
+      </c>
+      <c r="HD86" t="n">
+        <v>8</v>
+      </c>
+      <c r="HE86" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -55510,6 +56284,15 @@
       <c r="HB87" t="n">
         <v>5</v>
       </c>
+      <c r="HC87" t="n">
+        <v>4</v>
+      </c>
+      <c r="HD87" t="n">
+        <v>4</v>
+      </c>
+      <c r="HE87" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -56144,6 +56927,15 @@
       <c r="HB88" t="n">
         <v>6</v>
       </c>
+      <c r="HC88" t="n">
+        <v>4</v>
+      </c>
+      <c r="HD88" t="n">
+        <v>5</v>
+      </c>
+      <c r="HE88" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -56778,6 +57570,15 @@
       <c r="HB89" t="n">
         <v>5</v>
       </c>
+      <c r="HC89" t="n">
+        <v>7</v>
+      </c>
+      <c r="HD89" t="n">
+        <v>5</v>
+      </c>
+      <c r="HE89" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -57412,6 +58213,15 @@
       <c r="HB90" t="n">
         <v>118</v>
       </c>
+      <c r="HC90" t="n">
+        <v>129</v>
+      </c>
+      <c r="HD90" t="n">
+        <v>115</v>
+      </c>
+      <c r="HE90" t="n">
+        <v>129</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -58046,6 +58856,15 @@
       <c r="HB91" t="n">
         <v>149</v>
       </c>
+      <c r="HC91" t="n">
+        <v>196</v>
+      </c>
+      <c r="HD91" t="n">
+        <v>146</v>
+      </c>
+      <c r="HE91" t="n">
+        <v>154</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -58680,6 +59499,15 @@
       <c r="HB92" t="n">
         <v>198</v>
       </c>
+      <c r="HC92" t="n">
+        <v>231</v>
+      </c>
+      <c r="HD92" t="n">
+        <v>191</v>
+      </c>
+      <c r="HE92" t="n">
+        <v>200</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -59314,6 +60142,15 @@
       <c r="HB93" t="n">
         <v>72.3</v>
       </c>
+      <c r="HC93" t="n">
+        <v>70.59999999999999</v>
+      </c>
+      <c r="HD93" t="n">
+        <v>71.8</v>
+      </c>
+      <c r="HE93" t="n">
+        <v>68</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -59948,6 +60785,15 @@
       <c r="HB94" t="n">
         <v>33</v>
       </c>
+      <c r="HC94" t="n">
+        <v>53</v>
+      </c>
+      <c r="HD94" t="n">
+        <v>44</v>
+      </c>
+      <c r="HE94" t="n">
+        <v>57</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -60582,6 +61428,15 @@
       <c r="HB95" t="n">
         <v>13</v>
       </c>
+      <c r="HC95" t="n">
+        <v>10</v>
+      </c>
+      <c r="HD95" t="n">
+        <v>13</v>
+      </c>
+      <c r="HE95" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -61216,6 +62071,15 @@
       <c r="HB96" t="n">
         <v>12</v>
       </c>
+      <c r="HC96" t="n">
+        <v>11</v>
+      </c>
+      <c r="HD96" t="n">
+        <v>9</v>
+      </c>
+      <c r="HE96" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -61850,6 +62714,15 @@
       <c r="HB97" t="n">
         <v>32</v>
       </c>
+      <c r="HC97" t="n">
+        <v>25</v>
+      </c>
+      <c r="HD97" t="n">
+        <v>25</v>
+      </c>
+      <c r="HE97" t="n">
+        <v>42</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -62484,6 +63357,15 @@
       <c r="HB98" t="n">
         <v>29</v>
       </c>
+      <c r="HC98" t="n">
+        <v>42</v>
+      </c>
+      <c r="HD98" t="n">
+        <v>36</v>
+      </c>
+      <c r="HE98" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -63118,6 +64000,15 @@
       <c r="HB99" t="n">
         <v>40</v>
       </c>
+      <c r="HC99" t="n">
+        <v>41</v>
+      </c>
+      <c r="HD99" t="n">
+        <v>32</v>
+      </c>
+      <c r="HE99" t="n">
+        <v>47</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -63752,6 +64643,15 @@
       <c r="HB100" t="n">
         <v>1</v>
       </c>
+      <c r="HC100" t="n">
+        <v>4</v>
+      </c>
+      <c r="HD100" t="n">
+        <v>6</v>
+      </c>
+      <c r="HE100" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -64386,6 +65286,15 @@
       <c r="HB101" t="n">
         <v>6</v>
       </c>
+      <c r="HC101" t="n">
+        <v>6</v>
+      </c>
+      <c r="HD101" t="n">
+        <v>7</v>
+      </c>
+      <c r="HE101" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -65020,6 +65929,15 @@
       <c r="HB102" t="n">
         <v>50</v>
       </c>
+      <c r="HC102" t="n">
+        <v>100</v>
+      </c>
+      <c r="HD102" t="n">
+        <v>77.8</v>
+      </c>
+      <c r="HE102" t="n">
+        <v>33.3</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/Port Adelaide_stats.xlsx
+++ b/Port Adelaide_stats.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
@@ -44,15 +44,15 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:HE102"/>
+  <dimension ref="A1:HF102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -995,6 +995,9 @@
       <c r="HE1" t="n">
         <v>10231</v>
       </c>
+      <c r="HF1" t="n">
+        <v>10238</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1638,6 +1641,9 @@
       <c r="HE2" t="n">
         <v>2020</v>
       </c>
+      <c r="HF2" t="n">
+        <v>2020</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2281,6 +2287,9 @@
       <c r="HE3" t="n">
         <v>8</v>
       </c>
+      <c r="HF3" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -2924,6 +2933,9 @@
       <c r="HE4" t="n">
         <v>0</v>
       </c>
+      <c r="HF4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -3567,6 +3579,9 @@
       <c r="HE5" t="n">
         <v>1</v>
       </c>
+      <c r="HF5" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -4210,6 +4225,9 @@
       <c r="HE6" t="n">
         <v>44</v>
       </c>
+      <c r="HF6" t="n">
+        <v>83</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -4853,6 +4871,9 @@
       <c r="HE7" t="n">
         <v>73</v>
       </c>
+      <c r="HF7" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -5496,6 +5517,9 @@
       <c r="HE8" t="n">
         <v>-29</v>
       </c>
+      <c r="HF8" t="n">
+        <v>51</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -6139,6 +6163,9 @@
       <c r="HE9" t="n">
         <v>0</v>
       </c>
+      <c r="HF9" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -6782,6 +6809,9 @@
       <c r="HE10" t="n">
         <v>15</v>
       </c>
+      <c r="HF10" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -7425,6 +7455,9 @@
       <c r="HE11" t="n">
         <v>158</v>
       </c>
+      <c r="HF11" t="n">
+        <v>176</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -8068,6 +8101,9 @@
       <c r="HE12" t="n">
         <v>109</v>
       </c>
+      <c r="HF12" t="n">
+        <v>148</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -8711,6 +8747,9 @@
       <c r="HE13" t="n">
         <v>267</v>
       </c>
+      <c r="HF13" t="n">
+        <v>324</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -9354,6 +9393,9 @@
       <c r="HE14" t="n">
         <v>1.45</v>
       </c>
+      <c r="HF14" t="n">
+        <v>1.19</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -9997,6 +10039,9 @@
       <c r="HE15" t="n">
         <v>58</v>
       </c>
+      <c r="HF15" t="n">
+        <v>69</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -10640,6 +10685,9 @@
       <c r="HE16" t="n">
         <v>44</v>
       </c>
+      <c r="HF16" t="n">
+        <v>60</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -11283,6 +11331,9 @@
       <c r="HE17" t="n">
         <v>16</v>
       </c>
+      <c r="HF17" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -11926,6 +11977,9 @@
       <c r="HE18" t="n">
         <v>15</v>
       </c>
+      <c r="HF18" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -12569,6 +12623,9 @@
       <c r="HE19" t="n">
         <v>21</v>
       </c>
+      <c r="HF19" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -13212,6 +13269,9 @@
       <c r="HE20" t="n">
         <v>6</v>
       </c>
+      <c r="HF20" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -13855,6 +13915,9 @@
       <c r="HE21" t="n">
         <v>6</v>
       </c>
+      <c r="HF21" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -14498,6 +14561,9 @@
       <c r="HE22" t="n">
         <v>7</v>
       </c>
+      <c r="HF22" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -15141,6 +15207,9 @@
       <c r="HE23" t="n">
         <v>1</v>
       </c>
+      <c r="HF23" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -15784,6 +15853,9 @@
       <c r="HE24" t="n">
         <v>14</v>
       </c>
+      <c r="HF24" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -16427,6 +16499,9 @@
       <c r="HE25" t="n">
         <v>42.9</v>
       </c>
+      <c r="HF25" t="n">
+        <v>52.2</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -17070,6 +17145,9 @@
       <c r="HE26" t="n">
         <v>44.5</v>
       </c>
+      <c r="HF26" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -17713,6 +17791,9 @@
       <c r="HE27" t="n">
         <v>19.07</v>
       </c>
+      <c r="HF27" t="n">
+        <v>14.09</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -18356,6 +18437,9 @@
       <c r="HE28" t="n">
         <v>30</v>
       </c>
+      <c r="HF28" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -18999,6 +19083,9 @@
       <c r="HE29" t="n">
         <v>59</v>
       </c>
+      <c r="HF29" t="n">
+        <v>49</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -19642,6 +19729,9 @@
       <c r="HE30" t="n">
         <v>29</v>
       </c>
+      <c r="HF30" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -20285,6 +20375,9 @@
       <c r="HE31" t="n">
         <v>36</v>
       </c>
+      <c r="HF31" t="n">
+        <v>47</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -20928,6 +21021,9 @@
       <c r="HE32" t="n">
         <v>2.57</v>
       </c>
+      <c r="HF32" t="n">
+        <v>2.04</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -21571,6 +21667,9 @@
       <c r="HE33" t="n">
         <v>6</v>
       </c>
+      <c r="HF33" t="n">
+        <v>3.92</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -22214,6 +22313,9 @@
       <c r="HE34" t="n">
         <v>36.1</v>
       </c>
+      <c r="HF34" t="n">
+        <v>42.6</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -22857,6 +22959,9 @@
       <c r="HE35" t="n">
         <v>16.7</v>
       </c>
+      <c r="HF35" t="n">
+        <v>25.5</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -23500,6 +23605,9 @@
       <c r="HE36" t="n">
         <v>188.4</v>
       </c>
+      <c r="HF36" t="n">
+        <v>188</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -24143,6 +24251,9 @@
       <c r="HE37" t="n">
         <v>84.09999999999999</v>
       </c>
+      <c r="HF37" t="n">
+        <v>84.09999999999999</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -24786,6 +24897,9 @@
       <c r="HE38" t="n">
         <v>25.41</v>
       </c>
+      <c r="HF38" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -25429,6 +25543,9 @@
       <c r="HE39" t="n">
         <v>104.7</v>
       </c>
+      <c r="HF39" t="n">
+        <v>111.8</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -26072,6 +26189,9 @@
       <c r="HE40" t="n">
         <v>8</v>
       </c>
+      <c r="HF40" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -26715,6 +26835,9 @@
       <c r="HE41" t="n">
         <v>5</v>
       </c>
+      <c r="HF41" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -27358,6 +27481,9 @@
       <c r="HE42" t="n">
         <v>4</v>
       </c>
+      <c r="HF42" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -28001,6 +28127,9 @@
       <c r="HE43" t="n">
         <v>5</v>
       </c>
+      <c r="HF43" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -28644,6 +28773,9 @@
       <c r="HE44" t="n">
         <v>118</v>
       </c>
+      <c r="HF44" t="n">
+        <v>129</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -29287,6 +29419,9 @@
       <c r="HE45" t="n">
         <v>146</v>
       </c>
+      <c r="HF45" t="n">
+        <v>198</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -29930,6 +30065,9 @@
       <c r="HE46" t="n">
         <v>179</v>
       </c>
+      <c r="HF46" t="n">
+        <v>254</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -30573,6 +30711,9 @@
       <c r="HE47" t="n">
         <v>67</v>
       </c>
+      <c r="HF47" t="n">
+        <v>78.40000000000001</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -31216,6 +31357,9 @@
       <c r="HE48" t="n">
         <v>59</v>
       </c>
+      <c r="HF48" t="n">
+        <v>49</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -31859,6 +32003,9 @@
       <c r="HE49" t="n">
         <v>12</v>
       </c>
+      <c r="HF49" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -32502,6 +32649,9 @@
       <c r="HE50" t="n">
         <v>9</v>
       </c>
+      <c r="HF50" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -33145,6 +33295,9 @@
       <c r="HE51" t="n">
         <v>30</v>
       </c>
+      <c r="HF51" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -33788,6 +33941,9 @@
       <c r="HE52" t="n">
         <v>29</v>
       </c>
+      <c r="HF52" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -34431,6 +34587,9 @@
       <c r="HE53" t="n">
         <v>58</v>
       </c>
+      <c r="HF53" t="n">
+        <v>38</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -35074,6 +35233,9 @@
       <c r="HE54" t="n">
         <v>2</v>
       </c>
+      <c r="HF54" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -35717,6 +35879,9 @@
       <c r="HE55" t="n">
         <v>6</v>
       </c>
+      <c r="HF55" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -36360,6 +36525,9 @@
       <c r="HE56" t="n">
         <v>100</v>
       </c>
+      <c r="HF56" t="n">
+        <v>66.7</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -37003,6 +37171,9 @@
       <c r="HE57" t="n">
         <v>186</v>
       </c>
+      <c r="HF57" t="n">
+        <v>150</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -37646,6 +37817,9 @@
       <c r="HE58" t="n">
         <v>108</v>
       </c>
+      <c r="HF58" t="n">
+        <v>145</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -38289,6 +38463,9 @@
       <c r="HE59" t="n">
         <v>294</v>
       </c>
+      <c r="HF59" t="n">
+        <v>295</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -38932,6 +39109,9 @@
       <c r="HE60" t="n">
         <v>1.72</v>
       </c>
+      <c r="HF60" t="n">
+        <v>1.03</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -39575,6 +39755,9 @@
       <c r="HE61" t="n">
         <v>63</v>
       </c>
+      <c r="HF61" t="n">
+        <v>59</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -40218,6 +40401,9 @@
       <c r="HE62" t="n">
         <v>44</v>
       </c>
+      <c r="HF62" t="n">
+        <v>42</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -40861,6 +41047,9 @@
       <c r="HE63" t="n">
         <v>40</v>
       </c>
+      <c r="HF63" t="n">
+        <v>44</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -41504,6 +41693,9 @@
       <c r="HE64" t="n">
         <v>21</v>
       </c>
+      <c r="HF64" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -42147,6 +42339,9 @@
       <c r="HE65" t="n">
         <v>15</v>
       </c>
+      <c r="HF65" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -42790,6 +42985,9 @@
       <c r="HE66" t="n">
         <v>12</v>
       </c>
+      <c r="HF66" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -43433,6 +43631,9 @@
       <c r="HE67" t="n">
         <v>4</v>
       </c>
+      <c r="HF67" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -44076,6 +44277,9 @@
       <c r="HE68" t="n">
         <v>1</v>
       </c>
+      <c r="HF68" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -44719,6 +44923,9 @@
       <c r="HE69" t="n">
         <v>0</v>
       </c>
+      <c r="HF69" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -45362,6 +45569,9 @@
       <c r="HE70" t="n">
         <v>13</v>
       </c>
+      <c r="HF70" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -46005,6 +46215,9 @@
       <c r="HE71" t="n">
         <v>92.3</v>
       </c>
+      <c r="HF71" t="n">
+        <v>33.3</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -46648,6 +46861,9 @@
       <c r="HE72" t="n">
         <v>24.5</v>
       </c>
+      <c r="HF72" t="n">
+        <v>73.75</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -47291,6 +47507,9 @@
       <c r="HE73" t="n">
         <v>22.62</v>
       </c>
+      <c r="HF73" t="n">
+        <v>24.58</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -47934,6 +48153,9 @@
       <c r="HE74" t="n">
         <v>42</v>
       </c>
+      <c r="HF74" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -48577,6 +48799,9 @@
       <c r="HE75" t="n">
         <v>57</v>
       </c>
+      <c r="HF75" t="n">
+        <v>55</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -49220,6 +49445,9 @@
       <c r="HE76" t="n">
         <v>28</v>
       </c>
+      <c r="HF76" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -49863,6 +50091,9 @@
       <c r="HE77" t="n">
         <v>41</v>
       </c>
+      <c r="HF77" t="n">
+        <v>31</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -50506,6 +50737,9 @@
       <c r="HE78" t="n">
         <v>3.15</v>
       </c>
+      <c r="HF78" t="n">
+        <v>2.58</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -51149,6 +51383,9 @@
       <c r="HE79" t="n">
         <v>3.42</v>
       </c>
+      <c r="HF79" t="n">
+        <v>7.75</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -51792,6 +52029,9 @@
       <c r="HE80" t="n">
         <v>31.7</v>
       </c>
+      <c r="HF80" t="n">
+        <v>35.5</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -52435,6 +52675,9 @@
       <c r="HE81" t="n">
         <v>29.3</v>
       </c>
+      <c r="HF81" t="n">
+        <v>12.9</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -53078,6 +53321,9 @@
       <c r="HE82" t="n">
         <v>188.1</v>
       </c>
+      <c r="HF82" t="n">
+        <v>187.5</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -53721,6 +53967,9 @@
       <c r="HE83" t="n">
         <v>85.40000000000001</v>
       </c>
+      <c r="HF83" t="n">
+        <v>87.5</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -54364,6 +54613,9 @@
       <c r="HE84" t="n">
         <v>25.24</v>
       </c>
+      <c r="HF84" t="n">
+        <v>25.16</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -55007,6 +55259,9 @@
       <c r="HE85" t="n">
         <v>83.2</v>
       </c>
+      <c r="HF85" t="n">
+        <v>93.09999999999999</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -55650,6 +55905,9 @@
       <c r="HE86" t="n">
         <v>8</v>
       </c>
+      <c r="HF86" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -56293,6 +56551,9 @@
       <c r="HE87" t="n">
         <v>7</v>
       </c>
+      <c r="HF87" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -56936,6 +57197,9 @@
       <c r="HE88" t="n">
         <v>4</v>
       </c>
+      <c r="HF88" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -57579,6 +57843,9 @@
       <c r="HE89" t="n">
         <v>3</v>
       </c>
+      <c r="HF89" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -58222,6 +58489,9 @@
       <c r="HE90" t="n">
         <v>129</v>
       </c>
+      <c r="HF90" t="n">
+        <v>117</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -58865,6 +59135,9 @@
       <c r="HE91" t="n">
         <v>154</v>
       </c>
+      <c r="HF91" t="n">
+        <v>168</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -59508,6 +59781,9 @@
       <c r="HE92" t="n">
         <v>200</v>
       </c>
+      <c r="HF92" t="n">
+        <v>195</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -60151,6 +60427,9 @@
       <c r="HE93" t="n">
         <v>68</v>
       </c>
+      <c r="HF93" t="n">
+        <v>66.09999999999999</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -60794,6 +61073,9 @@
       <c r="HE94" t="n">
         <v>57</v>
       </c>
+      <c r="HF94" t="n">
+        <v>55</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -61437,6 +61719,9 @@
       <c r="HE95" t="n">
         <v>6</v>
       </c>
+      <c r="HF95" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -62080,6 +62365,9 @@
       <c r="HE96" t="n">
         <v>4</v>
       </c>
+      <c r="HF96" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -62723,6 +63011,9 @@
       <c r="HE97" t="n">
         <v>42</v>
       </c>
+      <c r="HF97" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -63366,6 +63657,9 @@
       <c r="HE98" t="n">
         <v>28</v>
       </c>
+      <c r="HF98" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -64009,6 +64303,9 @@
       <c r="HE99" t="n">
         <v>47</v>
       </c>
+      <c r="HF99" t="n">
+        <v>45</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -64652,6 +64949,9 @@
       <c r="HE100" t="n">
         <v>2</v>
       </c>
+      <c r="HF100" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -65295,6 +65595,9 @@
       <c r="HE101" t="n">
         <v>4</v>
       </c>
+      <c r="HF101" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -65938,8 +66241,11 @@
       <c r="HE102" t="n">
         <v>33.3</v>
       </c>
+      <c r="HF102" t="n">
+        <v>100</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/Port Adelaide_stats.xlsx
+++ b/Port Adelaide_stats.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
@@ -44,15 +44,15 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:HF102"/>
+  <dimension ref="A1:HI102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -998,6 +998,15 @@
       <c r="HF1" t="n">
         <v>10238</v>
       </c>
+      <c r="HG1" t="n">
+        <v>10245</v>
+      </c>
+      <c r="HH1" t="n">
+        <v>10252</v>
+      </c>
+      <c r="HI1" t="n">
+        <v>10261</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1644,6 +1653,15 @@
       <c r="HF2" t="n">
         <v>2020</v>
       </c>
+      <c r="HG2" t="n">
+        <v>2020</v>
+      </c>
+      <c r="HH2" t="n">
+        <v>2020</v>
+      </c>
+      <c r="HI2" t="n">
+        <v>2020</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2290,6 +2308,15 @@
       <c r="HF3" t="n">
         <v>9</v>
       </c>
+      <c r="HG3" t="n">
+        <v>10</v>
+      </c>
+      <c r="HH3" t="n">
+        <v>11</v>
+      </c>
+      <c r="HI3" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -2936,6 +2963,15 @@
       <c r="HF4" t="n">
         <v>1</v>
       </c>
+      <c r="HG4" t="n">
+        <v>0</v>
+      </c>
+      <c r="HH4" t="n">
+        <v>0</v>
+      </c>
+      <c r="HI4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -3582,6 +3618,15 @@
       <c r="HF5" t="n">
         <v>1</v>
       </c>
+      <c r="HG5" t="n">
+        <v>0</v>
+      </c>
+      <c r="HH5" t="n">
+        <v>0</v>
+      </c>
+      <c r="HI5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -4228,6 +4273,15 @@
       <c r="HF6" t="n">
         <v>83</v>
       </c>
+      <c r="HG6" t="n">
+        <v>55</v>
+      </c>
+      <c r="HH6" t="n">
+        <v>93</v>
+      </c>
+      <c r="HI6" t="n">
+        <v>31</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -4874,6 +4928,15 @@
       <c r="HF7" t="n">
         <v>32</v>
       </c>
+      <c r="HG7" t="n">
+        <v>42</v>
+      </c>
+      <c r="HH7" t="n">
+        <v>72</v>
+      </c>
+      <c r="HI7" t="n">
+        <v>91</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -5520,6 +5583,15 @@
       <c r="HF8" t="n">
         <v>51</v>
       </c>
+      <c r="HG8" t="n">
+        <v>13</v>
+      </c>
+      <c r="HH8" t="n">
+        <v>21</v>
+      </c>
+      <c r="HI8" t="n">
+        <v>-60</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -6166,6 +6238,15 @@
       <c r="HF9" t="n">
         <v>1</v>
       </c>
+      <c r="HG9" t="n">
+        <v>1</v>
+      </c>
+      <c r="HH9" t="n">
+        <v>1</v>
+      </c>
+      <c r="HI9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -6812,6 +6893,15 @@
       <c r="HF10" t="n">
         <v>11</v>
       </c>
+      <c r="HG10" t="n">
+        <v>18</v>
+      </c>
+      <c r="HH10" t="n">
+        <v>14</v>
+      </c>
+      <c r="HI10" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -7458,6 +7548,15 @@
       <c r="HF11" t="n">
         <v>176</v>
       </c>
+      <c r="HG11" t="n">
+        <v>172</v>
+      </c>
+      <c r="HH11" t="n">
+        <v>170</v>
+      </c>
+      <c r="HI11" t="n">
+        <v>157</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -8104,6 +8203,15 @@
       <c r="HF12" t="n">
         <v>148</v>
       </c>
+      <c r="HG12" t="n">
+        <v>127</v>
+      </c>
+      <c r="HH12" t="n">
+        <v>151</v>
+      </c>
+      <c r="HI12" t="n">
+        <v>95</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -8750,6 +8858,15 @@
       <c r="HF13" t="n">
         <v>324</v>
       </c>
+      <c r="HG13" t="n">
+        <v>299</v>
+      </c>
+      <c r="HH13" t="n">
+        <v>321</v>
+      </c>
+      <c r="HI13" t="n">
+        <v>252</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -9396,6 +9513,15 @@
       <c r="HF14" t="n">
         <v>1.19</v>
       </c>
+      <c r="HG14" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="HH14" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="HI14" t="n">
+        <v>1.65</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -10042,6 +10168,15 @@
       <c r="HF15" t="n">
         <v>69</v>
       </c>
+      <c r="HG15" t="n">
+        <v>67</v>
+      </c>
+      <c r="HH15" t="n">
+        <v>50</v>
+      </c>
+      <c r="HI15" t="n">
+        <v>53</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -10688,6 +10823,15 @@
       <c r="HF16" t="n">
         <v>60</v>
       </c>
+      <c r="HG16" t="n">
+        <v>76</v>
+      </c>
+      <c r="HH16" t="n">
+        <v>69</v>
+      </c>
+      <c r="HI16" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -11334,6 +11478,15 @@
       <c r="HF17" t="n">
         <v>13</v>
       </c>
+      <c r="HG17" t="n">
+        <v>44</v>
+      </c>
+      <c r="HH17" t="n">
+        <v>31</v>
+      </c>
+      <c r="HI17" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -11980,6 +12133,15 @@
       <c r="HF18" t="n">
         <v>23</v>
       </c>
+      <c r="HG18" t="n">
+        <v>17</v>
+      </c>
+      <c r="HH18" t="n">
+        <v>22</v>
+      </c>
+      <c r="HI18" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -12626,6 +12788,15 @@
       <c r="HF19" t="n">
         <v>16</v>
       </c>
+      <c r="HG19" t="n">
+        <v>14</v>
+      </c>
+      <c r="HH19" t="n">
+        <v>11</v>
+      </c>
+      <c r="HI19" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -13272,6 +13443,15 @@
       <c r="HF20" t="n">
         <v>12</v>
       </c>
+      <c r="HG20" t="n">
+        <v>8</v>
+      </c>
+      <c r="HH20" t="n">
+        <v>13</v>
+      </c>
+      <c r="HI20" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -13918,6 +14098,15 @@
       <c r="HF21" t="n">
         <v>8</v>
       </c>
+      <c r="HG21" t="n">
+        <v>7</v>
+      </c>
+      <c r="HH21" t="n">
+        <v>9</v>
+      </c>
+      <c r="HI21" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -14564,6 +14753,15 @@
       <c r="HF22" t="n">
         <v>8</v>
       </c>
+      <c r="HG22" t="n">
+        <v>7</v>
+      </c>
+      <c r="HH22" t="n">
+        <v>12</v>
+      </c>
+      <c r="HI22" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -15210,6 +15408,15 @@
       <c r="HF23" t="n">
         <v>3</v>
       </c>
+      <c r="HG23" t="n">
+        <v>0</v>
+      </c>
+      <c r="HH23" t="n">
+        <v>3</v>
+      </c>
+      <c r="HI23" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -15856,6 +16063,15 @@
       <c r="HF24" t="n">
         <v>23</v>
       </c>
+      <c r="HG24" t="n">
+        <v>15</v>
+      </c>
+      <c r="HH24" t="n">
+        <v>28</v>
+      </c>
+      <c r="HI24" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -16502,6 +16718,15 @@
       <c r="HF25" t="n">
         <v>52.2</v>
       </c>
+      <c r="HG25" t="n">
+        <v>53.3</v>
+      </c>
+      <c r="HH25" t="n">
+        <v>46.4</v>
+      </c>
+      <c r="HI25" t="n">
+        <v>36.4</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -17148,6 +17373,15 @@
       <c r="HF26" t="n">
         <v>27</v>
       </c>
+      <c r="HG26" t="n">
+        <v>37.38</v>
+      </c>
+      <c r="HH26" t="n">
+        <v>24.69</v>
+      </c>
+      <c r="HI26" t="n">
+        <v>63</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -17794,6 +18028,15 @@
       <c r="HF27" t="n">
         <v>14.09</v>
       </c>
+      <c r="HG27" t="n">
+        <v>19.93</v>
+      </c>
+      <c r="HH27" t="n">
+        <v>11.46</v>
+      </c>
+      <c r="HI27" t="n">
+        <v>22.91</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -18440,6 +18683,15 @@
       <c r="HF28" t="n">
         <v>29</v>
       </c>
+      <c r="HG28" t="n">
+        <v>33</v>
+      </c>
+      <c r="HH28" t="n">
+        <v>40</v>
+      </c>
+      <c r="HI28" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -19086,6 +19338,15 @@
       <c r="HF29" t="n">
         <v>49</v>
       </c>
+      <c r="HG29" t="n">
+        <v>49</v>
+      </c>
+      <c r="HH29" t="n">
+        <v>45</v>
+      </c>
+      <c r="HI29" t="n">
+        <v>38</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -19732,6 +19993,15 @@
       <c r="HF30" t="n">
         <v>24</v>
       </c>
+      <c r="HG30" t="n">
+        <v>33</v>
+      </c>
+      <c r="HH30" t="n">
+        <v>13</v>
+      </c>
+      <c r="HI30" t="n">
+        <v>31</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -20378,6 +20648,15 @@
       <c r="HF31" t="n">
         <v>47</v>
       </c>
+      <c r="HG31" t="n">
+        <v>35</v>
+      </c>
+      <c r="HH31" t="n">
+        <v>55</v>
+      </c>
+      <c r="HI31" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -21024,6 +21303,15 @@
       <c r="HF32" t="n">
         <v>2.04</v>
       </c>
+      <c r="HG32" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="HH32" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="HI32" t="n">
+        <v>3.36</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -21670,6 +21958,15 @@
       <c r="HF33" t="n">
         <v>3.92</v>
       </c>
+      <c r="HG33" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="HH33" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="HI33" t="n">
+        <v>9.25</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -22316,6 +22613,15 @@
       <c r="HF34" t="n">
         <v>42.6</v>
       </c>
+      <c r="HG34" t="n">
+        <v>42.9</v>
+      </c>
+      <c r="HH34" t="n">
+        <v>45.5</v>
+      </c>
+      <c r="HI34" t="n">
+        <v>24.3</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -22962,6 +23268,15 @@
       <c r="HF35" t="n">
         <v>25.5</v>
       </c>
+      <c r="HG35" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="HH35" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="HI35" t="n">
+        <v>10.8</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -23608,6 +23923,15 @@
       <c r="HF36" t="n">
         <v>188</v>
       </c>
+      <c r="HG36" t="n">
+        <v>187.4</v>
+      </c>
+      <c r="HH36" t="n">
+        <v>188</v>
+      </c>
+      <c r="HI36" t="n">
+        <v>187.5</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -24254,6 +24578,15 @@
       <c r="HF37" t="n">
         <v>84.09999999999999</v>
       </c>
+      <c r="HG37" t="n">
+        <v>83.3</v>
+      </c>
+      <c r="HH37" t="n">
+        <v>84.2</v>
+      </c>
+      <c r="HI37" t="n">
+        <v>83.5</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -24900,6 +25233,15 @@
       <c r="HF38" t="n">
         <v>26</v>
       </c>
+      <c r="HG38" t="n">
+        <v>25.66</v>
+      </c>
+      <c r="HH38" t="n">
+        <v>25.74</v>
+      </c>
+      <c r="HI38" t="n">
+        <v>25.8</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -25546,6 +25888,15 @@
       <c r="HF39" t="n">
         <v>111.8</v>
       </c>
+      <c r="HG39" t="n">
+        <v>105.8</v>
+      </c>
+      <c r="HH39" t="n">
+        <v>98.09999999999999</v>
+      </c>
+      <c r="HI39" t="n">
+        <v>106.2</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -26192,6 +26543,15 @@
       <c r="HF40" t="n">
         <v>7</v>
       </c>
+      <c r="HG40" t="n">
+        <v>7</v>
+      </c>
+      <c r="HH40" t="n">
+        <v>7</v>
+      </c>
+      <c r="HI40" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -26838,6 +27198,15 @@
       <c r="HF41" t="n">
         <v>5</v>
       </c>
+      <c r="HG41" t="n">
+        <v>5</v>
+      </c>
+      <c r="HH41" t="n">
+        <v>5</v>
+      </c>
+      <c r="HI41" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -27484,6 +27853,15 @@
       <c r="HF42" t="n">
         <v>4</v>
       </c>
+      <c r="HG42" t="n">
+        <v>5</v>
+      </c>
+      <c r="HH42" t="n">
+        <v>4</v>
+      </c>
+      <c r="HI42" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -28130,6 +28508,15 @@
       <c r="HF43" t="n">
         <v>6</v>
       </c>
+      <c r="HG43" t="n">
+        <v>5</v>
+      </c>
+      <c r="HH43" t="n">
+        <v>6</v>
+      </c>
+      <c r="HI43" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -28776,6 +29163,15 @@
       <c r="HF44" t="n">
         <v>129</v>
       </c>
+      <c r="HG44" t="n">
+        <v>141</v>
+      </c>
+      <c r="HH44" t="n">
+        <v>155</v>
+      </c>
+      <c r="HI44" t="n">
+        <v>105</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -29422,6 +29818,15 @@
       <c r="HF45" t="n">
         <v>198</v>
       </c>
+      <c r="HG45" t="n">
+        <v>158</v>
+      </c>
+      <c r="HH45" t="n">
+        <v>176</v>
+      </c>
+      <c r="HI45" t="n">
+        <v>140</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -30068,6 +30473,15 @@
       <c r="HF46" t="n">
         <v>254</v>
       </c>
+      <c r="HG46" t="n">
+        <v>212</v>
+      </c>
+      <c r="HH46" t="n">
+        <v>229</v>
+      </c>
+      <c r="HI46" t="n">
+        <v>172</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -30714,6 +31128,15 @@
       <c r="HF47" t="n">
         <v>78.40000000000001</v>
       </c>
+      <c r="HG47" t="n">
+        <v>70.90000000000001</v>
+      </c>
+      <c r="HH47" t="n">
+        <v>71.3</v>
+      </c>
+      <c r="HI47" t="n">
+        <v>68.3</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -31360,6 +31783,15 @@
       <c r="HF48" t="n">
         <v>49</v>
       </c>
+      <c r="HG48" t="n">
+        <v>49</v>
+      </c>
+      <c r="HH48" t="n">
+        <v>45</v>
+      </c>
+      <c r="HI48" t="n">
+        <v>38</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -32006,6 +32438,15 @@
       <c r="HF49" t="n">
         <v>10</v>
       </c>
+      <c r="HG49" t="n">
+        <v>21</v>
+      </c>
+      <c r="HH49" t="n">
+        <v>12</v>
+      </c>
+      <c r="HI49" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -32652,6 +33093,15 @@
       <c r="HF50" t="n">
         <v>9</v>
       </c>
+      <c r="HG50" t="n">
+        <v>7</v>
+      </c>
+      <c r="HH50" t="n">
+        <v>12</v>
+      </c>
+      <c r="HI50" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -33298,6 +33748,15 @@
       <c r="HF51" t="n">
         <v>29</v>
       </c>
+      <c r="HG51" t="n">
+        <v>33</v>
+      </c>
+      <c r="HH51" t="n">
+        <v>40</v>
+      </c>
+      <c r="HI51" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -33944,6 +34403,15 @@
       <c r="HF52" t="n">
         <v>24</v>
       </c>
+      <c r="HG52" t="n">
+        <v>33</v>
+      </c>
+      <c r="HH52" t="n">
+        <v>13</v>
+      </c>
+      <c r="HI52" t="n">
+        <v>31</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -34590,6 +35058,15 @@
       <c r="HF53" t="n">
         <v>38</v>
       </c>
+      <c r="HG53" t="n">
+        <v>58</v>
+      </c>
+      <c r="HH53" t="n">
+        <v>38</v>
+      </c>
+      <c r="HI53" t="n">
+        <v>31</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -35236,6 +35713,15 @@
       <c r="HF54" t="n">
         <v>2</v>
       </c>
+      <c r="HG54" t="n">
+        <v>1</v>
+      </c>
+      <c r="HH54" t="n">
+        <v>2</v>
+      </c>
+      <c r="HI54" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -35882,6 +36368,15 @@
       <c r="HF55" t="n">
         <v>8</v>
       </c>
+      <c r="HG55" t="n">
+        <v>7</v>
+      </c>
+      <c r="HH55" t="n">
+        <v>9</v>
+      </c>
+      <c r="HI55" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -36528,6 +37023,15 @@
       <c r="HF56" t="n">
         <v>66.7</v>
       </c>
+      <c r="HG56" t="n">
+        <v>87.5</v>
+      </c>
+      <c r="HH56" t="n">
+        <v>69.2</v>
+      </c>
+      <c r="HI56" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -37174,6 +37678,15 @@
       <c r="HF57" t="n">
         <v>150</v>
       </c>
+      <c r="HG57" t="n">
+        <v>156</v>
+      </c>
+      <c r="HH57" t="n">
+        <v>140</v>
+      </c>
+      <c r="HI57" t="n">
+        <v>210</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -37820,6 +38333,15 @@
       <c r="HF58" t="n">
         <v>145</v>
       </c>
+      <c r="HG58" t="n">
+        <v>136</v>
+      </c>
+      <c r="HH58" t="n">
+        <v>101</v>
+      </c>
+      <c r="HI58" t="n">
+        <v>121</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -38466,6 +38988,15 @@
       <c r="HF59" t="n">
         <v>295</v>
       </c>
+      <c r="HG59" t="n">
+        <v>292</v>
+      </c>
+      <c r="HH59" t="n">
+        <v>241</v>
+      </c>
+      <c r="HI59" t="n">
+        <v>331</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -39112,6 +39643,15 @@
       <c r="HF60" t="n">
         <v>1.03</v>
       </c>
+      <c r="HG60" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="HH60" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="HI60" t="n">
+        <v>1.74</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -39758,6 +40298,15 @@
       <c r="HF61" t="n">
         <v>59</v>
       </c>
+      <c r="HG61" t="n">
+        <v>44</v>
+      </c>
+      <c r="HH61" t="n">
+        <v>47</v>
+      </c>
+      <c r="HI61" t="n">
+        <v>108</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -40404,6 +40953,15 @@
       <c r="HF62" t="n">
         <v>42</v>
       </c>
+      <c r="HG62" t="n">
+        <v>64</v>
+      </c>
+      <c r="HH62" t="n">
+        <v>68</v>
+      </c>
+      <c r="HI62" t="n">
+        <v>49</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -41050,6 +41608,15 @@
       <c r="HF63" t="n">
         <v>44</v>
       </c>
+      <c r="HG63" t="n">
+        <v>30</v>
+      </c>
+      <c r="HH63" t="n">
+        <v>36</v>
+      </c>
+      <c r="HI63" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -41696,6 +42263,15 @@
       <c r="HF64" t="n">
         <v>16</v>
       </c>
+      <c r="HG64" t="n">
+        <v>14</v>
+      </c>
+      <c r="HH64" t="n">
+        <v>11</v>
+      </c>
+      <c r="HI64" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -42342,6 +42918,15 @@
       <c r="HF65" t="n">
         <v>23</v>
       </c>
+      <c r="HG65" t="n">
+        <v>17</v>
+      </c>
+      <c r="HH65" t="n">
+        <v>22</v>
+      </c>
+      <c r="HI65" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -42988,6 +43573,15 @@
       <c r="HF66" t="n">
         <v>4</v>
       </c>
+      <c r="HG66" t="n">
+        <v>5</v>
+      </c>
+      <c r="HH66" t="n">
+        <v>11</v>
+      </c>
+      <c r="HI66" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -43634,6 +44228,15 @@
       <c r="HF67" t="n">
         <v>4</v>
       </c>
+      <c r="HG67" t="n">
+        <v>4</v>
+      </c>
+      <c r="HH67" t="n">
+        <v>6</v>
+      </c>
+      <c r="HI67" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -44280,6 +44883,15 @@
       <c r="HF68" t="n">
         <v>7</v>
       </c>
+      <c r="HG68" t="n">
+        <v>8</v>
+      </c>
+      <c r="HH68" t="n">
+        <v>3</v>
+      </c>
+      <c r="HI68" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -44926,6 +45538,15 @@
       <c r="HF69" t="n">
         <v>1</v>
       </c>
+      <c r="HG69" t="n">
+        <v>4</v>
+      </c>
+      <c r="HH69" t="n">
+        <v>3</v>
+      </c>
+      <c r="HI69" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -45572,6 +46193,15 @@
       <c r="HF70" t="n">
         <v>12</v>
       </c>
+      <c r="HG70" t="n">
+        <v>17</v>
+      </c>
+      <c r="HH70" t="n">
+        <v>17</v>
+      </c>
+      <c r="HI70" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -46218,6 +46848,15 @@
       <c r="HF71" t="n">
         <v>33.3</v>
       </c>
+      <c r="HG71" t="n">
+        <v>29.4</v>
+      </c>
+      <c r="HH71" t="n">
+        <v>64.7</v>
+      </c>
+      <c r="HI71" t="n">
+        <v>66.7</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -46864,6 +47503,15 @@
       <c r="HF72" t="n">
         <v>73.75</v>
       </c>
+      <c r="HG72" t="n">
+        <v>58.4</v>
+      </c>
+      <c r="HH72" t="n">
+        <v>21.91</v>
+      </c>
+      <c r="HI72" t="n">
+        <v>23.64</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -47510,6 +48158,15 @@
       <c r="HF73" t="n">
         <v>24.58</v>
       </c>
+      <c r="HG73" t="n">
+        <v>17.18</v>
+      </c>
+      <c r="HH73" t="n">
+        <v>14.18</v>
+      </c>
+      <c r="HI73" t="n">
+        <v>15.76</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -48156,6 +48813,15 @@
       <c r="HF74" t="n">
         <v>30</v>
       </c>
+      <c r="HG74" t="n">
+        <v>34</v>
+      </c>
+      <c r="HH74" t="n">
+        <v>22</v>
+      </c>
+      <c r="HI74" t="n">
+        <v>31</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -48802,6 +49468,15 @@
       <c r="HF75" t="n">
         <v>55</v>
       </c>
+      <c r="HG75" t="n">
+        <v>39</v>
+      </c>
+      <c r="HH75" t="n">
+        <v>52</v>
+      </c>
+      <c r="HI75" t="n">
+        <v>49</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -49448,6 +50123,15 @@
       <c r="HF76" t="n">
         <v>35</v>
       </c>
+      <c r="HG76" t="n">
+        <v>26</v>
+      </c>
+      <c r="HH76" t="n">
+        <v>39</v>
+      </c>
+      <c r="HI76" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -50094,6 +50778,15 @@
       <c r="HF77" t="n">
         <v>31</v>
       </c>
+      <c r="HG77" t="n">
+        <v>39</v>
+      </c>
+      <c r="HH77" t="n">
+        <v>24</v>
+      </c>
+      <c r="HI77" t="n">
+        <v>47</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -50740,6 +51433,15 @@
       <c r="HF78" t="n">
         <v>2.58</v>
       </c>
+      <c r="HG78" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="HH78" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="HI78" t="n">
+        <v>2.24</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -51386,6 +52088,15 @@
       <c r="HF79" t="n">
         <v>7.75</v>
       </c>
+      <c r="HG79" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="HH79" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="HI79" t="n">
+        <v>3.36</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -52032,6 +52743,15 @@
       <c r="HF80" t="n">
         <v>35.5</v>
       </c>
+      <c r="HG80" t="n">
+        <v>33.3</v>
+      </c>
+      <c r="HH80" t="n">
+        <v>58.3</v>
+      </c>
+      <c r="HI80" t="n">
+        <v>42.6</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -52678,6 +53398,15 @@
       <c r="HF81" t="n">
         <v>12.9</v>
       </c>
+      <c r="HG81" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="HH81" t="n">
+        <v>45.8</v>
+      </c>
+      <c r="HI81" t="n">
+        <v>29.8</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -53324,6 +54053,15 @@
       <c r="HF82" t="n">
         <v>187.5</v>
       </c>
+      <c r="HG82" t="n">
+        <v>186.2</v>
+      </c>
+      <c r="HH82" t="n">
+        <v>186.2</v>
+      </c>
+      <c r="HI82" t="n">
+        <v>188.5</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -53970,6 +54708,15 @@
       <c r="HF83" t="n">
         <v>87.5</v>
       </c>
+      <c r="HG83" t="n">
+        <v>84</v>
+      </c>
+      <c r="HH83" t="n">
+        <v>85.5</v>
+      </c>
+      <c r="HI83" t="n">
+        <v>89.2</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -54616,6 +55363,15 @@
       <c r="HF84" t="n">
         <v>25.16</v>
       </c>
+      <c r="HG84" t="n">
+        <v>24.91</v>
+      </c>
+      <c r="HH84" t="n">
+        <v>25.24</v>
+      </c>
+      <c r="HI84" t="n">
+        <v>27.33</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -55262,6 +56018,15 @@
       <c r="HF85" t="n">
         <v>93.09999999999999</v>
       </c>
+      <c r="HG85" t="n">
+        <v>82.7</v>
+      </c>
+      <c r="HH85" t="n">
+        <v>85.09999999999999</v>
+      </c>
+      <c r="HI85" t="n">
+        <v>132.8</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -55908,6 +56673,15 @@
       <c r="HF86" t="n">
         <v>6</v>
       </c>
+      <c r="HG86" t="n">
+        <v>7</v>
+      </c>
+      <c r="HH86" t="n">
+        <v>10</v>
+      </c>
+      <c r="HI86" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -56554,6 +57328,15 @@
       <c r="HF87" t="n">
         <v>9</v>
       </c>
+      <c r="HG87" t="n">
+        <v>6</v>
+      </c>
+      <c r="HH87" t="n">
+        <v>5</v>
+      </c>
+      <c r="HI87" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -57200,6 +57983,15 @@
       <c r="HF88" t="n">
         <v>4</v>
       </c>
+      <c r="HG88" t="n">
+        <v>7</v>
+      </c>
+      <c r="HH88" t="n">
+        <v>1</v>
+      </c>
+      <c r="HI88" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -57846,6 +58638,15 @@
       <c r="HF89" t="n">
         <v>3</v>
       </c>
+      <c r="HG89" t="n">
+        <v>2</v>
+      </c>
+      <c r="HH89" t="n">
+        <v>6</v>
+      </c>
+      <c r="HI89" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -58492,6 +59293,15 @@
       <c r="HF90" t="n">
         <v>117</v>
       </c>
+      <c r="HG90" t="n">
+        <v>141</v>
+      </c>
+      <c r="HH90" t="n">
+        <v>112</v>
+      </c>
+      <c r="HI90" t="n">
+        <v>128</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -59138,6 +59948,15 @@
       <c r="HF91" t="n">
         <v>168</v>
       </c>
+      <c r="HG91" t="n">
+        <v>157</v>
+      </c>
+      <c r="HH91" t="n">
+        <v>124</v>
+      </c>
+      <c r="HI91" t="n">
+        <v>208</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -59784,6 +60603,15 @@
       <c r="HF92" t="n">
         <v>195</v>
       </c>
+      <c r="HG92" t="n">
+        <v>197</v>
+      </c>
+      <c r="HH92" t="n">
+        <v>162</v>
+      </c>
+      <c r="HI92" t="n">
+        <v>250</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -60430,6 +61258,15 @@
       <c r="HF93" t="n">
         <v>66.09999999999999</v>
       </c>
+      <c r="HG93" t="n">
+        <v>67.5</v>
+      </c>
+      <c r="HH93" t="n">
+        <v>67.2</v>
+      </c>
+      <c r="HI93" t="n">
+        <v>75.5</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -61076,6 +61913,15 @@
       <c r="HF94" t="n">
         <v>55</v>
       </c>
+      <c r="HG94" t="n">
+        <v>39</v>
+      </c>
+      <c r="HH94" t="n">
+        <v>52</v>
+      </c>
+      <c r="HI94" t="n">
+        <v>49</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -61722,6 +62568,15 @@
       <c r="HF95" t="n">
         <v>9</v>
       </c>
+      <c r="HG95" t="n">
+        <v>6</v>
+      </c>
+      <c r="HH95" t="n">
+        <v>7</v>
+      </c>
+      <c r="HI95" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -62368,6 +63223,15 @@
       <c r="HF96" t="n">
         <v>5</v>
       </c>
+      <c r="HG96" t="n">
+        <v>5</v>
+      </c>
+      <c r="HH96" t="n">
+        <v>5</v>
+      </c>
+      <c r="HI96" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -63014,6 +63878,15 @@
       <c r="HF97" t="n">
         <v>30</v>
       </c>
+      <c r="HG97" t="n">
+        <v>34</v>
+      </c>
+      <c r="HH97" t="n">
+        <v>22</v>
+      </c>
+      <c r="HI97" t="n">
+        <v>31</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -63660,6 +64533,15 @@
       <c r="HF98" t="n">
         <v>35</v>
       </c>
+      <c r="HG98" t="n">
+        <v>26</v>
+      </c>
+      <c r="HH98" t="n">
+        <v>39</v>
+      </c>
+      <c r="HI98" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -64306,6 +65188,15 @@
       <c r="HF99" t="n">
         <v>45</v>
       </c>
+      <c r="HG99" t="n">
+        <v>46</v>
+      </c>
+      <c r="HH99" t="n">
+        <v>36</v>
+      </c>
+      <c r="HI99" t="n">
+        <v>53</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -64952,6 +65843,15 @@
       <c r="HF100" t="n">
         <v>0</v>
       </c>
+      <c r="HG100" t="n">
+        <v>2</v>
+      </c>
+      <c r="HH100" t="n">
+        <v>3</v>
+      </c>
+      <c r="HI100" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -65598,6 +66498,15 @@
       <c r="HF101" t="n">
         <v>4</v>
       </c>
+      <c r="HG101" t="n">
+        <v>4</v>
+      </c>
+      <c r="HH101" t="n">
+        <v>6</v>
+      </c>
+      <c r="HI101" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -66244,8 +67153,17 @@
       <c r="HF102" t="n">
         <v>100</v>
       </c>
+      <c r="HG102" t="n">
+        <v>80</v>
+      </c>
+      <c r="HH102" t="n">
+        <v>54.5</v>
+      </c>
+      <c r="HI102" t="n">
+        <v>85.7</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/Port Adelaide_stats.xlsx
+++ b/Port Adelaide_stats.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
@@ -44,15 +44,15 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:HI102"/>
+  <dimension ref="A1:HO102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1007,6 +1007,24 @@
       <c r="HI1" t="n">
         <v>10261</v>
       </c>
+      <c r="HJ1" t="n">
+        <v>10271</v>
+      </c>
+      <c r="HK1" t="n">
+        <v>10281</v>
+      </c>
+      <c r="HL1" t="n">
+        <v>10292</v>
+      </c>
+      <c r="HM1" t="n">
+        <v>10303</v>
+      </c>
+      <c r="HN1" t="n">
+        <v>10317</v>
+      </c>
+      <c r="HO1" t="n">
+        <v>10318</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1662,6 +1680,24 @@
       <c r="HI2" t="n">
         <v>2020</v>
       </c>
+      <c r="HJ2" t="n">
+        <v>2020</v>
+      </c>
+      <c r="HK2" t="n">
+        <v>2020</v>
+      </c>
+      <c r="HL2" t="n">
+        <v>2020</v>
+      </c>
+      <c r="HM2" t="n">
+        <v>2020</v>
+      </c>
+      <c r="HN2" t="n">
+        <v>2020</v>
+      </c>
+      <c r="HO2" t="n">
+        <v>2020</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2317,6 +2353,24 @@
       <c r="HI3" t="n">
         <v>12</v>
       </c>
+      <c r="HJ3" t="n">
+        <v>13</v>
+      </c>
+      <c r="HK3" t="n">
+        <v>14</v>
+      </c>
+      <c r="HL3" t="n">
+        <v>16</v>
+      </c>
+      <c r="HM3" t="n">
+        <v>17</v>
+      </c>
+      <c r="HN3" t="n">
+        <v>18</v>
+      </c>
+      <c r="HO3" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -2972,6 +3026,24 @@
       <c r="HI4" t="n">
         <v>1</v>
       </c>
+      <c r="HJ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="HK4" t="n">
+        <v>0</v>
+      </c>
+      <c r="HL4" t="n">
+        <v>1</v>
+      </c>
+      <c r="HM4" t="n">
+        <v>0</v>
+      </c>
+      <c r="HN4" t="n">
+        <v>1</v>
+      </c>
+      <c r="HO4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -3627,6 +3699,24 @@
       <c r="HI5" t="n">
         <v>0</v>
       </c>
+      <c r="HJ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="HK5" t="n">
+        <v>0</v>
+      </c>
+      <c r="HL5" t="n">
+        <v>1</v>
+      </c>
+      <c r="HM5" t="n">
+        <v>0</v>
+      </c>
+      <c r="HN5" t="n">
+        <v>1</v>
+      </c>
+      <c r="HO5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -4282,6 +4372,24 @@
       <c r="HI6" t="n">
         <v>31</v>
       </c>
+      <c r="HJ6" t="n">
+        <v>68</v>
+      </c>
+      <c r="HK6" t="n">
+        <v>73</v>
+      </c>
+      <c r="HL6" t="n">
+        <v>78</v>
+      </c>
+      <c r="HM6" t="n">
+        <v>79</v>
+      </c>
+      <c r="HN6" t="n">
+        <v>61</v>
+      </c>
+      <c r="HO6" t="n">
+        <v>58</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -4937,6 +5045,24 @@
       <c r="HI7" t="n">
         <v>91</v>
       </c>
+      <c r="HJ7" t="n">
+        <v>58</v>
+      </c>
+      <c r="HK7" t="n">
+        <v>47</v>
+      </c>
+      <c r="HL7" t="n">
+        <v>42</v>
+      </c>
+      <c r="HM7" t="n">
+        <v>29</v>
+      </c>
+      <c r="HN7" t="n">
+        <v>45</v>
+      </c>
+      <c r="HO7" t="n">
+        <v>42</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -5592,6 +5718,24 @@
       <c r="HI8" t="n">
         <v>-60</v>
       </c>
+      <c r="HJ8" t="n">
+        <v>10</v>
+      </c>
+      <c r="HK8" t="n">
+        <v>26</v>
+      </c>
+      <c r="HL8" t="n">
+        <v>36</v>
+      </c>
+      <c r="HM8" t="n">
+        <v>50</v>
+      </c>
+      <c r="HN8" t="n">
+        <v>16</v>
+      </c>
+      <c r="HO8" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -6247,6 +6391,24 @@
       <c r="HI9" t="n">
         <v>0</v>
       </c>
+      <c r="HJ9" t="n">
+        <v>1</v>
+      </c>
+      <c r="HK9" t="n">
+        <v>1</v>
+      </c>
+      <c r="HL9" t="n">
+        <v>1</v>
+      </c>
+      <c r="HM9" t="n">
+        <v>1</v>
+      </c>
+      <c r="HN9" t="n">
+        <v>1</v>
+      </c>
+      <c r="HO9" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -6902,6 +7064,24 @@
       <c r="HI10" t="n">
         <v>7</v>
       </c>
+      <c r="HJ10" t="n">
+        <v>10</v>
+      </c>
+      <c r="HK10" t="n">
+        <v>16</v>
+      </c>
+      <c r="HL10" t="n">
+        <v>12</v>
+      </c>
+      <c r="HM10" t="n">
+        <v>5</v>
+      </c>
+      <c r="HN10" t="n">
+        <v>4</v>
+      </c>
+      <c r="HO10" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -7557,6 +7737,24 @@
       <c r="HI11" t="n">
         <v>157</v>
       </c>
+      <c r="HJ11" t="n">
+        <v>180</v>
+      </c>
+      <c r="HK11" t="n">
+        <v>163</v>
+      </c>
+      <c r="HL11" t="n">
+        <v>185</v>
+      </c>
+      <c r="HM11" t="n">
+        <v>196</v>
+      </c>
+      <c r="HN11" t="n">
+        <v>184</v>
+      </c>
+      <c r="HO11" t="n">
+        <v>165</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -8212,6 +8410,24 @@
       <c r="HI12" t="n">
         <v>95</v>
       </c>
+      <c r="HJ12" t="n">
+        <v>157</v>
+      </c>
+      <c r="HK12" t="n">
+        <v>158</v>
+      </c>
+      <c r="HL12" t="n">
+        <v>148</v>
+      </c>
+      <c r="HM12" t="n">
+        <v>144</v>
+      </c>
+      <c r="HN12" t="n">
+        <v>133</v>
+      </c>
+      <c r="HO12" t="n">
+        <v>115</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -8867,6 +9083,24 @@
       <c r="HI13" t="n">
         <v>252</v>
       </c>
+      <c r="HJ13" t="n">
+        <v>337</v>
+      </c>
+      <c r="HK13" t="n">
+        <v>321</v>
+      </c>
+      <c r="HL13" t="n">
+        <v>333</v>
+      </c>
+      <c r="HM13" t="n">
+        <v>340</v>
+      </c>
+      <c r="HN13" t="n">
+        <v>317</v>
+      </c>
+      <c r="HO13" t="n">
+        <v>280</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -9522,6 +9756,24 @@
       <c r="HI14" t="n">
         <v>1.65</v>
       </c>
+      <c r="HJ14" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="HK14" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="HL14" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="HM14" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="HN14" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="HO14" t="n">
+        <v>1.43</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -10177,6 +10429,24 @@
       <c r="HI15" t="n">
         <v>53</v>
       </c>
+      <c r="HJ15" t="n">
+        <v>69</v>
+      </c>
+      <c r="HK15" t="n">
+        <v>46</v>
+      </c>
+      <c r="HL15" t="n">
+        <v>63</v>
+      </c>
+      <c r="HM15" t="n">
+        <v>66</v>
+      </c>
+      <c r="HN15" t="n">
+        <v>83</v>
+      </c>
+      <c r="HO15" t="n">
+        <v>47</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -10832,6 +11102,24 @@
       <c r="HI16" t="n">
         <v>50</v>
       </c>
+      <c r="HJ16" t="n">
+        <v>61</v>
+      </c>
+      <c r="HK16" t="n">
+        <v>53</v>
+      </c>
+      <c r="HL16" t="n">
+        <v>63</v>
+      </c>
+      <c r="HM16" t="n">
+        <v>64</v>
+      </c>
+      <c r="HN16" t="n">
+        <v>39</v>
+      </c>
+      <c r="HO16" t="n">
+        <v>69</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -11487,6 +11775,24 @@
       <c r="HI17" t="n">
         <v>32</v>
       </c>
+      <c r="HJ17" t="n">
+        <v>26</v>
+      </c>
+      <c r="HK17" t="n">
+        <v>35</v>
+      </c>
+      <c r="HL17" t="n">
+        <v>31</v>
+      </c>
+      <c r="HM17" t="n">
+        <v>32</v>
+      </c>
+      <c r="HN17" t="n">
+        <v>27</v>
+      </c>
+      <c r="HO17" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -12142,6 +12448,24 @@
       <c r="HI18" t="n">
         <v>18</v>
       </c>
+      <c r="HJ18" t="n">
+        <v>20</v>
+      </c>
+      <c r="HK18" t="n">
+        <v>12</v>
+      </c>
+      <c r="HL18" t="n">
+        <v>16</v>
+      </c>
+      <c r="HM18" t="n">
+        <v>21</v>
+      </c>
+      <c r="HN18" t="n">
+        <v>9</v>
+      </c>
+      <c r="HO18" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -12797,6 +13121,24 @@
       <c r="HI19" t="n">
         <v>13</v>
       </c>
+      <c r="HJ19" t="n">
+        <v>8</v>
+      </c>
+      <c r="HK19" t="n">
+        <v>16</v>
+      </c>
+      <c r="HL19" t="n">
+        <v>14</v>
+      </c>
+      <c r="HM19" t="n">
+        <v>15</v>
+      </c>
+      <c r="HN19" t="n">
+        <v>15</v>
+      </c>
+      <c r="HO19" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -13452,6 +13794,24 @@
       <c r="HI20" t="n">
         <v>4</v>
       </c>
+      <c r="HJ20" t="n">
+        <v>9</v>
+      </c>
+      <c r="HK20" t="n">
+        <v>11</v>
+      </c>
+      <c r="HL20" t="n">
+        <v>11</v>
+      </c>
+      <c r="HM20" t="n">
+        <v>11</v>
+      </c>
+      <c r="HN20" t="n">
+        <v>9</v>
+      </c>
+      <c r="HO20" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -14107,6 +14467,24 @@
       <c r="HI21" t="n">
         <v>2</v>
       </c>
+      <c r="HJ21" t="n">
+        <v>5</v>
+      </c>
+      <c r="HK21" t="n">
+        <v>7</v>
+      </c>
+      <c r="HL21" t="n">
+        <v>7</v>
+      </c>
+      <c r="HM21" t="n">
+        <v>7</v>
+      </c>
+      <c r="HN21" t="n">
+        <v>6</v>
+      </c>
+      <c r="HO21" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -14762,6 +15140,24 @@
       <c r="HI22" t="n">
         <v>5</v>
       </c>
+      <c r="HJ22" t="n">
+        <v>12</v>
+      </c>
+      <c r="HK22" t="n">
+        <v>5</v>
+      </c>
+      <c r="HL22" t="n">
+        <v>11</v>
+      </c>
+      <c r="HM22" t="n">
+        <v>10</v>
+      </c>
+      <c r="HN22" t="n">
+        <v>5</v>
+      </c>
+      <c r="HO22" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -15417,6 +15813,24 @@
       <c r="HI23" t="n">
         <v>2</v>
       </c>
+      <c r="HJ23" t="n">
+        <v>2</v>
+      </c>
+      <c r="HK23" t="n">
+        <v>2</v>
+      </c>
+      <c r="HL23" t="n">
+        <v>1</v>
+      </c>
+      <c r="HM23" t="n">
+        <v>3</v>
+      </c>
+      <c r="HN23" t="n">
+        <v>2</v>
+      </c>
+      <c r="HO23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -16072,6 +16486,24 @@
       <c r="HI24" t="n">
         <v>11</v>
       </c>
+      <c r="HJ24" t="n">
+        <v>23</v>
+      </c>
+      <c r="HK24" t="n">
+        <v>18</v>
+      </c>
+      <c r="HL24" t="n">
+        <v>23</v>
+      </c>
+      <c r="HM24" t="n">
+        <v>24</v>
+      </c>
+      <c r="HN24" t="n">
+        <v>16</v>
+      </c>
+      <c r="HO24" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -16727,6 +17159,24 @@
       <c r="HI25" t="n">
         <v>36.4</v>
       </c>
+      <c r="HJ25" t="n">
+        <v>39.1</v>
+      </c>
+      <c r="HK25" t="n">
+        <v>61.1</v>
+      </c>
+      <c r="HL25" t="n">
+        <v>47.8</v>
+      </c>
+      <c r="HM25" t="n">
+        <v>45.8</v>
+      </c>
+      <c r="HN25" t="n">
+        <v>56.2</v>
+      </c>
+      <c r="HO25" t="n">
+        <v>69.2</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -17382,6 +17832,24 @@
       <c r="HI26" t="n">
         <v>63</v>
       </c>
+      <c r="HJ26" t="n">
+        <v>37.44</v>
+      </c>
+      <c r="HK26" t="n">
+        <v>29.18</v>
+      </c>
+      <c r="HL26" t="n">
+        <v>30.27</v>
+      </c>
+      <c r="HM26" t="n">
+        <v>30.91</v>
+      </c>
+      <c r="HN26" t="n">
+        <v>35.22</v>
+      </c>
+      <c r="HO26" t="n">
+        <v>31.11</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -18037,6 +18505,24 @@
       <c r="HI27" t="n">
         <v>22.91</v>
       </c>
+      <c r="HJ27" t="n">
+        <v>14.65</v>
+      </c>
+      <c r="HK27" t="n">
+        <v>17.83</v>
+      </c>
+      <c r="HL27" t="n">
+        <v>14.48</v>
+      </c>
+      <c r="HM27" t="n">
+        <v>14.17</v>
+      </c>
+      <c r="HN27" t="n">
+        <v>19.81</v>
+      </c>
+      <c r="HO27" t="n">
+        <v>21.54</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -18692,6 +19178,24 @@
       <c r="HI28" t="n">
         <v>30</v>
       </c>
+      <c r="HJ28" t="n">
+        <v>35</v>
+      </c>
+      <c r="HK28" t="n">
+        <v>46</v>
+      </c>
+      <c r="HL28" t="n">
+        <v>38</v>
+      </c>
+      <c r="HM28" t="n">
+        <v>34</v>
+      </c>
+      <c r="HN28" t="n">
+        <v>40</v>
+      </c>
+      <c r="HO28" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -19347,6 +19851,24 @@
       <c r="HI29" t="n">
         <v>38</v>
       </c>
+      <c r="HJ29" t="n">
+        <v>40</v>
+      </c>
+      <c r="HK29" t="n">
+        <v>47</v>
+      </c>
+      <c r="HL29" t="n">
+        <v>44</v>
+      </c>
+      <c r="HM29" t="n">
+        <v>55</v>
+      </c>
+      <c r="HN29" t="n">
+        <v>50</v>
+      </c>
+      <c r="HO29" t="n">
+        <v>52</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -20002,6 +20524,24 @@
       <c r="HI30" t="n">
         <v>31</v>
       </c>
+      <c r="HJ30" t="n">
+        <v>30</v>
+      </c>
+      <c r="HK30" t="n">
+        <v>32</v>
+      </c>
+      <c r="HL30" t="n">
+        <v>26</v>
+      </c>
+      <c r="HM30" t="n">
+        <v>27</v>
+      </c>
+      <c r="HN30" t="n">
+        <v>25</v>
+      </c>
+      <c r="HO30" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -20657,6 +21197,24 @@
       <c r="HI31" t="n">
         <v>37</v>
       </c>
+      <c r="HJ31" t="n">
+        <v>44</v>
+      </c>
+      <c r="HK31" t="n">
+        <v>44</v>
+      </c>
+      <c r="HL31" t="n">
+        <v>41</v>
+      </c>
+      <c r="HM31" t="n">
+        <v>45</v>
+      </c>
+      <c r="HN31" t="n">
+        <v>44</v>
+      </c>
+      <c r="HO31" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -21312,6 +21870,24 @@
       <c r="HI32" t="n">
         <v>3.36</v>
       </c>
+      <c r="HJ32" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="HK32" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="HL32" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="HM32" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="HN32" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="HO32" t="n">
+        <v>3.08</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -21967,6 +22543,24 @@
       <c r="HI33" t="n">
         <v>9.25</v>
       </c>
+      <c r="HJ33" t="n">
+        <v>4.89</v>
+      </c>
+      <c r="HK33" t="n">
+        <v>4</v>
+      </c>
+      <c r="HL33" t="n">
+        <v>3.73</v>
+      </c>
+      <c r="HM33" t="n">
+        <v>4.09</v>
+      </c>
+      <c r="HN33" t="n">
+        <v>4.89</v>
+      </c>
+      <c r="HO33" t="n">
+        <v>4.44</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -22622,6 +23216,24 @@
       <c r="HI34" t="n">
         <v>24.3</v>
       </c>
+      <c r="HJ34" t="n">
+        <v>47.7</v>
+      </c>
+      <c r="HK34" t="n">
+        <v>36.4</v>
+      </c>
+      <c r="HL34" t="n">
+        <v>53.7</v>
+      </c>
+      <c r="HM34" t="n">
+        <v>46.7</v>
+      </c>
+      <c r="HN34" t="n">
+        <v>31.8</v>
+      </c>
+      <c r="HO34" t="n">
+        <v>32.5</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -23277,6 +23889,24 @@
       <c r="HI35" t="n">
         <v>10.8</v>
       </c>
+      <c r="HJ35" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="HK35" t="n">
+        <v>25</v>
+      </c>
+      <c r="HL35" t="n">
+        <v>26.8</v>
+      </c>
+      <c r="HM35" t="n">
+        <v>24.4</v>
+      </c>
+      <c r="HN35" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="HO35" t="n">
+        <v>22.5</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -23932,6 +24562,24 @@
       <c r="HI36" t="n">
         <v>187.5</v>
       </c>
+      <c r="HJ36" t="n">
+        <v>188.2</v>
+      </c>
+      <c r="HK36" t="n">
+        <v>188.7</v>
+      </c>
+      <c r="HL36" t="n">
+        <v>187.5</v>
+      </c>
+      <c r="HM36" t="n">
+        <v>188.5</v>
+      </c>
+      <c r="HN36" t="n">
+        <v>188.5</v>
+      </c>
+      <c r="HO36" t="n">
+        <v>188.5</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -24587,6 +25235,24 @@
       <c r="HI37" t="n">
         <v>83.5</v>
       </c>
+      <c r="HJ37" t="n">
+        <v>85</v>
+      </c>
+      <c r="HK37" t="n">
+        <v>85.5</v>
+      </c>
+      <c r="HL37" t="n">
+        <v>83.7</v>
+      </c>
+      <c r="HM37" t="n">
+        <v>84.7</v>
+      </c>
+      <c r="HN37" t="n">
+        <v>84.8</v>
+      </c>
+      <c r="HO37" t="n">
+        <v>84.8</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -25242,6 +25908,24 @@
       <c r="HI38" t="n">
         <v>25.8</v>
       </c>
+      <c r="HJ38" t="n">
+        <v>27</v>
+      </c>
+      <c r="HK38" t="n">
+        <v>26.74</v>
+      </c>
+      <c r="HL38" t="n">
+        <v>26.16</v>
+      </c>
+      <c r="HM38" t="n">
+        <v>26.33</v>
+      </c>
+      <c r="HN38" t="n">
+        <v>26.33</v>
+      </c>
+      <c r="HO38" t="n">
+        <v>26.33</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -25897,6 +26581,24 @@
       <c r="HI39" t="n">
         <v>106.2</v>
       </c>
+      <c r="HJ39" t="n">
+        <v>128.2</v>
+      </c>
+      <c r="HK39" t="n">
+        <v>127</v>
+      </c>
+      <c r="HL39" t="n">
+        <v>113.8</v>
+      </c>
+      <c r="HM39" t="n">
+        <v>119.4</v>
+      </c>
+      <c r="HN39" t="n">
+        <v>115.9</v>
+      </c>
+      <c r="HO39" t="n">
+        <v>122.6</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -26552,6 +27254,24 @@
       <c r="HI40" t="n">
         <v>6</v>
       </c>
+      <c r="HJ40" t="n">
+        <v>5</v>
+      </c>
+      <c r="HK40" t="n">
+        <v>5</v>
+      </c>
+      <c r="HL40" t="n">
+        <v>5</v>
+      </c>
+      <c r="HM40" t="n">
+        <v>5</v>
+      </c>
+      <c r="HN40" t="n">
+        <v>6</v>
+      </c>
+      <c r="HO40" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -27207,6 +27927,24 @@
       <c r="HI41" t="n">
         <v>5</v>
       </c>
+      <c r="HJ41" t="n">
+        <v>4</v>
+      </c>
+      <c r="HK41" t="n">
+        <v>4</v>
+      </c>
+      <c r="HL41" t="n">
+        <v>5</v>
+      </c>
+      <c r="HM41" t="n">
+        <v>5</v>
+      </c>
+      <c r="HN41" t="n">
+        <v>4</v>
+      </c>
+      <c r="HO41" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -27862,6 +28600,24 @@
       <c r="HI42" t="n">
         <v>4</v>
       </c>
+      <c r="HJ42" t="n">
+        <v>4</v>
+      </c>
+      <c r="HK42" t="n">
+        <v>5</v>
+      </c>
+      <c r="HL42" t="n">
+        <v>5</v>
+      </c>
+      <c r="HM42" t="n">
+        <v>3</v>
+      </c>
+      <c r="HN42" t="n">
+        <v>3</v>
+      </c>
+      <c r="HO42" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -28517,6 +29273,24 @@
       <c r="HI43" t="n">
         <v>7</v>
       </c>
+      <c r="HJ43" t="n">
+        <v>9</v>
+      </c>
+      <c r="HK43" t="n">
+        <v>8</v>
+      </c>
+      <c r="HL43" t="n">
+        <v>7</v>
+      </c>
+      <c r="HM43" t="n">
+        <v>9</v>
+      </c>
+      <c r="HN43" t="n">
+        <v>9</v>
+      </c>
+      <c r="HO43" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -29172,6 +29946,24 @@
       <c r="HI44" t="n">
         <v>105</v>
       </c>
+      <c r="HJ44" t="n">
+        <v>129</v>
+      </c>
+      <c r="HK44" t="n">
+        <v>140</v>
+      </c>
+      <c r="HL44" t="n">
+        <v>119</v>
+      </c>
+      <c r="HM44" t="n">
+        <v>126</v>
+      </c>
+      <c r="HN44" t="n">
+        <v>117</v>
+      </c>
+      <c r="HO44" t="n">
+        <v>123</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -29827,6 +30619,24 @@
       <c r="HI45" t="n">
         <v>140</v>
       </c>
+      <c r="HJ45" t="n">
+        <v>207</v>
+      </c>
+      <c r="HK45" t="n">
+        <v>186</v>
+      </c>
+      <c r="HL45" t="n">
+        <v>209</v>
+      </c>
+      <c r="HM45" t="n">
+        <v>196</v>
+      </c>
+      <c r="HN45" t="n">
+        <v>200</v>
+      </c>
+      <c r="HO45" t="n">
+        <v>152</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -30482,6 +31292,24 @@
       <c r="HI46" t="n">
         <v>172</v>
       </c>
+      <c r="HJ46" t="n">
+        <v>246</v>
+      </c>
+      <c r="HK46" t="n">
+        <v>229</v>
+      </c>
+      <c r="HL46" t="n">
+        <v>244</v>
+      </c>
+      <c r="HM46" t="n">
+        <v>236</v>
+      </c>
+      <c r="HN46" t="n">
+        <v>223</v>
+      </c>
+      <c r="HO46" t="n">
+        <v>193</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -31137,6 +31965,24 @@
       <c r="HI47" t="n">
         <v>68.3</v>
       </c>
+      <c r="HJ47" t="n">
+        <v>73</v>
+      </c>
+      <c r="HK47" t="n">
+        <v>71.3</v>
+      </c>
+      <c r="HL47" t="n">
+        <v>73.3</v>
+      </c>
+      <c r="HM47" t="n">
+        <v>69.40000000000001</v>
+      </c>
+      <c r="HN47" t="n">
+        <v>70.3</v>
+      </c>
+      <c r="HO47" t="n">
+        <v>68.90000000000001</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -31792,6 +32638,24 @@
       <c r="HI48" t="n">
         <v>38</v>
       </c>
+      <c r="HJ48" t="n">
+        <v>40</v>
+      </c>
+      <c r="HK48" t="n">
+        <v>47</v>
+      </c>
+      <c r="HL48" t="n">
+        <v>44</v>
+      </c>
+      <c r="HM48" t="n">
+        <v>55</v>
+      </c>
+      <c r="HN48" t="n">
+        <v>50</v>
+      </c>
+      <c r="HO48" t="n">
+        <v>52</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -32447,6 +33311,24 @@
       <c r="HI49" t="n">
         <v>4</v>
       </c>
+      <c r="HJ49" t="n">
+        <v>9</v>
+      </c>
+      <c r="HK49" t="n">
+        <v>7</v>
+      </c>
+      <c r="HL49" t="n">
+        <v>4</v>
+      </c>
+      <c r="HM49" t="n">
+        <v>6</v>
+      </c>
+      <c r="HN49" t="n">
+        <v>4</v>
+      </c>
+      <c r="HO49" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -33102,6 +33984,24 @@
       <c r="HI50" t="n">
         <v>2</v>
       </c>
+      <c r="HJ50" t="n">
+        <v>4</v>
+      </c>
+      <c r="HK50" t="n">
+        <v>6</v>
+      </c>
+      <c r="HL50" t="n">
+        <v>11</v>
+      </c>
+      <c r="HM50" t="n">
+        <v>12</v>
+      </c>
+      <c r="HN50" t="n">
+        <v>7</v>
+      </c>
+      <c r="HO50" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -33757,6 +34657,24 @@
       <c r="HI51" t="n">
         <v>30</v>
       </c>
+      <c r="HJ51" t="n">
+        <v>35</v>
+      </c>
+      <c r="HK51" t="n">
+        <v>46</v>
+      </c>
+      <c r="HL51" t="n">
+        <v>38</v>
+      </c>
+      <c r="HM51" t="n">
+        <v>34</v>
+      </c>
+      <c r="HN51" t="n">
+        <v>40</v>
+      </c>
+      <c r="HO51" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -34412,6 +35330,24 @@
       <c r="HI52" t="n">
         <v>31</v>
       </c>
+      <c r="HJ52" t="n">
+        <v>30</v>
+      </c>
+      <c r="HK52" t="n">
+        <v>32</v>
+      </c>
+      <c r="HL52" t="n">
+        <v>26</v>
+      </c>
+      <c r="HM52" t="n">
+        <v>27</v>
+      </c>
+      <c r="HN52" t="n">
+        <v>25</v>
+      </c>
+      <c r="HO52" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -35067,6 +36003,24 @@
       <c r="HI53" t="n">
         <v>31</v>
       </c>
+      <c r="HJ53" t="n">
+        <v>48</v>
+      </c>
+      <c r="HK53" t="n">
+        <v>34</v>
+      </c>
+      <c r="HL53" t="n">
+        <v>55</v>
+      </c>
+      <c r="HM53" t="n">
+        <v>50</v>
+      </c>
+      <c r="HN53" t="n">
+        <v>40</v>
+      </c>
+      <c r="HO53" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -35722,6 +36676,24 @@
       <c r="HI54" t="n">
         <v>0</v>
       </c>
+      <c r="HJ54" t="n">
+        <v>3</v>
+      </c>
+      <c r="HK54" t="n">
+        <v>5</v>
+      </c>
+      <c r="HL54" t="n">
+        <v>0</v>
+      </c>
+      <c r="HM54" t="n">
+        <v>2</v>
+      </c>
+      <c r="HN54" t="n">
+        <v>2</v>
+      </c>
+      <c r="HO54" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -36377,6 +37349,24 @@
       <c r="HI55" t="n">
         <v>2</v>
       </c>
+      <c r="HJ55" t="n">
+        <v>5</v>
+      </c>
+      <c r="HK55" t="n">
+        <v>7</v>
+      </c>
+      <c r="HL55" t="n">
+        <v>7</v>
+      </c>
+      <c r="HM55" t="n">
+        <v>7</v>
+      </c>
+      <c r="HN55" t="n">
+        <v>6</v>
+      </c>
+      <c r="HO55" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -37032,6 +38022,24 @@
       <c r="HI56" t="n">
         <v>50</v>
       </c>
+      <c r="HJ56" t="n">
+        <v>55.6</v>
+      </c>
+      <c r="HK56" t="n">
+        <v>63.6</v>
+      </c>
+      <c r="HL56" t="n">
+        <v>63.6</v>
+      </c>
+      <c r="HM56" t="n">
+        <v>63.6</v>
+      </c>
+      <c r="HN56" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="HO56" t="n">
+        <v>66.7</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -37687,6 +38695,24 @@
       <c r="HI57" t="n">
         <v>210</v>
       </c>
+      <c r="HJ57" t="n">
+        <v>157</v>
+      </c>
+      <c r="HK57" t="n">
+        <v>177</v>
+      </c>
+      <c r="HL57" t="n">
+        <v>152</v>
+      </c>
+      <c r="HM57" t="n">
+        <v>167</v>
+      </c>
+      <c r="HN57" t="n">
+        <v>161</v>
+      </c>
+      <c r="HO57" t="n">
+        <v>173</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -38342,6 +39368,24 @@
       <c r="HI58" t="n">
         <v>121</v>
       </c>
+      <c r="HJ58" t="n">
+        <v>117</v>
+      </c>
+      <c r="HK58" t="n">
+        <v>137</v>
+      </c>
+      <c r="HL58" t="n">
+        <v>122</v>
+      </c>
+      <c r="HM58" t="n">
+        <v>116</v>
+      </c>
+      <c r="HN58" t="n">
+        <v>150</v>
+      </c>
+      <c r="HO58" t="n">
+        <v>115</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -38997,6 +40041,24 @@
       <c r="HI59" t="n">
         <v>331</v>
       </c>
+      <c r="HJ59" t="n">
+        <v>274</v>
+      </c>
+      <c r="HK59" t="n">
+        <v>314</v>
+      </c>
+      <c r="HL59" t="n">
+        <v>274</v>
+      </c>
+      <c r="HM59" t="n">
+        <v>283</v>
+      </c>
+      <c r="HN59" t="n">
+        <v>311</v>
+      </c>
+      <c r="HO59" t="n">
+        <v>288</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -39652,6 +40714,24 @@
       <c r="HI60" t="n">
         <v>1.74</v>
       </c>
+      <c r="HJ60" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="HK60" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="HL60" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="HM60" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="HN60" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="HO60" t="n">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -40307,6 +41387,24 @@
       <c r="HI61" t="n">
         <v>108</v>
       </c>
+      <c r="HJ61" t="n">
+        <v>54</v>
+      </c>
+      <c r="HK61" t="n">
+        <v>71</v>
+      </c>
+      <c r="HL61" t="n">
+        <v>65</v>
+      </c>
+      <c r="HM61" t="n">
+        <v>44</v>
+      </c>
+      <c r="HN61" t="n">
+        <v>62</v>
+      </c>
+      <c r="HO61" t="n">
+        <v>73</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -40962,6 +42060,24 @@
       <c r="HI62" t="n">
         <v>49</v>
       </c>
+      <c r="HJ62" t="n">
+        <v>57</v>
+      </c>
+      <c r="HK62" t="n">
+        <v>68</v>
+      </c>
+      <c r="HL62" t="n">
+        <v>49</v>
+      </c>
+      <c r="HM62" t="n">
+        <v>52</v>
+      </c>
+      <c r="HN62" t="n">
+        <v>50</v>
+      </c>
+      <c r="HO62" t="n">
+        <v>51</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -41617,6 +42733,24 @@
       <c r="HI63" t="n">
         <v>20</v>
       </c>
+      <c r="HJ63" t="n">
+        <v>39</v>
+      </c>
+      <c r="HK63" t="n">
+        <v>39</v>
+      </c>
+      <c r="HL63" t="n">
+        <v>24</v>
+      </c>
+      <c r="HM63" t="n">
+        <v>36</v>
+      </c>
+      <c r="HN63" t="n">
+        <v>42</v>
+      </c>
+      <c r="HO63" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -42272,6 +43406,24 @@
       <c r="HI64" t="n">
         <v>13</v>
       </c>
+      <c r="HJ64" t="n">
+        <v>8</v>
+      </c>
+      <c r="HK64" t="n">
+        <v>16</v>
+      </c>
+      <c r="HL64" t="n">
+        <v>14</v>
+      </c>
+      <c r="HM64" t="n">
+        <v>15</v>
+      </c>
+      <c r="HN64" t="n">
+        <v>15</v>
+      </c>
+      <c r="HO64" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -42927,6 +44079,24 @@
       <c r="HI65" t="n">
         <v>18</v>
       </c>
+      <c r="HJ65" t="n">
+        <v>20</v>
+      </c>
+      <c r="HK65" t="n">
+        <v>12</v>
+      </c>
+      <c r="HL65" t="n">
+        <v>16</v>
+      </c>
+      <c r="HM65" t="n">
+        <v>21</v>
+      </c>
+      <c r="HN65" t="n">
+        <v>9</v>
+      </c>
+      <c r="HO65" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -43582,6 +44752,24 @@
       <c r="HI66" t="n">
         <v>14</v>
       </c>
+      <c r="HJ66" t="n">
+        <v>9</v>
+      </c>
+      <c r="HK66" t="n">
+        <v>7</v>
+      </c>
+      <c r="HL66" t="n">
+        <v>6</v>
+      </c>
+      <c r="HM66" t="n">
+        <v>4</v>
+      </c>
+      <c r="HN66" t="n">
+        <v>7</v>
+      </c>
+      <c r="HO66" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -44237,6 +45425,24 @@
       <c r="HI67" t="n">
         <v>12</v>
       </c>
+      <c r="HJ67" t="n">
+        <v>5</v>
+      </c>
+      <c r="HK67" t="n">
+        <v>4</v>
+      </c>
+      <c r="HL67" t="n">
+        <v>5</v>
+      </c>
+      <c r="HM67" t="n">
+        <v>3</v>
+      </c>
+      <c r="HN67" t="n">
+        <v>7</v>
+      </c>
+      <c r="HO67" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -44892,6 +46098,24 @@
       <c r="HI68" t="n">
         <v>6</v>
       </c>
+      <c r="HJ68" t="n">
+        <v>3</v>
+      </c>
+      <c r="HK68" t="n">
+        <v>5</v>
+      </c>
+      <c r="HL68" t="n">
+        <v>4</v>
+      </c>
+      <c r="HM68" t="n">
+        <v>4</v>
+      </c>
+      <c r="HN68" t="n">
+        <v>1</v>
+      </c>
+      <c r="HO68" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -45547,6 +46771,24 @@
       <c r="HI69" t="n">
         <v>1</v>
       </c>
+      <c r="HJ69" t="n">
+        <v>1</v>
+      </c>
+      <c r="HK69" t="n">
+        <v>0</v>
+      </c>
+      <c r="HL69" t="n">
+        <v>2</v>
+      </c>
+      <c r="HM69" t="n">
+        <v>1</v>
+      </c>
+      <c r="HN69" t="n">
+        <v>2</v>
+      </c>
+      <c r="HO69" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -46202,6 +47444,24 @@
       <c r="HI70" t="n">
         <v>21</v>
       </c>
+      <c r="HJ70" t="n">
+        <v>13</v>
+      </c>
+      <c r="HK70" t="n">
+        <v>12</v>
+      </c>
+      <c r="HL70" t="n">
+        <v>12</v>
+      </c>
+      <c r="HM70" t="n">
+        <v>9</v>
+      </c>
+      <c r="HN70" t="n">
+        <v>10</v>
+      </c>
+      <c r="HO70" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -46857,6 +48117,24 @@
       <c r="HI71" t="n">
         <v>66.7</v>
       </c>
+      <c r="HJ71" t="n">
+        <v>69.2</v>
+      </c>
+      <c r="HK71" t="n">
+        <v>58.3</v>
+      </c>
+      <c r="HL71" t="n">
+        <v>50</v>
+      </c>
+      <c r="HM71" t="n">
+        <v>44.4</v>
+      </c>
+      <c r="HN71" t="n">
+        <v>70</v>
+      </c>
+      <c r="HO71" t="n">
+        <v>29.4</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -47512,6 +48790,24 @@
       <c r="HI72" t="n">
         <v>23.64</v>
       </c>
+      <c r="HJ72" t="n">
+        <v>30.44</v>
+      </c>
+      <c r="HK72" t="n">
+        <v>44.86</v>
+      </c>
+      <c r="HL72" t="n">
+        <v>45.67</v>
+      </c>
+      <c r="HM72" t="n">
+        <v>70.75</v>
+      </c>
+      <c r="HN72" t="n">
+        <v>44.43</v>
+      </c>
+      <c r="HO72" t="n">
+        <v>57.6</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -48167,6 +49463,24 @@
       <c r="HI73" t="n">
         <v>15.76</v>
       </c>
+      <c r="HJ73" t="n">
+        <v>21.08</v>
+      </c>
+      <c r="HK73" t="n">
+        <v>26.17</v>
+      </c>
+      <c r="HL73" t="n">
+        <v>22.83</v>
+      </c>
+      <c r="HM73" t="n">
+        <v>31.44</v>
+      </c>
+      <c r="HN73" t="n">
+        <v>31.1</v>
+      </c>
+      <c r="HO73" t="n">
+        <v>16.94</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -48822,6 +50136,24 @@
       <c r="HI74" t="n">
         <v>31</v>
       </c>
+      <c r="HJ74" t="n">
+        <v>25</v>
+      </c>
+      <c r="HK74" t="n">
+        <v>26</v>
+      </c>
+      <c r="HL74" t="n">
+        <v>23</v>
+      </c>
+      <c r="HM74" t="n">
+        <v>32</v>
+      </c>
+      <c r="HN74" t="n">
+        <v>28</v>
+      </c>
+      <c r="HO74" t="n">
+        <v>31</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -49477,6 +50809,24 @@
       <c r="HI75" t="n">
         <v>49</v>
       </c>
+      <c r="HJ75" t="n">
+        <v>54</v>
+      </c>
+      <c r="HK75" t="n">
+        <v>44</v>
+      </c>
+      <c r="HL75" t="n">
+        <v>50</v>
+      </c>
+      <c r="HM75" t="n">
+        <v>51</v>
+      </c>
+      <c r="HN75" t="n">
+        <v>54</v>
+      </c>
+      <c r="HO75" t="n">
+        <v>42</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -50132,6 +51482,24 @@
       <c r="HI76" t="n">
         <v>33</v>
       </c>
+      <c r="HJ76" t="n">
+        <v>34</v>
+      </c>
+      <c r="HK76" t="n">
+        <v>33</v>
+      </c>
+      <c r="HL76" t="n">
+        <v>30</v>
+      </c>
+      <c r="HM76" t="n">
+        <v>34</v>
+      </c>
+      <c r="HN76" t="n">
+        <v>34</v>
+      </c>
+      <c r="HO76" t="n">
+        <v>31</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -50787,6 +52155,24 @@
       <c r="HI77" t="n">
         <v>47</v>
       </c>
+      <c r="HJ77" t="n">
+        <v>39</v>
+      </c>
+      <c r="HK77" t="n">
+        <v>40</v>
+      </c>
+      <c r="HL77" t="n">
+        <v>35</v>
+      </c>
+      <c r="HM77" t="n">
+        <v>32</v>
+      </c>
+      <c r="HN77" t="n">
+        <v>35</v>
+      </c>
+      <c r="HO77" t="n">
+        <v>41</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -51442,6 +52828,24 @@
       <c r="HI78" t="n">
         <v>2.24</v>
       </c>
+      <c r="HJ78" t="n">
+        <v>3</v>
+      </c>
+      <c r="HK78" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="HL78" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="HM78" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="HN78" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="HO78" t="n">
+        <v>2.41</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -52097,6 +53501,24 @@
       <c r="HI79" t="n">
         <v>3.36</v>
       </c>
+      <c r="HJ79" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="HK79" t="n">
+        <v>5.71</v>
+      </c>
+      <c r="HL79" t="n">
+        <v>5.83</v>
+      </c>
+      <c r="HM79" t="n">
+        <v>8</v>
+      </c>
+      <c r="HN79" t="n">
+        <v>5</v>
+      </c>
+      <c r="HO79" t="n">
+        <v>8.199999999999999</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -52752,6 +54174,24 @@
       <c r="HI80" t="n">
         <v>42.6</v>
       </c>
+      <c r="HJ80" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="HK80" t="n">
+        <v>30</v>
+      </c>
+      <c r="HL80" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="HM80" t="n">
+        <v>25</v>
+      </c>
+      <c r="HN80" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="HO80" t="n">
+        <v>36.6</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -53407,6 +54847,24 @@
       <c r="HI81" t="n">
         <v>29.8</v>
       </c>
+      <c r="HJ81" t="n">
+        <v>23.1</v>
+      </c>
+      <c r="HK81" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="HL81" t="n">
+        <v>17.1</v>
+      </c>
+      <c r="HM81" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="HN81" t="n">
+        <v>20</v>
+      </c>
+      <c r="HO81" t="n">
+        <v>12.2</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -54062,6 +55520,24 @@
       <c r="HI82" t="n">
         <v>188.5</v>
       </c>
+      <c r="HJ82" t="n">
+        <v>187.5</v>
+      </c>
+      <c r="HK82" t="n">
+        <v>188.1</v>
+      </c>
+      <c r="HL82" t="n">
+        <v>189.3</v>
+      </c>
+      <c r="HM82" t="n">
+        <v>187.7</v>
+      </c>
+      <c r="HN82" t="n">
+        <v>188.1</v>
+      </c>
+      <c r="HO82" t="n">
+        <v>188.6</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -54717,6 +56193,24 @@
       <c r="HI83" t="n">
         <v>89.2</v>
       </c>
+      <c r="HJ83" t="n">
+        <v>86</v>
+      </c>
+      <c r="HK83" t="n">
+        <v>85</v>
+      </c>
+      <c r="HL83" t="n">
+        <v>87.09999999999999</v>
+      </c>
+      <c r="HM83" t="n">
+        <v>86.40000000000001</v>
+      </c>
+      <c r="HN83" t="n">
+        <v>87.90000000000001</v>
+      </c>
+      <c r="HO83" t="n">
+        <v>89.90000000000001</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -55372,6 +56866,24 @@
       <c r="HI84" t="n">
         <v>27.33</v>
       </c>
+      <c r="HJ84" t="n">
+        <v>26.16</v>
+      </c>
+      <c r="HK84" t="n">
+        <v>24.49</v>
+      </c>
+      <c r="HL84" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="HM84" t="n">
+        <v>24.8</v>
+      </c>
+      <c r="HN84" t="n">
+        <v>26.58</v>
+      </c>
+      <c r="HO84" t="n">
+        <v>28.41</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -56027,6 +57539,24 @@
       <c r="HI85" t="n">
         <v>132.8</v>
       </c>
+      <c r="HJ85" t="n">
+        <v>110.1</v>
+      </c>
+      <c r="HK85" t="n">
+        <v>78.5</v>
+      </c>
+      <c r="HL85" t="n">
+        <v>97.5</v>
+      </c>
+      <c r="HM85" t="n">
+        <v>71.09999999999999</v>
+      </c>
+      <c r="HN85" t="n">
+        <v>110</v>
+      </c>
+      <c r="HO85" t="n">
+        <v>161</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -56682,6 +58212,24 @@
       <c r="HI86" t="n">
         <v>5</v>
       </c>
+      <c r="HJ86" t="n">
+        <v>8</v>
+      </c>
+      <c r="HK86" t="n">
+        <v>9</v>
+      </c>
+      <c r="HL86" t="n">
+        <v>8</v>
+      </c>
+      <c r="HM86" t="n">
+        <v>9</v>
+      </c>
+      <c r="HN86" t="n">
+        <v>5</v>
+      </c>
+      <c r="HO86" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -57337,6 +58885,24 @@
       <c r="HI87" t="n">
         <v>5</v>
       </c>
+      <c r="HJ87" t="n">
+        <v>4</v>
+      </c>
+      <c r="HK87" t="n">
+        <v>7</v>
+      </c>
+      <c r="HL87" t="n">
+        <v>4</v>
+      </c>
+      <c r="HM87" t="n">
+        <v>6</v>
+      </c>
+      <c r="HN87" t="n">
+        <v>5</v>
+      </c>
+      <c r="HO87" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -57992,6 +59558,24 @@
       <c r="HI88" t="n">
         <v>3</v>
       </c>
+      <c r="HJ88" t="n">
+        <v>3</v>
+      </c>
+      <c r="HK88" t="n">
+        <v>3</v>
+      </c>
+      <c r="HL88" t="n">
+        <v>5</v>
+      </c>
+      <c r="HM88" t="n">
+        <v>5</v>
+      </c>
+      <c r="HN88" t="n">
+        <v>6</v>
+      </c>
+      <c r="HO88" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -58647,6 +60231,24 @@
       <c r="HI89" t="n">
         <v>9</v>
       </c>
+      <c r="HJ89" t="n">
+        <v>7</v>
+      </c>
+      <c r="HK89" t="n">
+        <v>3</v>
+      </c>
+      <c r="HL89" t="n">
+        <v>5</v>
+      </c>
+      <c r="HM89" t="n">
+        <v>2</v>
+      </c>
+      <c r="HN89" t="n">
+        <v>6</v>
+      </c>
+      <c r="HO89" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -59302,6 +60904,24 @@
       <c r="HI90" t="n">
         <v>128</v>
       </c>
+      <c r="HJ90" t="n">
+        <v>111</v>
+      </c>
+      <c r="HK90" t="n">
+        <v>117</v>
+      </c>
+      <c r="HL90" t="n">
+        <v>109</v>
+      </c>
+      <c r="HM90" t="n">
+        <v>120</v>
+      </c>
+      <c r="HN90" t="n">
+        <v>120</v>
+      </c>
+      <c r="HO90" t="n">
+        <v>127</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -59957,6 +61577,24 @@
       <c r="HI91" t="n">
         <v>208</v>
       </c>
+      <c r="HJ91" t="n">
+        <v>153</v>
+      </c>
+      <c r="HK91" t="n">
+        <v>194</v>
+      </c>
+      <c r="HL91" t="n">
+        <v>164</v>
+      </c>
+      <c r="HM91" t="n">
+        <v>143</v>
+      </c>
+      <c r="HN91" t="n">
+        <v>194</v>
+      </c>
+      <c r="HO91" t="n">
+        <v>158</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -60612,6 +62250,24 @@
       <c r="HI92" t="n">
         <v>250</v>
       </c>
+      <c r="HJ92" t="n">
+        <v>189</v>
+      </c>
+      <c r="HK92" t="n">
+        <v>224</v>
+      </c>
+      <c r="HL92" t="n">
+        <v>194</v>
+      </c>
+      <c r="HM92" t="n">
+        <v>189</v>
+      </c>
+      <c r="HN92" t="n">
+        <v>224</v>
+      </c>
+      <c r="HO92" t="n">
+        <v>198</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -61267,6 +62923,24 @@
       <c r="HI93" t="n">
         <v>75.5</v>
       </c>
+      <c r="HJ93" t="n">
+        <v>69</v>
+      </c>
+      <c r="HK93" t="n">
+        <v>71.3</v>
+      </c>
+      <c r="HL93" t="n">
+        <v>70.8</v>
+      </c>
+      <c r="HM93" t="n">
+        <v>66.8</v>
+      </c>
+      <c r="HN93" t="n">
+        <v>72</v>
+      </c>
+      <c r="HO93" t="n">
+        <v>68.8</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -61922,6 +63596,24 @@
       <c r="HI94" t="n">
         <v>49</v>
       </c>
+      <c r="HJ94" t="n">
+        <v>54</v>
+      </c>
+      <c r="HK94" t="n">
+        <v>44</v>
+      </c>
+      <c r="HL94" t="n">
+        <v>50</v>
+      </c>
+      <c r="HM94" t="n">
+        <v>51</v>
+      </c>
+      <c r="HN94" t="n">
+        <v>54</v>
+      </c>
+      <c r="HO94" t="n">
+        <v>42</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -62577,6 +64269,24 @@
       <c r="HI95" t="n">
         <v>17</v>
       </c>
+      <c r="HJ95" t="n">
+        <v>9</v>
+      </c>
+      <c r="HK95" t="n">
+        <v>10</v>
+      </c>
+      <c r="HL95" t="n">
+        <v>6</v>
+      </c>
+      <c r="HM95" t="n">
+        <v>9</v>
+      </c>
+      <c r="HN95" t="n">
+        <v>11</v>
+      </c>
+      <c r="HO95" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -63232,6 +64942,24 @@
       <c r="HI96" t="n">
         <v>18</v>
       </c>
+      <c r="HJ96" t="n">
+        <v>7</v>
+      </c>
+      <c r="HK96" t="n">
+        <v>5</v>
+      </c>
+      <c r="HL96" t="n">
+        <v>10</v>
+      </c>
+      <c r="HM96" t="n">
+        <v>3</v>
+      </c>
+      <c r="HN96" t="n">
+        <v>4</v>
+      </c>
+      <c r="HO96" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -63887,6 +65615,24 @@
       <c r="HI97" t="n">
         <v>31</v>
       </c>
+      <c r="HJ97" t="n">
+        <v>25</v>
+      </c>
+      <c r="HK97" t="n">
+        <v>26</v>
+      </c>
+      <c r="HL97" t="n">
+        <v>23</v>
+      </c>
+      <c r="HM97" t="n">
+        <v>32</v>
+      </c>
+      <c r="HN97" t="n">
+        <v>28</v>
+      </c>
+      <c r="HO97" t="n">
+        <v>31</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -64542,6 +66288,24 @@
       <c r="HI98" t="n">
         <v>33</v>
       </c>
+      <c r="HJ98" t="n">
+        <v>34</v>
+      </c>
+      <c r="HK98" t="n">
+        <v>33</v>
+      </c>
+      <c r="HL98" t="n">
+        <v>30</v>
+      </c>
+      <c r="HM98" t="n">
+        <v>34</v>
+      </c>
+      <c r="HN98" t="n">
+        <v>34</v>
+      </c>
+      <c r="HO98" t="n">
+        <v>31</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -65197,6 +66961,24 @@
       <c r="HI99" t="n">
         <v>53</v>
       </c>
+      <c r="HJ99" t="n">
+        <v>48</v>
+      </c>
+      <c r="HK99" t="n">
+        <v>45</v>
+      </c>
+      <c r="HL99" t="n">
+        <v>43</v>
+      </c>
+      <c r="HM99" t="n">
+        <v>42</v>
+      </c>
+      <c r="HN99" t="n">
+        <v>59</v>
+      </c>
+      <c r="HO99" t="n">
+        <v>43</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -65852,6 +67634,24 @@
       <c r="HI100" t="n">
         <v>2</v>
       </c>
+      <c r="HJ100" t="n">
+        <v>2</v>
+      </c>
+      <c r="HK100" t="n">
+        <v>5</v>
+      </c>
+      <c r="HL100" t="n">
+        <v>1</v>
+      </c>
+      <c r="HM100" t="n">
+        <v>0</v>
+      </c>
+      <c r="HN100" t="n">
+        <v>1</v>
+      </c>
+      <c r="HO100" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -66507,6 +68307,24 @@
       <c r="HI101" t="n">
         <v>12</v>
       </c>
+      <c r="HJ101" t="n">
+        <v>5</v>
+      </c>
+      <c r="HK101" t="n">
+        <v>4</v>
+      </c>
+      <c r="HL101" t="n">
+        <v>5</v>
+      </c>
+      <c r="HM101" t="n">
+        <v>3</v>
+      </c>
+      <c r="HN101" t="n">
+        <v>7</v>
+      </c>
+      <c r="HO101" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -67162,8 +68980,26 @@
       <c r="HI102" t="n">
         <v>85.7</v>
       </c>
+      <c r="HJ102" t="n">
+        <v>55.6</v>
+      </c>
+      <c r="HK102" t="n">
+        <v>57.1</v>
+      </c>
+      <c r="HL102" t="n">
+        <v>83.3</v>
+      </c>
+      <c r="HM102" t="n">
+        <v>75</v>
+      </c>
+      <c r="HN102" t="n">
+        <v>100</v>
+      </c>
+      <c r="HO102" t="n">
+        <v>80</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/Port Adelaide_stats.xlsx
+++ b/Port Adelaide_stats.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
@@ -44,15 +44,15 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:HO102"/>
+  <dimension ref="A1:HP102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1025,6 +1025,9 @@
       <c r="HO1" t="n">
         <v>10318</v>
       </c>
+      <c r="HP1" t="n">
+        <v>10324</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1698,6 +1701,9 @@
       <c r="HO2" t="n">
         <v>2020</v>
       </c>
+      <c r="HP2" t="n">
+        <v>2020</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2371,6 +2377,9 @@
       <c r="HO3" t="n">
         <v>25</v>
       </c>
+      <c r="HP3" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -3044,6 +3053,9 @@
       <c r="HO4" t="n">
         <v>0</v>
       </c>
+      <c r="HP4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -3717,6 +3729,9 @@
       <c r="HO5" t="n">
         <v>0</v>
       </c>
+      <c r="HP5" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -4390,6 +4405,9 @@
       <c r="HO6" t="n">
         <v>58</v>
       </c>
+      <c r="HP6" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -5063,6 +5081,9 @@
       <c r="HO7" t="n">
         <v>42</v>
       </c>
+      <c r="HP7" t="n">
+        <v>46</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -5736,6 +5757,9 @@
       <c r="HO8" t="n">
         <v>16</v>
       </c>
+      <c r="HP8" t="n">
+        <v>-6</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -6409,6 +6433,9 @@
       <c r="HO9" t="n">
         <v>1</v>
       </c>
+      <c r="HP9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -7082,6 +7109,9 @@
       <c r="HO10" t="n">
         <v>7</v>
       </c>
+      <c r="HP10" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -7755,6 +7785,9 @@
       <c r="HO11" t="n">
         <v>165</v>
       </c>
+      <c r="HP11" t="n">
+        <v>190</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -8428,6 +8461,9 @@
       <c r="HO12" t="n">
         <v>115</v>
       </c>
+      <c r="HP12" t="n">
+        <v>110</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -9101,6 +9137,9 @@
       <c r="HO13" t="n">
         <v>280</v>
       </c>
+      <c r="HP13" t="n">
+        <v>300</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -9774,6 +9813,9 @@
       <c r="HO14" t="n">
         <v>1.43</v>
       </c>
+      <c r="HP14" t="n">
+        <v>1.73</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -10447,6 +10489,9 @@
       <c r="HO15" t="n">
         <v>47</v>
       </c>
+      <c r="HP15" t="n">
+        <v>42</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -11120,6 +11165,9 @@
       <c r="HO16" t="n">
         <v>69</v>
       </c>
+      <c r="HP16" t="n">
+        <v>62</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -11793,6 +11841,9 @@
       <c r="HO17" t="n">
         <v>24</v>
       </c>
+      <c r="HP17" t="n">
+        <v>45</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -12466,6 +12517,9 @@
       <c r="HO18" t="n">
         <v>16</v>
       </c>
+      <c r="HP18" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -13139,6 +13193,9 @@
       <c r="HO19" t="n">
         <v>15</v>
       </c>
+      <c r="HP19" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -13812,6 +13869,9 @@
       <c r="HO20" t="n">
         <v>9</v>
       </c>
+      <c r="HP20" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -14485,6 +14545,9 @@
       <c r="HO21" t="n">
         <v>6</v>
       </c>
+      <c r="HP21" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -15158,6 +15221,9 @@
       <c r="HO22" t="n">
         <v>4</v>
       </c>
+      <c r="HP22" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -15831,6 +15897,9 @@
       <c r="HO23" t="n">
         <v>0</v>
       </c>
+      <c r="HP23" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -16504,6 +16573,9 @@
       <c r="HO24" t="n">
         <v>13</v>
       </c>
+      <c r="HP24" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -17177,6 +17249,9 @@
       <c r="HO25" t="n">
         <v>69.2</v>
       </c>
+      <c r="HP25" t="n">
+        <v>60</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -17850,6 +17925,9 @@
       <c r="HO26" t="n">
         <v>31.11</v>
       </c>
+      <c r="HP26" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -18523,6 +18601,9 @@
       <c r="HO27" t="n">
         <v>21.54</v>
       </c>
+      <c r="HP27" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -19196,6 +19277,9 @@
       <c r="HO28" t="n">
         <v>39</v>
       </c>
+      <c r="HP28" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -19869,6 +19953,9 @@
       <c r="HO29" t="n">
         <v>52</v>
       </c>
+      <c r="HP29" t="n">
+        <v>59</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -20542,6 +20629,9 @@
       <c r="HO30" t="n">
         <v>34</v>
       </c>
+      <c r="HP30" t="n">
+        <v>38</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -21215,6 +21305,9 @@
       <c r="HO31" t="n">
         <v>40</v>
       </c>
+      <c r="HP31" t="n">
+        <v>58</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -21888,6 +21981,9 @@
       <c r="HO32" t="n">
         <v>3.08</v>
       </c>
+      <c r="HP32" t="n">
+        <v>5.8</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -22561,6 +22657,9 @@
       <c r="HO33" t="n">
         <v>4.44</v>
       </c>
+      <c r="HP33" t="n">
+        <v>9.67</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -23234,6 +23333,9 @@
       <c r="HO34" t="n">
         <v>32.5</v>
       </c>
+      <c r="HP34" t="n">
+        <v>15.5</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -23907,6 +24009,9 @@
       <c r="HO35" t="n">
         <v>22.5</v>
       </c>
+      <c r="HP35" t="n">
+        <v>10.3</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -24580,6 +24685,9 @@
       <c r="HO36" t="n">
         <v>188.5</v>
       </c>
+      <c r="HP36" t="n">
+        <v>188.5</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -25253,6 +25361,9 @@
       <c r="HO37" t="n">
         <v>84.8</v>
       </c>
+      <c r="HP37" t="n">
+        <v>84.8</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -25926,6 +26037,9 @@
       <c r="HO38" t="n">
         <v>26.33</v>
       </c>
+      <c r="HP38" t="n">
+        <v>26.41</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -26599,6 +26713,9 @@
       <c r="HO39" t="n">
         <v>122.6</v>
       </c>
+      <c r="HP39" t="n">
+        <v>123.6</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -27272,6 +27389,9 @@
       <c r="HO40" t="n">
         <v>5</v>
       </c>
+      <c r="HP40" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -27945,6 +28065,9 @@
       <c r="HO41" t="n">
         <v>5</v>
       </c>
+      <c r="HP41" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -28618,6 +28741,9 @@
       <c r="HO42" t="n">
         <v>3</v>
       </c>
+      <c r="HP42" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -29291,6 +29417,9 @@
       <c r="HO43" t="n">
         <v>9</v>
       </c>
+      <c r="HP43" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -29964,6 +30093,9 @@
       <c r="HO44" t="n">
         <v>123</v>
       </c>
+      <c r="HP44" t="n">
+        <v>139</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -30637,6 +30769,9 @@
       <c r="HO45" t="n">
         <v>152</v>
       </c>
+      <c r="HP45" t="n">
+        <v>147</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -31310,6 +31445,9 @@
       <c r="HO46" t="n">
         <v>193</v>
       </c>
+      <c r="HP46" t="n">
+        <v>197</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -31983,6 +32121,9 @@
       <c r="HO47" t="n">
         <v>68.90000000000001</v>
       </c>
+      <c r="HP47" t="n">
+        <v>65.7</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -32656,6 +32797,9 @@
       <c r="HO48" t="n">
         <v>52</v>
       </c>
+      <c r="HP48" t="n">
+        <v>59</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -33329,6 +33473,9 @@
       <c r="HO49" t="n">
         <v>6</v>
       </c>
+      <c r="HP49" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -34002,6 +34149,9 @@
       <c r="HO50" t="n">
         <v>4</v>
       </c>
+      <c r="HP50" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -34675,6 +34825,9 @@
       <c r="HO51" t="n">
         <v>39</v>
       </c>
+      <c r="HP51" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -35348,6 +35501,9 @@
       <c r="HO52" t="n">
         <v>34</v>
       </c>
+      <c r="HP52" t="n">
+        <v>38</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -36021,6 +36177,9 @@
       <c r="HO53" t="n">
         <v>37</v>
       </c>
+      <c r="HP53" t="n">
+        <v>43</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -36694,6 +36853,9 @@
       <c r="HO54" t="n">
         <v>3</v>
       </c>
+      <c r="HP54" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -37367,6 +37529,9 @@
       <c r="HO55" t="n">
         <v>6</v>
       </c>
+      <c r="HP55" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -38040,6 +38205,9 @@
       <c r="HO56" t="n">
         <v>66.7</v>
       </c>
+      <c r="HP56" t="n">
+        <v>66.7</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -38713,6 +38881,9 @@
       <c r="HO57" t="n">
         <v>173</v>
       </c>
+      <c r="HP57" t="n">
+        <v>177</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -39386,6 +39557,9 @@
       <c r="HO58" t="n">
         <v>115</v>
       </c>
+      <c r="HP58" t="n">
+        <v>91</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -40059,6 +40233,9 @@
       <c r="HO59" t="n">
         <v>288</v>
       </c>
+      <c r="HP59" t="n">
+        <v>268</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -40732,6 +40909,9 @@
       <c r="HO60" t="n">
         <v>1.5</v>
       </c>
+      <c r="HP60" t="n">
+        <v>1.95</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -41405,6 +41585,9 @@
       <c r="HO61" t="n">
         <v>73</v>
       </c>
+      <c r="HP61" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -42078,6 +42261,9 @@
       <c r="HO62" t="n">
         <v>51</v>
       </c>
+      <c r="HP62" t="n">
+        <v>66</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -42751,6 +42937,9 @@
       <c r="HO63" t="n">
         <v>36</v>
       </c>
+      <c r="HP63" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -43424,6 +43613,9 @@
       <c r="HO64" t="n">
         <v>15</v>
       </c>
+      <c r="HP64" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -44097,6 +44289,9 @@
       <c r="HO65" t="n">
         <v>16</v>
       </c>
+      <c r="HP65" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -44770,6 +44965,9 @@
       <c r="HO66" t="n">
         <v>5</v>
       </c>
+      <c r="HP66" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -45443,6 +45641,9 @@
       <c r="HO67" t="n">
         <v>4</v>
       </c>
+      <c r="HP67" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -46116,6 +46317,9 @@
       <c r="HO68" t="n">
         <v>10</v>
       </c>
+      <c r="HP68" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -46789,6 +46993,9 @@
       <c r="HO69" t="n">
         <v>2</v>
       </c>
+      <c r="HP69" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -47462,6 +47669,9 @@
       <c r="HO70" t="n">
         <v>17</v>
       </c>
+      <c r="HP70" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -48135,6 +48345,9 @@
       <c r="HO71" t="n">
         <v>29.4</v>
       </c>
+      <c r="HP71" t="n">
+        <v>37.5</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -48808,6 +49021,9 @@
       <c r="HO72" t="n">
         <v>57.6</v>
       </c>
+      <c r="HP72" t="n">
+        <v>44.67</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -49481,6 +49697,9 @@
       <c r="HO73" t="n">
         <v>16.94</v>
       </c>
+      <c r="HP73" t="n">
+        <v>16.75</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -50154,6 +50373,9 @@
       <c r="HO74" t="n">
         <v>31</v>
       </c>
+      <c r="HP74" t="n">
+        <v>41</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -50827,6 +51049,9 @@
       <c r="HO75" t="n">
         <v>42</v>
       </c>
+      <c r="HP75" t="n">
+        <v>73</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -51500,6 +51725,9 @@
       <c r="HO76" t="n">
         <v>31</v>
       </c>
+      <c r="HP76" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -52173,6 +52401,9 @@
       <c r="HO77" t="n">
         <v>41</v>
       </c>
+      <c r="HP77" t="n">
+        <v>44</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -52846,6 +53077,9 @@
       <c r="HO78" t="n">
         <v>2.41</v>
       </c>
+      <c r="HP78" t="n">
+        <v>2.75</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -53519,6 +53753,9 @@
       <c r="HO79" t="n">
         <v>8.199999999999999</v>
       </c>
+      <c r="HP79" t="n">
+        <v>7.33</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -54192,6 +54429,9 @@
       <c r="HO80" t="n">
         <v>36.6</v>
       </c>
+      <c r="HP80" t="n">
+        <v>29.5</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -54865,6 +55105,9 @@
       <c r="HO81" t="n">
         <v>12.2</v>
       </c>
+      <c r="HP81" t="n">
+        <v>13.6</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -55538,6 +55781,9 @@
       <c r="HO82" t="n">
         <v>188.6</v>
       </c>
+      <c r="HP82" t="n">
+        <v>185.5</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -56211,6 +56457,9 @@
       <c r="HO83" t="n">
         <v>89.90000000000001</v>
       </c>
+      <c r="HP83" t="n">
+        <v>86.2</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -56884,6 +57133,9 @@
       <c r="HO84" t="n">
         <v>28.41</v>
       </c>
+      <c r="HP84" t="n">
+        <v>27.8</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -57557,6 +57809,9 @@
       <c r="HO85" t="n">
         <v>161</v>
       </c>
+      <c r="HP85" t="n">
+        <v>132</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -58230,6 +58485,9 @@
       <c r="HO86" t="n">
         <v>3</v>
       </c>
+      <c r="HP86" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -58903,6 +59161,9 @@
       <c r="HO87" t="n">
         <v>4</v>
       </c>
+      <c r="HP87" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -59576,6 +59837,9 @@
       <c r="HO88" t="n">
         <v>4</v>
       </c>
+      <c r="HP88" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -60249,6 +60513,9 @@
       <c r="HO89" t="n">
         <v>11</v>
       </c>
+      <c r="HP89" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -60922,6 +61189,9 @@
       <c r="HO90" t="n">
         <v>127</v>
       </c>
+      <c r="HP90" t="n">
+        <v>134</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -61595,6 +61865,9 @@
       <c r="HO91" t="n">
         <v>158</v>
       </c>
+      <c r="HP91" t="n">
+        <v>114</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -62268,6 +62541,9 @@
       <c r="HO92" t="n">
         <v>198</v>
       </c>
+      <c r="HP92" t="n">
+        <v>156</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -62941,6 +63217,9 @@
       <c r="HO93" t="n">
         <v>68.8</v>
       </c>
+      <c r="HP93" t="n">
+        <v>58.2</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -63614,6 +63893,9 @@
       <c r="HO94" t="n">
         <v>42</v>
       </c>
+      <c r="HP94" t="n">
+        <v>73</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -64287,6 +64569,9 @@
       <c r="HO95" t="n">
         <v>13</v>
       </c>
+      <c r="HP95" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -64960,6 +65245,9 @@
       <c r="HO96" t="n">
         <v>10</v>
       </c>
+      <c r="HP96" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -65633,6 +65921,9 @@
       <c r="HO97" t="n">
         <v>31</v>
       </c>
+      <c r="HP97" t="n">
+        <v>41</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -66306,6 +66597,9 @@
       <c r="HO98" t="n">
         <v>31</v>
       </c>
+      <c r="HP98" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -66979,6 +67273,9 @@
       <c r="HO99" t="n">
         <v>43</v>
       </c>
+      <c r="HP99" t="n">
+        <v>47</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -67652,6 +67949,9 @@
       <c r="HO100" t="n">
         <v>3</v>
       </c>
+      <c r="HP100" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -68325,6 +68625,9 @@
       <c r="HO101" t="n">
         <v>4</v>
       </c>
+      <c r="HP101" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -68998,8 +69301,11 @@
       <c r="HO102" t="n">
         <v>80</v>
       </c>
+      <c r="HP102" t="n">
+        <v>50</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>